--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623772700551403</v>
+        <v>0.9623772700551411</v>
       </c>
       <c r="D2">
         <v>1.025749784427686</v>
       </c>
       <c r="E2">
-        <v>0.9734689825618223</v>
+        <v>0.9734689825618231</v>
       </c>
       <c r="F2">
-        <v>1.000211113882757</v>
+        <v>1.000211113882758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045217287551935</v>
+        <v>1.045217287551936</v>
       </c>
       <c r="J2">
-        <v>0.9857446070507462</v>
+        <v>0.9857446070507468</v>
       </c>
       <c r="K2">
         <v>1.036861671421837</v>
       </c>
       <c r="L2">
-        <v>0.9853107433992528</v>
+        <v>0.9853107433992534</v>
       </c>
       <c r="M2">
-        <v>1.011667508336926</v>
+        <v>1.011667508336927</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711962884358589</v>
+        <v>0.9711962884358598</v>
       </c>
       <c r="D3">
         <v>1.029486072281758</v>
       </c>
       <c r="E3">
-        <v>0.9808142114908716</v>
+        <v>0.9808142114908722</v>
       </c>
       <c r="F3">
         <v>1.007189088229216</v>
@@ -477,13 +477,13 @@
         <v>1.047278672832193</v>
       </c>
       <c r="J3">
-        <v>0.9925042052896648</v>
+        <v>0.9925042052896653</v>
       </c>
       <c r="K3">
         <v>1.039755077579094</v>
       </c>
       <c r="L3">
-        <v>0.9916986101374581</v>
+        <v>0.9916986101374587</v>
       </c>
       <c r="M3">
         <v>1.017730802357155</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9767011024301044</v>
+        <v>0.9767011024301051</v>
       </c>
       <c r="D4">
         <v>1.031827929435857</v>
       </c>
       <c r="E4">
-        <v>0.9854070481234358</v>
+        <v>0.9854070481234366</v>
       </c>
       <c r="F4">
         <v>1.011555923765829</v>
@@ -512,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048551600092928</v>
+        <v>1.048551600092929</v>
       </c>
       <c r="J4">
-        <v>0.9967201755788304</v>
+        <v>0.9967201755788312</v>
       </c>
       <c r="K4">
         <v>1.041556815337206</v>
       </c>
       <c r="L4">
-        <v>0.9956848475865459</v>
+        <v>0.9956848475865467</v>
       </c>
       <c r="M4">
-        <v>1.021516851306311</v>
+        <v>1.021516851306312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.978970261496811</v>
+        <v>0.9789702614968118</v>
       </c>
       <c r="D5">
         <v>1.032795210978889</v>
       </c>
       <c r="E5">
-        <v>0.9873020385558268</v>
+        <v>0.9873020385558274</v>
       </c>
       <c r="F5">
         <v>1.01335832657857</v>
@@ -553,13 +553,13 @@
         <v>1.049072822761413</v>
       </c>
       <c r="J5">
-        <v>0.9984571381829284</v>
+        <v>0.998457138182929</v>
       </c>
       <c r="K5">
-        <v>1.042298211353365</v>
+        <v>1.042298211353366</v>
       </c>
       <c r="L5">
-        <v>0.9973276556598477</v>
+        <v>0.9973276556598483</v>
       </c>
       <c r="M5">
         <v>1.023077532113763</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9793487080880721</v>
+        <v>0.9793487080880723</v>
       </c>
       <c r="D6">
         <v>1.032956635841227</v>
       </c>
       <c r="E6">
-        <v>0.9876181814376387</v>
+        <v>0.9876181814376386</v>
       </c>
       <c r="F6">
         <v>1.013659055951136</v>
@@ -597,7 +597,7 @@
         <v>1.042421775954787</v>
       </c>
       <c r="L6">
-        <v>0.997601615232879</v>
+        <v>0.9976016152328787</v>
       </c>
       <c r="M6">
         <v>1.02333781266429</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.976731596111145</v>
+        <v>0.9767315961111447</v>
       </c>
       <c r="D7">
         <v>1.031840920888403</v>
       </c>
       <c r="E7">
-        <v>0.9854325068168334</v>
+        <v>0.9854325068168329</v>
       </c>
       <c r="F7">
         <v>1.011580136223734</v>
@@ -629,13 +629,13 @@
         <v>1.048558618538209</v>
       </c>
       <c r="J7">
-        <v>0.9967435212118835</v>
+        <v>0.9967435212118831</v>
       </c>
       <c r="K7">
         <v>1.041566783963416</v>
       </c>
       <c r="L7">
-        <v>0.995706925792997</v>
+        <v>0.9957069257929965</v>
       </c>
       <c r="M7">
         <v>1.02153782453632</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9654015052636216</v>
+        <v>0.96540150526362</v>
       </c>
       <c r="D8">
-        <v>1.027028742048296</v>
+        <v>1.027028742048295</v>
       </c>
       <c r="E8">
-        <v>0.9759860396270552</v>
+        <v>0.9759860396270538</v>
       </c>
       <c r="F8">
-        <v>1.002601413113706</v>
+        <v>1.002601413113704</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045926982825371</v>
       </c>
       <c r="J8">
-        <v>0.9880632609077058</v>
+        <v>0.9880632609077044</v>
       </c>
       <c r="K8">
-        <v>1.037854627277409</v>
+        <v>1.037854627277408</v>
       </c>
       <c r="L8">
-        <v>0.9875014296106623</v>
+        <v>0.987501429610661</v>
       </c>
       <c r="M8">
-        <v>1.013746261536505</v>
+        <v>1.013746261536504</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9437266563634674</v>
+        <v>0.943726656363469</v>
       </c>
       <c r="D9">
         <v>1.017922905643897</v>
       </c>
       <c r="E9">
-        <v>0.9579882322915478</v>
+        <v>0.9579882322915497</v>
       </c>
       <c r="F9">
-        <v>0.9855360224581662</v>
+        <v>0.9855360224581671</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.040788942883014</v>
       </c>
       <c r="J9">
-        <v>0.9714360073221351</v>
+        <v>0.9714360073221365</v>
       </c>
       <c r="K9">
         <v>1.03073173811534</v>
       </c>
       <c r="L9">
-        <v>0.9718017970626809</v>
+        <v>0.9718017970626828</v>
       </c>
       <c r="M9">
-        <v>0.9988682092204169</v>
+        <v>0.9988682092204176</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9278565294277225</v>
+        <v>0.9278565294277212</v>
       </c>
       <c r="D10">
-        <v>1.011357361441526</v>
+        <v>1.011357361441525</v>
       </c>
       <c r="E10">
-        <v>0.9448744159711925</v>
+        <v>0.9448744159711914</v>
       </c>
       <c r="F10">
-        <v>0.9731487230902564</v>
+        <v>0.9731487230902552</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036971499346666</v>
       </c>
       <c r="J10">
-        <v>0.959256747133538</v>
+        <v>0.959256747133537</v>
       </c>
       <c r="K10">
-        <v>1.025524538982764</v>
+        <v>1.025524538982763</v>
       </c>
       <c r="L10">
-        <v>0.960315807278767</v>
+        <v>0.9603158072787659</v>
       </c>
       <c r="M10">
-        <v>0.9880203211182792</v>
+        <v>0.9880203211182783</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,7 +763,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9205724651084273</v>
+        <v>0.9205724651084269</v>
       </c>
       <c r="D11">
         <v>1.008376857613361</v>
@@ -772,25 +772,25 @@
         <v>0.9388743905548192</v>
       </c>
       <c r="F11">
-        <v>0.9674974589901563</v>
+        <v>0.9674974589901567</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035210314563567</v>
+        <v>1.035210314563566</v>
       </c>
       <c r="J11">
-        <v>0.9536682419305939</v>
+        <v>0.9536682419305937</v>
       </c>
       <c r="K11">
         <v>1.023142509020802</v>
       </c>
       <c r="L11">
-        <v>0.9550490704770976</v>
+        <v>0.9550490704770975</v>
       </c>
       <c r="M11">
-        <v>0.9830595069279103</v>
+        <v>0.9830595069279104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9177970700660438</v>
+        <v>0.9177970700660442</v>
       </c>
       <c r="D12">
         <v>1.007247033742077</v>
       </c>
       <c r="E12">
-        <v>0.9365914693703419</v>
+        <v>0.9365914693703423</v>
       </c>
       <c r="F12">
-        <v>0.9653502156552717</v>
+        <v>0.9653502156552723</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034538311357776</v>
       </c>
       <c r="J12">
-        <v>0.9515393979560418</v>
+        <v>0.951539397956042</v>
       </c>
       <c r="K12">
         <v>1.022236696714152</v>
       </c>
       <c r="L12">
-        <v>0.9530433872850718</v>
+        <v>0.9530433872850719</v>
       </c>
       <c r="M12">
-        <v>0.981172783987031</v>
+        <v>0.9811727839870314</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,7 +839,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9183957006310582</v>
+        <v>0.918395700631058</v>
       </c>
       <c r="D13">
         <v>1.007490450374558</v>
@@ -848,7 +848,7 @@
         <v>0.9370837250999018</v>
       </c>
       <c r="F13">
-        <v>0.9658130721898293</v>
+        <v>0.9658130721898289</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034683292822282</v>
       </c>
       <c r="J13">
-        <v>0.9519985449974135</v>
+        <v>0.9519985449974133</v>
       </c>
       <c r="K13">
         <v>1.022431981771929</v>
       </c>
       <c r="L13">
-        <v>0.9534759438835192</v>
+        <v>0.953475943883519</v>
       </c>
       <c r="M13">
-        <v>0.9815795660626804</v>
+        <v>0.9815795660626799</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.92034452385064</v>
+        <v>0.9203445238506403</v>
       </c>
       <c r="D14">
         <v>1.00828394290595</v>
       </c>
       <c r="E14">
-        <v>0.938686828178585</v>
+        <v>0.9386868281785853</v>
       </c>
       <c r="F14">
-        <v>0.9673209801647503</v>
+        <v>0.9673209801647504</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.035155140113745</v>
       </c>
       <c r="J14">
-        <v>0.9534933895237897</v>
+        <v>0.9534933895237899</v>
       </c>
       <c r="K14">
         <v>1.023068075233865</v>
       </c>
       <c r="L14">
-        <v>0.954884321709461</v>
+        <v>0.9548843217094614</v>
       </c>
       <c r="M14">
-        <v>0.9829044770573157</v>
+        <v>0.9829044770573158</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.008769760086066</v>
       </c>
       <c r="E15">
-        <v>0.9396671698911179</v>
+        <v>0.9396671698911181</v>
       </c>
       <c r="F15">
-        <v>0.9682435150483556</v>
+        <v>0.9682435150483557</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035443448031192</v>
       </c>
       <c r="J15">
-        <v>0.9544071974702451</v>
+        <v>0.9544071974702453</v>
       </c>
       <c r="K15">
-        <v>1.023457145750345</v>
+        <v>1.023457145750346</v>
       </c>
       <c r="L15">
-        <v>0.9557453504570446</v>
+        <v>0.9557453504570451</v>
       </c>
       <c r="M15">
-        <v>0.9837148143425418</v>
+        <v>0.9837148143425417</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9283306265826615</v>
+        <v>0.9283306265826616</v>
       </c>
       <c r="D16">
-        <v>1.011552100591975</v>
+        <v>1.011552100591976</v>
       </c>
       <c r="E16">
-        <v>0.9452653590526783</v>
+        <v>0.9452653590526785</v>
       </c>
       <c r="F16">
-        <v>0.9735173206344261</v>
+        <v>0.9735173206344253</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.037085976025374</v>
       </c>
       <c r="J16">
-        <v>0.9596205389831525</v>
+        <v>0.9596205389831526</v>
       </c>
       <c r="K16">
         <v>1.02567978995245</v>
@@ -980,7 +980,7 @@
         <v>0.9606587315216788</v>
       </c>
       <c r="M16">
-        <v>0.9883436371876936</v>
+        <v>0.9883436371876931</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9324774035288945</v>
+        <v>0.9324774035288947</v>
       </c>
       <c r="D17">
         <v>1.013259201787055</v>
       </c>
       <c r="E17">
-        <v>0.9486869739286663</v>
+        <v>0.9486869739286664</v>
       </c>
       <c r="F17">
-        <v>0.9767452505278171</v>
+        <v>0.9767452505278172</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038086296187812</v>
       </c>
       <c r="J17">
-        <v>0.9628027095702071</v>
+        <v>0.9628027095702072</v>
       </c>
       <c r="K17">
         <v>1.027038675716733</v>
       </c>
       <c r="L17">
-        <v>0.9636587819622034</v>
+        <v>0.9636587819622037</v>
       </c>
       <c r="M17">
-        <v>0.9911736871805572</v>
+        <v>0.9911736871805573</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9348569750165141</v>
+        <v>0.934856975016514</v>
       </c>
       <c r="D18">
-        <v>1.014241806268343</v>
+        <v>1.014241806268342</v>
       </c>
       <c r="E18">
-        <v>0.950652158800547</v>
+        <v>0.9506521588005469</v>
       </c>
       <c r="F18">
-        <v>0.9786006823865876</v>
+        <v>0.9786006823865874</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038659444066774</v>
+        <v>1.038659444066773</v>
       </c>
       <c r="J18">
-        <v>0.964628877400575</v>
+        <v>0.9646288774005749</v>
       </c>
       <c r="K18">
         <v>1.027819153839454</v>
       </c>
       <c r="L18">
-        <v>0.9653807735950659</v>
+        <v>0.9653807735950657</v>
       </c>
       <c r="M18">
-        <v>0.9927993106100766</v>
+        <v>0.9927993106100765</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356619188140048</v>
+        <v>0.9356619188140047</v>
       </c>
       <c r="D19">
         <v>1.01457468110072</v>
       </c>
       <c r="E19">
-        <v>0.9513172115999216</v>
+        <v>0.9513172115999214</v>
       </c>
       <c r="F19">
         <v>0.9792288313670224</v>
@@ -1082,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038853165218564</v>
+        <v>1.038853165218563</v>
       </c>
       <c r="J19">
-        <v>0.9652466333345426</v>
+        <v>0.9652466333345424</v>
       </c>
       <c r="K19">
         <v>1.028083270699681</v>
@@ -1094,7 +1094,7 @@
         <v>0.9659633451069952</v>
       </c>
       <c r="M19">
-        <v>0.9933494725065239</v>
+        <v>0.9933494725065237</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.932036597706411</v>
+        <v>0.9320365977064113</v>
       </c>
       <c r="D20">
         <v>1.01307741675231</v>
       </c>
       <c r="E20">
-        <v>0.9483230700925709</v>
+        <v>0.948323070092571</v>
       </c>
       <c r="F20">
-        <v>0.9764017876179519</v>
+        <v>0.9764017876179527</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03798004941625</v>
       </c>
       <c r="J20">
-        <v>0.9624644276526552</v>
+        <v>0.9624644276526556</v>
       </c>
       <c r="K20">
         <v>1.026894148231548</v>
       </c>
       <c r="L20">
-        <v>0.9633398249689563</v>
+        <v>0.9633398249689566</v>
       </c>
       <c r="M20">
-        <v>0.9908726752534091</v>
+        <v>0.9908726752534096</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.919772640160011</v>
+        <v>0.9197726401600126</v>
       </c>
       <c r="D21">
-        <v>1.008050924945062</v>
+        <v>1.008050924945063</v>
       </c>
       <c r="E21">
-        <v>0.938216304567712</v>
+        <v>0.9382163045677135</v>
       </c>
       <c r="F21">
-        <v>0.9668783107847515</v>
+        <v>0.9668783107847523</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.035016698700281</v>
       </c>
       <c r="J21">
-        <v>0.953054709993806</v>
+        <v>0.9530547099938074</v>
       </c>
       <c r="K21">
         <v>1.022881358696436</v>
       </c>
       <c r="L21">
-        <v>0.954471000351704</v>
+        <v>0.9544710003517055</v>
       </c>
       <c r="M21">
-        <v>0.9825155795893389</v>
+        <v>0.9825155795893398</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9116531264369487</v>
+        <v>0.9116531264369488</v>
       </c>
       <c r="D22">
         <v>1.004757757961172</v>
       </c>
       <c r="E22">
-        <v>0.9315441725337371</v>
+        <v>0.9315441725337372</v>
       </c>
       <c r="F22">
-        <v>0.9606090559512629</v>
+        <v>0.960609055951263</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.033049431605727</v>
       </c>
       <c r="J22">
-        <v>0.9468280168382004</v>
+        <v>0.9468280168382006</v>
       </c>
       <c r="K22">
         <v>1.020235548299992</v>
       </c>
       <c r="L22">
-        <v>0.9486057147076618</v>
+        <v>0.948605714707662</v>
       </c>
       <c r="M22">
-        <v>0.9770034373160402</v>
+        <v>0.9770034373160403</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9159991881635104</v>
+        <v>0.9159991881635097</v>
       </c>
       <c r="D23">
-        <v>1.006516900921084</v>
+        <v>1.006516900921083</v>
       </c>
       <c r="E23">
-        <v>0.9351135713451652</v>
+        <v>0.9351135713451643</v>
       </c>
       <c r="F23">
-        <v>0.9639610646199058</v>
+        <v>0.9639610646199055</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.034102780231551</v>
       </c>
       <c r="J23">
-        <v>0.9501605280571328</v>
+        <v>0.950160528057132</v>
       </c>
       <c r="K23">
-        <v>1.02165050646075</v>
+        <v>1.021650506460749</v>
       </c>
       <c r="L23">
-        <v>0.951744461191669</v>
+        <v>0.9517444611916682</v>
       </c>
       <c r="M23">
-        <v>0.9799516559685676</v>
+        <v>0.9799516559685671</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9322358993662833</v>
+        <v>0.9322358993662834</v>
       </c>
       <c r="D24">
-        <v>1.013159597974441</v>
+        <v>1.01315959797444</v>
       </c>
       <c r="E24">
-        <v>0.9484875966555089</v>
+        <v>0.948487596655509</v>
       </c>
       <c r="F24">
-        <v>0.9765570679277316</v>
+        <v>0.9765570679277311</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038028089542024</v>
       </c>
       <c r="J24">
-        <v>0.9626173747888231</v>
+        <v>0.9626173747888233</v>
       </c>
       <c r="K24">
         <v>1.026959491348525</v>
       </c>
       <c r="L24">
-        <v>0.9634840336934744</v>
+        <v>0.9634840336934745</v>
       </c>
       <c r="M24">
-        <v>0.9910087668164831</v>
+        <v>0.9910087668164829</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9495581478626797</v>
+        <v>0.9495581478626791</v>
       </c>
       <c r="D25">
-        <v>1.020358190664402</v>
+        <v>1.020358190664401</v>
       </c>
       <c r="E25">
-        <v>0.9628207145158142</v>
+        <v>0.9628207145158136</v>
       </c>
       <c r="F25">
-        <v>0.9901116599203895</v>
+        <v>0.9901116599203893</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.04218182117339</v>
       </c>
       <c r="J25">
-        <v>0.9759110692566193</v>
+        <v>0.9759110692566189</v>
       </c>
       <c r="K25">
         <v>1.032648483272159</v>
       </c>
       <c r="L25">
-        <v>0.9760249810827728</v>
+        <v>0.9760249810827722</v>
       </c>
       <c r="M25">
         <v>1.002865443980444</v>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623772700551411</v>
+        <v>0.9623772700551403</v>
       </c>
       <c r="D2">
         <v>1.025749784427686</v>
       </c>
       <c r="E2">
-        <v>0.9734689825618231</v>
+        <v>0.9734689825618223</v>
       </c>
       <c r="F2">
-        <v>1.000211113882758</v>
+        <v>1.000211113882757</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045217287551936</v>
+        <v>1.045217287551935</v>
       </c>
       <c r="J2">
-        <v>0.9857446070507468</v>
+        <v>0.9857446070507462</v>
       </c>
       <c r="K2">
         <v>1.036861671421837</v>
       </c>
       <c r="L2">
-        <v>0.9853107433992534</v>
+        <v>0.9853107433992528</v>
       </c>
       <c r="M2">
-        <v>1.011667508336927</v>
+        <v>1.011667508336926</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711962884358598</v>
+        <v>0.9711962884358589</v>
       </c>
       <c r="D3">
         <v>1.029486072281758</v>
       </c>
       <c r="E3">
-        <v>0.9808142114908722</v>
+        <v>0.9808142114908716</v>
       </c>
       <c r="F3">
         <v>1.007189088229216</v>
@@ -477,13 +477,13 @@
         <v>1.047278672832193</v>
       </c>
       <c r="J3">
-        <v>0.9925042052896653</v>
+        <v>0.9925042052896648</v>
       </c>
       <c r="K3">
         <v>1.039755077579094</v>
       </c>
       <c r="L3">
-        <v>0.9916986101374587</v>
+        <v>0.9916986101374581</v>
       </c>
       <c r="M3">
         <v>1.017730802357155</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9767011024301051</v>
+        <v>0.9767011024301044</v>
       </c>
       <c r="D4">
         <v>1.031827929435857</v>
       </c>
       <c r="E4">
-        <v>0.9854070481234366</v>
+        <v>0.9854070481234358</v>
       </c>
       <c r="F4">
         <v>1.011555923765829</v>
@@ -512,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048551600092929</v>
+        <v>1.048551600092928</v>
       </c>
       <c r="J4">
-        <v>0.9967201755788312</v>
+        <v>0.9967201755788304</v>
       </c>
       <c r="K4">
         <v>1.041556815337206</v>
       </c>
       <c r="L4">
-        <v>0.9956848475865467</v>
+        <v>0.9956848475865459</v>
       </c>
       <c r="M4">
-        <v>1.021516851306312</v>
+        <v>1.021516851306311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9789702614968118</v>
+        <v>0.978970261496811</v>
       </c>
       <c r="D5">
         <v>1.032795210978889</v>
       </c>
       <c r="E5">
-        <v>0.9873020385558274</v>
+        <v>0.9873020385558268</v>
       </c>
       <c r="F5">
         <v>1.01335832657857</v>
@@ -553,13 +553,13 @@
         <v>1.049072822761413</v>
       </c>
       <c r="J5">
-        <v>0.998457138182929</v>
+        <v>0.9984571381829284</v>
       </c>
       <c r="K5">
-        <v>1.042298211353366</v>
+        <v>1.042298211353365</v>
       </c>
       <c r="L5">
-        <v>0.9973276556598483</v>
+        <v>0.9973276556598477</v>
       </c>
       <c r="M5">
         <v>1.023077532113763</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9793487080880723</v>
+        <v>0.9793487080880721</v>
       </c>
       <c r="D6">
         <v>1.032956635841227</v>
       </c>
       <c r="E6">
-        <v>0.9876181814376386</v>
+        <v>0.9876181814376387</v>
       </c>
       <c r="F6">
         <v>1.013659055951136</v>
@@ -597,7 +597,7 @@
         <v>1.042421775954787</v>
       </c>
       <c r="L6">
-        <v>0.9976016152328787</v>
+        <v>0.997601615232879</v>
       </c>
       <c r="M6">
         <v>1.02333781266429</v>
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9767315961111447</v>
+        <v>0.976731596111145</v>
       </c>
       <c r="D7">
         <v>1.031840920888403</v>
       </c>
       <c r="E7">
-        <v>0.9854325068168329</v>
+        <v>0.9854325068168334</v>
       </c>
       <c r="F7">
         <v>1.011580136223734</v>
@@ -629,13 +629,13 @@
         <v>1.048558618538209</v>
       </c>
       <c r="J7">
-        <v>0.9967435212118831</v>
+        <v>0.9967435212118835</v>
       </c>
       <c r="K7">
         <v>1.041566783963416</v>
       </c>
       <c r="L7">
-        <v>0.9957069257929965</v>
+        <v>0.995706925792997</v>
       </c>
       <c r="M7">
         <v>1.02153782453632</v>
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.96540150526362</v>
+        <v>0.9654015052636216</v>
       </c>
       <c r="D8">
-        <v>1.027028742048295</v>
+        <v>1.027028742048296</v>
       </c>
       <c r="E8">
-        <v>0.9759860396270538</v>
+        <v>0.9759860396270552</v>
       </c>
       <c r="F8">
-        <v>1.002601413113704</v>
+        <v>1.002601413113706</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.045926982825371</v>
       </c>
       <c r="J8">
-        <v>0.9880632609077044</v>
+        <v>0.9880632609077058</v>
       </c>
       <c r="K8">
-        <v>1.037854627277408</v>
+        <v>1.037854627277409</v>
       </c>
       <c r="L8">
-        <v>0.987501429610661</v>
+        <v>0.9875014296106623</v>
       </c>
       <c r="M8">
-        <v>1.013746261536504</v>
+        <v>1.013746261536505</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.943726656363469</v>
+        <v>0.9437266563634674</v>
       </c>
       <c r="D9">
         <v>1.017922905643897</v>
       </c>
       <c r="E9">
-        <v>0.9579882322915497</v>
+        <v>0.9579882322915478</v>
       </c>
       <c r="F9">
-        <v>0.9855360224581671</v>
+        <v>0.9855360224581662</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.040788942883014</v>
       </c>
       <c r="J9">
-        <v>0.9714360073221365</v>
+        <v>0.9714360073221351</v>
       </c>
       <c r="K9">
         <v>1.03073173811534</v>
       </c>
       <c r="L9">
-        <v>0.9718017970626828</v>
+        <v>0.9718017970626809</v>
       </c>
       <c r="M9">
-        <v>0.9988682092204176</v>
+        <v>0.9988682092204169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9278565294277212</v>
+        <v>0.9278565294277225</v>
       </c>
       <c r="D10">
-        <v>1.011357361441525</v>
+        <v>1.011357361441526</v>
       </c>
       <c r="E10">
-        <v>0.9448744159711914</v>
+        <v>0.9448744159711925</v>
       </c>
       <c r="F10">
-        <v>0.9731487230902552</v>
+        <v>0.9731487230902564</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036971499346666</v>
       </c>
       <c r="J10">
-        <v>0.959256747133537</v>
+        <v>0.959256747133538</v>
       </c>
       <c r="K10">
-        <v>1.025524538982763</v>
+        <v>1.025524538982764</v>
       </c>
       <c r="L10">
-        <v>0.9603158072787659</v>
+        <v>0.960315807278767</v>
       </c>
       <c r="M10">
-        <v>0.9880203211182783</v>
+        <v>0.9880203211182792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,7 +763,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9205724651084269</v>
+        <v>0.9205724651084273</v>
       </c>
       <c r="D11">
         <v>1.008376857613361</v>
@@ -772,25 +772,25 @@
         <v>0.9388743905548192</v>
       </c>
       <c r="F11">
-        <v>0.9674974589901567</v>
+        <v>0.9674974589901563</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035210314563566</v>
+        <v>1.035210314563567</v>
       </c>
       <c r="J11">
-        <v>0.9536682419305937</v>
+        <v>0.9536682419305939</v>
       </c>
       <c r="K11">
         <v>1.023142509020802</v>
       </c>
       <c r="L11">
-        <v>0.9550490704770975</v>
+        <v>0.9550490704770976</v>
       </c>
       <c r="M11">
-        <v>0.9830595069279104</v>
+        <v>0.9830595069279103</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9177970700660442</v>
+        <v>0.9177970700660438</v>
       </c>
       <c r="D12">
         <v>1.007247033742077</v>
       </c>
       <c r="E12">
-        <v>0.9365914693703423</v>
+        <v>0.9365914693703419</v>
       </c>
       <c r="F12">
-        <v>0.9653502156552723</v>
+        <v>0.9653502156552717</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.034538311357776</v>
       </c>
       <c r="J12">
-        <v>0.951539397956042</v>
+        <v>0.9515393979560418</v>
       </c>
       <c r="K12">
         <v>1.022236696714152</v>
       </c>
       <c r="L12">
-        <v>0.9530433872850719</v>
+        <v>0.9530433872850718</v>
       </c>
       <c r="M12">
-        <v>0.9811727839870314</v>
+        <v>0.981172783987031</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,7 +839,7 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.918395700631058</v>
+        <v>0.9183957006310582</v>
       </c>
       <c r="D13">
         <v>1.007490450374558</v>
@@ -848,7 +848,7 @@
         <v>0.9370837250999018</v>
       </c>
       <c r="F13">
-        <v>0.9658130721898289</v>
+        <v>0.9658130721898293</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.034683292822282</v>
       </c>
       <c r="J13">
-        <v>0.9519985449974133</v>
+        <v>0.9519985449974135</v>
       </c>
       <c r="K13">
         <v>1.022431981771929</v>
       </c>
       <c r="L13">
-        <v>0.953475943883519</v>
+        <v>0.9534759438835192</v>
       </c>
       <c r="M13">
-        <v>0.9815795660626799</v>
+        <v>0.9815795660626804</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9203445238506403</v>
+        <v>0.92034452385064</v>
       </c>
       <c r="D14">
         <v>1.00828394290595</v>
       </c>
       <c r="E14">
-        <v>0.9386868281785853</v>
+        <v>0.938686828178585</v>
       </c>
       <c r="F14">
-        <v>0.9673209801647504</v>
+        <v>0.9673209801647503</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.035155140113745</v>
       </c>
       <c r="J14">
-        <v>0.9534933895237899</v>
+        <v>0.9534933895237897</v>
       </c>
       <c r="K14">
         <v>1.023068075233865</v>
       </c>
       <c r="L14">
-        <v>0.9548843217094614</v>
+        <v>0.954884321709461</v>
       </c>
       <c r="M14">
-        <v>0.9829044770573158</v>
+        <v>0.9829044770573157</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -921,10 +921,10 @@
         <v>1.008769760086066</v>
       </c>
       <c r="E15">
-        <v>0.9396671698911181</v>
+        <v>0.9396671698911179</v>
       </c>
       <c r="F15">
-        <v>0.9682435150483557</v>
+        <v>0.9682435150483556</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.035443448031192</v>
       </c>
       <c r="J15">
-        <v>0.9544071974702453</v>
+        <v>0.9544071974702451</v>
       </c>
       <c r="K15">
-        <v>1.023457145750346</v>
+        <v>1.023457145750345</v>
       </c>
       <c r="L15">
-        <v>0.9557453504570451</v>
+        <v>0.9557453504570446</v>
       </c>
       <c r="M15">
-        <v>0.9837148143425417</v>
+        <v>0.9837148143425418</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9283306265826616</v>
+        <v>0.9283306265826615</v>
       </c>
       <c r="D16">
-        <v>1.011552100591976</v>
+        <v>1.011552100591975</v>
       </c>
       <c r="E16">
-        <v>0.9452653590526785</v>
+        <v>0.9452653590526783</v>
       </c>
       <c r="F16">
-        <v>0.9735173206344253</v>
+        <v>0.9735173206344261</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>1.037085976025374</v>
       </c>
       <c r="J16">
-        <v>0.9596205389831526</v>
+        <v>0.9596205389831525</v>
       </c>
       <c r="K16">
         <v>1.02567978995245</v>
@@ -980,7 +980,7 @@
         <v>0.9606587315216788</v>
       </c>
       <c r="M16">
-        <v>0.9883436371876931</v>
+        <v>0.9883436371876936</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9324774035288947</v>
+        <v>0.9324774035288945</v>
       </c>
       <c r="D17">
         <v>1.013259201787055</v>
       </c>
       <c r="E17">
-        <v>0.9486869739286664</v>
+        <v>0.9486869739286663</v>
       </c>
       <c r="F17">
-        <v>0.9767452505278172</v>
+        <v>0.9767452505278171</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038086296187812</v>
       </c>
       <c r="J17">
-        <v>0.9628027095702072</v>
+        <v>0.9628027095702071</v>
       </c>
       <c r="K17">
         <v>1.027038675716733</v>
       </c>
       <c r="L17">
-        <v>0.9636587819622037</v>
+        <v>0.9636587819622034</v>
       </c>
       <c r="M17">
-        <v>0.9911736871805573</v>
+        <v>0.9911736871805572</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.934856975016514</v>
+        <v>0.9348569750165141</v>
       </c>
       <c r="D18">
-        <v>1.014241806268342</v>
+        <v>1.014241806268343</v>
       </c>
       <c r="E18">
-        <v>0.9506521588005469</v>
+        <v>0.950652158800547</v>
       </c>
       <c r="F18">
-        <v>0.9786006823865874</v>
+        <v>0.9786006823865876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038659444066773</v>
+        <v>1.038659444066774</v>
       </c>
       <c r="J18">
-        <v>0.9646288774005749</v>
+        <v>0.964628877400575</v>
       </c>
       <c r="K18">
         <v>1.027819153839454</v>
       </c>
       <c r="L18">
-        <v>0.9653807735950657</v>
+        <v>0.9653807735950659</v>
       </c>
       <c r="M18">
-        <v>0.9927993106100765</v>
+        <v>0.9927993106100766</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356619188140047</v>
+        <v>0.9356619188140048</v>
       </c>
       <c r="D19">
         <v>1.01457468110072</v>
       </c>
       <c r="E19">
-        <v>0.9513172115999214</v>
+        <v>0.9513172115999216</v>
       </c>
       <c r="F19">
         <v>0.9792288313670224</v>
@@ -1082,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038853165218563</v>
+        <v>1.038853165218564</v>
       </c>
       <c r="J19">
-        <v>0.9652466333345424</v>
+        <v>0.9652466333345426</v>
       </c>
       <c r="K19">
         <v>1.028083270699681</v>
@@ -1094,7 +1094,7 @@
         <v>0.9659633451069952</v>
       </c>
       <c r="M19">
-        <v>0.9933494725065237</v>
+        <v>0.9933494725065239</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9320365977064113</v>
+        <v>0.932036597706411</v>
       </c>
       <c r="D20">
         <v>1.01307741675231</v>
       </c>
       <c r="E20">
-        <v>0.948323070092571</v>
+        <v>0.9483230700925709</v>
       </c>
       <c r="F20">
-        <v>0.9764017876179527</v>
+        <v>0.9764017876179519</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03798004941625</v>
       </c>
       <c r="J20">
-        <v>0.9624644276526556</v>
+        <v>0.9624644276526552</v>
       </c>
       <c r="K20">
         <v>1.026894148231548</v>
       </c>
       <c r="L20">
-        <v>0.9633398249689566</v>
+        <v>0.9633398249689563</v>
       </c>
       <c r="M20">
-        <v>0.9908726752534096</v>
+        <v>0.9908726752534091</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9197726401600126</v>
+        <v>0.919772640160011</v>
       </c>
       <c r="D21">
-        <v>1.008050924945063</v>
+        <v>1.008050924945062</v>
       </c>
       <c r="E21">
-        <v>0.9382163045677135</v>
+        <v>0.938216304567712</v>
       </c>
       <c r="F21">
-        <v>0.9668783107847523</v>
+        <v>0.9668783107847515</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.035016698700281</v>
       </c>
       <c r="J21">
-        <v>0.9530547099938074</v>
+        <v>0.953054709993806</v>
       </c>
       <c r="K21">
         <v>1.022881358696436</v>
       </c>
       <c r="L21">
-        <v>0.9544710003517055</v>
+        <v>0.954471000351704</v>
       </c>
       <c r="M21">
-        <v>0.9825155795893398</v>
+        <v>0.9825155795893389</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9116531264369488</v>
+        <v>0.9116531264369487</v>
       </c>
       <c r="D22">
         <v>1.004757757961172</v>
       </c>
       <c r="E22">
-        <v>0.9315441725337372</v>
+        <v>0.9315441725337371</v>
       </c>
       <c r="F22">
-        <v>0.960609055951263</v>
+        <v>0.9606090559512629</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.033049431605727</v>
       </c>
       <c r="J22">
-        <v>0.9468280168382006</v>
+        <v>0.9468280168382004</v>
       </c>
       <c r="K22">
         <v>1.020235548299992</v>
       </c>
       <c r="L22">
-        <v>0.948605714707662</v>
+        <v>0.9486057147076618</v>
       </c>
       <c r="M22">
-        <v>0.9770034373160403</v>
+        <v>0.9770034373160402</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9159991881635097</v>
+        <v>0.9159991881635104</v>
       </c>
       <c r="D23">
-        <v>1.006516900921083</v>
+        <v>1.006516900921084</v>
       </c>
       <c r="E23">
-        <v>0.9351135713451643</v>
+        <v>0.9351135713451652</v>
       </c>
       <c r="F23">
-        <v>0.9639610646199055</v>
+        <v>0.9639610646199058</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.034102780231551</v>
       </c>
       <c r="J23">
-        <v>0.950160528057132</v>
+        <v>0.9501605280571328</v>
       </c>
       <c r="K23">
-        <v>1.021650506460749</v>
+        <v>1.02165050646075</v>
       </c>
       <c r="L23">
-        <v>0.9517444611916682</v>
+        <v>0.951744461191669</v>
       </c>
       <c r="M23">
-        <v>0.9799516559685671</v>
+        <v>0.9799516559685676</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9322358993662834</v>
+        <v>0.9322358993662833</v>
       </c>
       <c r="D24">
-        <v>1.01315959797444</v>
+        <v>1.013159597974441</v>
       </c>
       <c r="E24">
-        <v>0.948487596655509</v>
+        <v>0.9484875966555089</v>
       </c>
       <c r="F24">
-        <v>0.9765570679277311</v>
+        <v>0.9765570679277316</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.038028089542024</v>
       </c>
       <c r="J24">
-        <v>0.9626173747888233</v>
+        <v>0.9626173747888231</v>
       </c>
       <c r="K24">
         <v>1.026959491348525</v>
       </c>
       <c r="L24">
-        <v>0.9634840336934745</v>
+        <v>0.9634840336934744</v>
       </c>
       <c r="M24">
-        <v>0.9910087668164829</v>
+        <v>0.9910087668164831</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9495581478626791</v>
+        <v>0.9495581478626797</v>
       </c>
       <c r="D25">
-        <v>1.020358190664401</v>
+        <v>1.020358190664402</v>
       </c>
       <c r="E25">
-        <v>0.9628207145158136</v>
+        <v>0.9628207145158142</v>
       </c>
       <c r="F25">
-        <v>0.9901116599203893</v>
+        <v>0.9901116599203895</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.04218182117339</v>
       </c>
       <c r="J25">
-        <v>0.9759110692566189</v>
+        <v>0.9759110692566193</v>
       </c>
       <c r="K25">
         <v>1.032648483272159</v>
       </c>
       <c r="L25">
-        <v>0.9760249810827722</v>
+        <v>0.9760249810827728</v>
       </c>
       <c r="M25">
         <v>1.002865443980444</v>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9623772700551403</v>
+        <v>0.9624161491992922</v>
       </c>
       <c r="D2">
-        <v>1.025749784427686</v>
+        <v>1.025759621668067</v>
       </c>
       <c r="E2">
-        <v>0.9734689825618223</v>
+        <v>0.9735036981186442</v>
       </c>
       <c r="F2">
-        <v>1.000211113882757</v>
+        <v>1.000234881822926</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045217287551935</v>
+        <v>1.045225856790971</v>
       </c>
       <c r="J2">
-        <v>0.9857446070507462</v>
+        <v>0.9857821932548106</v>
       </c>
       <c r="K2">
-        <v>1.036861671421837</v>
+        <v>1.036871380103077</v>
       </c>
       <c r="L2">
-        <v>0.9853107433992528</v>
+        <v>0.9853449412372154</v>
       </c>
       <c r="M2">
-        <v>1.011667508336926</v>
+        <v>1.011690945338229</v>
+      </c>
+      <c r="N2">
+        <v>0.9919314625527567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9711962884358589</v>
+        <v>0.9712273916067073</v>
       </c>
       <c r="D3">
-        <v>1.029486072281758</v>
+        <v>1.029493998540851</v>
       </c>
       <c r="E3">
-        <v>0.9808142114908716</v>
+        <v>0.9808421123109851</v>
       </c>
       <c r="F3">
-        <v>1.007189088229216</v>
+        <v>1.00720818980187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047278672832193</v>
+        <v>1.047285592066411</v>
       </c>
       <c r="J3">
-        <v>0.9925042052896648</v>
+        <v>0.9925343900298425</v>
       </c>
       <c r="K3">
-        <v>1.039755077579094</v>
+        <v>1.039762909498367</v>
       </c>
       <c r="L3">
-        <v>0.9916986101374581</v>
+        <v>0.9917261362130926</v>
       </c>
       <c r="M3">
-        <v>1.017730802357155</v>
+        <v>1.017749663860093</v>
+      </c>
+      <c r="N3">
+        <v>0.9966216732961586</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9767011024301044</v>
+        <v>0.9767274712361178</v>
       </c>
       <c r="D4">
-        <v>1.031827929435857</v>
+        <v>1.031834694409231</v>
       </c>
       <c r="E4">
-        <v>0.9854070481234358</v>
+        <v>0.9854307897358539</v>
       </c>
       <c r="F4">
-        <v>1.011555923765829</v>
+        <v>1.011572189088497</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048551600092928</v>
+        <v>1.048557513216322</v>
       </c>
       <c r="J4">
-        <v>0.9967201755788304</v>
+        <v>0.9967458253268098</v>
       </c>
       <c r="K4">
-        <v>1.041556815337206</v>
+        <v>1.041563504749442</v>
       </c>
       <c r="L4">
-        <v>0.9956848475865459</v>
+        <v>0.9957082919927409</v>
       </c>
       <c r="M4">
-        <v>1.021516851306311</v>
+        <v>1.021532925837233</v>
+      </c>
+      <c r="N4">
+        <v>0.9995444689807186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.978970261496811</v>
+        <v>0.9789947038165994</v>
       </c>
       <c r="D5">
-        <v>1.032795210978889</v>
+        <v>1.032801503952648</v>
       </c>
       <c r="E5">
-        <v>0.9873020385558268</v>
+        <v>0.9873240856873844</v>
       </c>
       <c r="F5">
-        <v>1.01335832657857</v>
+        <v>1.013373438985438</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049072822761413</v>
+        <v>1.049078326191745</v>
       </c>
       <c r="J5">
-        <v>0.9984571381829284</v>
+        <v>0.9984809363768724</v>
       </c>
       <c r="K5">
-        <v>1.042298211353365</v>
+        <v>1.042304435944893</v>
       </c>
       <c r="L5">
-        <v>0.9973276556598477</v>
+        <v>0.9973494350354372</v>
       </c>
       <c r="M5">
-        <v>1.023077532113763</v>
+        <v>1.023092472446032</v>
+      </c>
+      <c r="N5">
+        <v>1.000748026658545</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9793487080880721</v>
+        <v>0.979372830492648</v>
       </c>
       <c r="D6">
-        <v>1.032956635841227</v>
+        <v>1.032962850466412</v>
       </c>
       <c r="E6">
-        <v>0.9876181814376387</v>
+        <v>0.9876399470716685</v>
       </c>
       <c r="F6">
-        <v>1.013659055951136</v>
+        <v>1.013673976974327</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049159540565136</v>
+        <v>1.049164975945951</v>
       </c>
       <c r="J6">
-        <v>0.9987467688663326</v>
+        <v>0.998770259242011</v>
       </c>
       <c r="K6">
-        <v>1.042421775954787</v>
+        <v>1.042427923363525</v>
       </c>
       <c r="L6">
-        <v>0.997601615232879</v>
+        <v>0.997623117882763</v>
       </c>
       <c r="M6">
-        <v>1.02333781266429</v>
+        <v>1.023352564645691</v>
+      </c>
+      <c r="N6">
+        <v>1.000948677208934</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.976731596111145</v>
+        <v>0.9767579389333915</v>
       </c>
       <c r="D7">
-        <v>1.031840920888403</v>
+        <v>1.031847679493426</v>
       </c>
       <c r="E7">
-        <v>0.9854325068168334</v>
+        <v>0.9854562255823146</v>
       </c>
       <c r="F7">
-        <v>1.011580136223734</v>
+        <v>1.011596385991476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048558618538209</v>
+        <v>1.048564526136879</v>
       </c>
       <c r="J7">
-        <v>0.9967435212118835</v>
+        <v>0.9967691460105725</v>
       </c>
       <c r="K7">
-        <v>1.041566783963416</v>
+        <v>1.041573467105929</v>
       </c>
       <c r="L7">
-        <v>0.995706925792997</v>
+        <v>0.9957303477576059</v>
       </c>
       <c r="M7">
-        <v>1.02153782453632</v>
+        <v>1.021553883769932</v>
+      </c>
+      <c r="N7">
+        <v>0.9995606478851669</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9654015052636216</v>
+        <v>0.9654376901900993</v>
       </c>
       <c r="D8">
-        <v>1.027028742048296</v>
+        <v>1.027037916710785</v>
       </c>
       <c r="E8">
-        <v>0.9759860396270552</v>
+        <v>0.9760183964478313</v>
       </c>
       <c r="F8">
-        <v>1.002601413113706</v>
+        <v>1.002623563236208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045926982825371</v>
+        <v>1.045934980746831</v>
       </c>
       <c r="J8">
-        <v>0.9880632609077058</v>
+        <v>0.9880982892775348</v>
       </c>
       <c r="K8">
-        <v>1.037854627277409</v>
+        <v>1.037863685699777</v>
       </c>
       <c r="L8">
-        <v>0.9875014296106623</v>
+        <v>0.9875333204184008</v>
       </c>
       <c r="M8">
-        <v>1.013746261536505</v>
+        <v>1.013768113583773</v>
+      </c>
+      <c r="N8">
+        <v>0.9935407960917619</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9437266563634674</v>
+        <v>0.9437828577732541</v>
       </c>
       <c r="D9">
-        <v>1.017922905643897</v>
+        <v>1.017937011524418</v>
       </c>
       <c r="E9">
-        <v>0.9579882322915478</v>
+        <v>0.9580380462270756</v>
       </c>
       <c r="F9">
-        <v>0.9855360224581662</v>
+        <v>0.9855702114304858</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040788942883014</v>
+        <v>1.040801174291039</v>
       </c>
       <c r="J9">
-        <v>0.9714360073221351</v>
+        <v>0.9714898719304578</v>
       </c>
       <c r="K9">
-        <v>1.03073173811534</v>
+        <v>1.030745625322798</v>
       </c>
       <c r="L9">
-        <v>0.9718017970626809</v>
+        <v>0.9718507080391532</v>
       </c>
       <c r="M9">
-        <v>0.9988682092204169</v>
+        <v>0.9989018223295318</v>
+      </c>
+      <c r="N9">
+        <v>0.9819903114333292</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9278565294277225</v>
+        <v>0.9279285714336126</v>
       </c>
       <c r="D10">
-        <v>1.011357361441526</v>
+        <v>1.011375377759264</v>
       </c>
       <c r="E10">
-        <v>0.9448744159711925</v>
+        <v>0.9449379268323073</v>
       </c>
       <c r="F10">
-        <v>0.9731487230902564</v>
+        <v>0.9731924586861581</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036971499346666</v>
+        <v>1.036987059921518</v>
       </c>
       <c r="J10">
-        <v>0.959256747133538</v>
+        <v>0.9593252484588018</v>
       </c>
       <c r="K10">
-        <v>1.025524538982764</v>
+        <v>1.025542239415098</v>
       </c>
       <c r="L10">
-        <v>0.960315807278767</v>
+        <v>0.960377987711965</v>
       </c>
       <c r="M10">
-        <v>0.9880203211182792</v>
+        <v>0.9880632089492221</v>
+      </c>
+      <c r="N10">
+        <v>0.973518494298406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9205724651084273</v>
+        <v>0.9206521721108132</v>
       </c>
       <c r="D11">
-        <v>1.008376857613361</v>
+        <v>1.008396766279865</v>
       </c>
       <c r="E11">
-        <v>0.9388743905548192</v>
+        <v>0.9389444890476272</v>
       </c>
       <c r="F11">
-        <v>0.9674974589901563</v>
+        <v>0.9675458154941573</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035210314563567</v>
+        <v>1.035227478293108</v>
       </c>
       <c r="J11">
-        <v>0.9536682419305939</v>
+        <v>0.9537437423569147</v>
       </c>
       <c r="K11">
-        <v>1.023142509020802</v>
+        <v>1.023162050334258</v>
       </c>
       <c r="L11">
-        <v>0.9550490704770976</v>
+        <v>0.9551176078549241</v>
       </c>
       <c r="M11">
-        <v>0.9830595069279103</v>
+        <v>0.983106868898375</v>
+      </c>
+      <c r="N11">
+        <v>0.9696290376773075</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9177970700660438</v>
+        <v>0.9178797694273921</v>
       </c>
       <c r="D12">
-        <v>1.007247033742077</v>
+        <v>1.007267680965245</v>
       </c>
       <c r="E12">
-        <v>0.9365914693703419</v>
+        <v>0.936664132359971</v>
       </c>
       <c r="F12">
-        <v>0.9653502156552717</v>
+        <v>0.9654003759407711</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034538311357776</v>
+        <v>1.034556099476209</v>
       </c>
       <c r="J12">
-        <v>0.9515393979560418</v>
+        <v>0.9516176163373349</v>
       </c>
       <c r="K12">
-        <v>1.022236696714152</v>
+        <v>1.022256955778924</v>
       </c>
       <c r="L12">
-        <v>0.9530433872850718</v>
+        <v>0.9531143951068795</v>
       </c>
       <c r="M12">
-        <v>0.981172783987031</v>
+        <v>0.9812218898969258</v>
+      </c>
+      <c r="N12">
+        <v>0.9681471523876559</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9183957006310582</v>
+        <v>0.9184777510922291</v>
       </c>
       <c r="D13">
-        <v>1.007490450374558</v>
+        <v>1.007510937453472</v>
       </c>
       <c r="E13">
-        <v>0.9370837250999018</v>
+        <v>0.9371558323210232</v>
       </c>
       <c r="F13">
-        <v>0.9658130721898293</v>
+        <v>0.9658628413374085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034683292822282</v>
+        <v>1.034700945612156</v>
       </c>
       <c r="J13">
-        <v>0.9519985449974135</v>
+        <v>0.9520761746662426</v>
       </c>
       <c r="K13">
-        <v>1.022431981771929</v>
+        <v>1.022452085236889</v>
       </c>
       <c r="L13">
-        <v>0.9534759438835192</v>
+        <v>0.9535464165188072</v>
       </c>
       <c r="M13">
-        <v>0.9815795660626804</v>
+        <v>0.9816282939302546</v>
+      </c>
+      <c r="N13">
+        <v>0.9684667749320465</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.92034452385064</v>
+        <v>0.9204244750774029</v>
       </c>
       <c r="D14">
-        <v>1.00828394290595</v>
+        <v>1.008303911856114</v>
       </c>
       <c r="E14">
-        <v>0.938686828178585</v>
+        <v>0.938757136129108</v>
       </c>
       <c r="F14">
-        <v>0.9673209801647503</v>
+        <v>0.9673694838927491</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035155140113745</v>
+        <v>1.035172354834906</v>
       </c>
       <c r="J14">
-        <v>0.9534933895237897</v>
+        <v>0.9535691120805644</v>
       </c>
       <c r="K14">
-        <v>1.023068075233865</v>
+        <v>1.0230876751475</v>
       </c>
       <c r="L14">
-        <v>0.954884321709461</v>
+        <v>0.9549530609514325</v>
       </c>
       <c r="M14">
-        <v>0.9829044770573157</v>
+        <v>0.9829519814203428</v>
+      </c>
+      <c r="N14">
+        <v>0.9695073281634825</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9215357541039251</v>
+        <v>0.9216144319971418</v>
       </c>
       <c r="D15">
-        <v>1.008769760086066</v>
+        <v>1.0087894147205</v>
       </c>
       <c r="E15">
-        <v>0.9396671698911179</v>
+        <v>0.9397363854745789</v>
       </c>
       <c r="F15">
-        <v>0.9682435150483556</v>
+        <v>0.9682912511717219</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035443448031192</v>
+        <v>1.035460396832007</v>
       </c>
       <c r="J15">
-        <v>0.9544071974702451</v>
+        <v>0.9544817612949773</v>
       </c>
       <c r="K15">
-        <v>1.023457145750345</v>
+        <v>1.02347644009669</v>
       </c>
       <c r="L15">
-        <v>0.9557453504570446</v>
+        <v>0.9558130367604364</v>
       </c>
       <c r="M15">
-        <v>0.9837148143425418</v>
+        <v>0.983761576187325</v>
+      </c>
+      <c r="N15">
+        <v>0.9701433920913636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9283306265826615</v>
+        <v>0.9284021787938286</v>
       </c>
       <c r="D16">
-        <v>1.011552100591975</v>
+        <v>1.011569995974531</v>
       </c>
       <c r="E16">
-        <v>0.9452653590526783</v>
+        <v>0.9453284480602679</v>
       </c>
       <c r="F16">
-        <v>0.9735173206344261</v>
+        <v>0.9735607609524344</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037085976025374</v>
+        <v>1.037101433978761</v>
       </c>
       <c r="J16">
-        <v>0.9596205389831525</v>
+        <v>0.9596885912381542</v>
       </c>
       <c r="K16">
-        <v>1.02567978995245</v>
+        <v>1.025697372645458</v>
       </c>
       <c r="L16">
-        <v>0.9606587315216788</v>
+        <v>0.9607205043301331</v>
       </c>
       <c r="M16">
-        <v>0.9883436371876936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9883862387928626</v>
+      </c>
+      <c r="N16">
+        <v>0.9737716447672331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9324774035288945</v>
+        <v>0.9325447169944528</v>
       </c>
       <c r="D17">
-        <v>1.013259201787055</v>
+        <v>1.01327605057989</v>
       </c>
       <c r="E17">
-        <v>0.9486869739286663</v>
+        <v>0.9487464076834415</v>
       </c>
       <c r="F17">
-        <v>0.9767452505278171</v>
+        <v>0.976786135599515</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038086296187812</v>
+        <v>1.038100865168893</v>
       </c>
       <c r="J17">
-        <v>0.9628027095702071</v>
+        <v>0.9628668662574956</v>
       </c>
       <c r="K17">
-        <v>1.027038675716733</v>
+        <v>1.027055238990094</v>
       </c>
       <c r="L17">
-        <v>0.9636587819622034</v>
+        <v>0.9637170200189694</v>
       </c>
       <c r="M17">
-        <v>0.9911736871805572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9912138101966971</v>
+      </c>
+      <c r="N17">
+        <v>0.975985777292712</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9348569750165141</v>
+        <v>0.9349218919400016</v>
       </c>
       <c r="D18">
-        <v>1.014241806268343</v>
+        <v>1.014258063361338</v>
       </c>
       <c r="E18">
-        <v>0.950652158800547</v>
+        <v>0.9507095223873587</v>
       </c>
       <c r="F18">
-        <v>0.9786006823865876</v>
+        <v>0.9786401229110895</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038659444066774</v>
+        <v>1.038673509753188</v>
       </c>
       <c r="J18">
-        <v>0.964628877400575</v>
+        <v>0.96469082419147</v>
       </c>
       <c r="K18">
-        <v>1.027819153839454</v>
+        <v>1.027835140378339</v>
       </c>
       <c r="L18">
-        <v>0.9653807735950659</v>
+        <v>0.9654370074918425</v>
       </c>
       <c r="M18">
-        <v>0.9927993106100766</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9928380310671627</v>
+      </c>
+      <c r="N18">
+        <v>0.9772562102497395</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9356619188140048</v>
+        <v>0.9357260308048176</v>
       </c>
       <c r="D19">
-        <v>1.01457468110072</v>
+        <v>1.014590739468524</v>
       </c>
       <c r="E19">
-        <v>0.9513172115999216</v>
+        <v>0.9513738793076004</v>
       </c>
       <c r="F19">
-        <v>0.9792288313670224</v>
+        <v>0.9792677867448055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038853165218564</v>
+        <v>1.038867061754454</v>
       </c>
       <c r="J19">
-        <v>0.9652466333345426</v>
+        <v>0.9653078366789755</v>
       </c>
       <c r="K19">
-        <v>1.028083270699681</v>
+        <v>1.028099063473946</v>
       </c>
       <c r="L19">
-        <v>0.9659633451069952</v>
+        <v>0.9660189049458864</v>
       </c>
       <c r="M19">
-        <v>0.9933494725065239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9933877216969962</v>
+      </c>
+      <c r="N19">
+        <v>0.9776859364584696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.932036597706411</v>
+        <v>0.9321043579486487</v>
       </c>
       <c r="D20">
-        <v>1.01307741675231</v>
+        <v>1.013094375856963</v>
       </c>
       <c r="E20">
-        <v>0.9483230700925709</v>
+        <v>0.9483828894990253</v>
       </c>
       <c r="F20">
-        <v>0.9764017876179519</v>
+        <v>0.9764429420057847</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03798004941625</v>
+        <v>1.037994712170657</v>
       </c>
       <c r="J20">
-        <v>0.9624644276526552</v>
+        <v>0.962528995729622</v>
       </c>
       <c r="K20">
-        <v>1.026894148231548</v>
+        <v>1.026910818994725</v>
       </c>
       <c r="L20">
-        <v>0.9633398249689563</v>
+        <v>0.9633984362010151</v>
       </c>
       <c r="M20">
-        <v>0.9908726752534091</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9909130596491023</v>
+      </c>
+      <c r="N20">
+        <v>0.9757504237260919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.919772640160011</v>
+        <v>0.9198532053242614</v>
       </c>
       <c r="D21">
-        <v>1.008050924945062</v>
+        <v>1.008071045433704</v>
       </c>
       <c r="E21">
-        <v>0.938216304567712</v>
+        <v>0.9382871389378686</v>
       </c>
       <c r="F21">
-        <v>0.9668783107847515</v>
+        <v>0.9669271846035944</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035016698700281</v>
+        <v>1.035034041580863</v>
       </c>
       <c r="J21">
-        <v>0.953054709993806</v>
+        <v>0.9531309907103989</v>
       </c>
       <c r="K21">
-        <v>1.022881358696436</v>
+        <v>1.022901105905046</v>
       </c>
       <c r="L21">
-        <v>0.954471000351704</v>
+        <v>0.9545402468592213</v>
       </c>
       <c r="M21">
-        <v>0.9825155795893389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9825634418563115</v>
+      </c>
+      <c r="N21">
+        <v>0.9692019724655674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9116531264369487</v>
+        <v>0.9117425998573803</v>
       </c>
       <c r="D22">
-        <v>1.004757757961172</v>
+        <v>1.004780076411627</v>
       </c>
       <c r="E22">
-        <v>0.9315441725337371</v>
+        <v>0.9316226257665856</v>
       </c>
       <c r="F22">
-        <v>0.9606090559512629</v>
+        <v>0.9606632986691199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033049431605727</v>
+        <v>1.03306863004448</v>
       </c>
       <c r="J22">
-        <v>0.9468280168382004</v>
+        <v>0.9469123586003615</v>
       </c>
       <c r="K22">
-        <v>1.020235548299992</v>
+        <v>1.020257430107004</v>
       </c>
       <c r="L22">
-        <v>0.9486057147076618</v>
+        <v>0.9486822918776922</v>
       </c>
       <c r="M22">
-        <v>0.9770034373160402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9770564851092816</v>
+      </c>
+      <c r="N22">
+        <v>0.9648671473189411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9159991881635104</v>
+        <v>0.9160838480632236</v>
       </c>
       <c r="D23">
-        <v>1.006516900921084</v>
+        <v>1.006538031940415</v>
       </c>
       <c r="E23">
-        <v>0.9351135713451652</v>
+        <v>0.9351879123157806</v>
       </c>
       <c r="F23">
-        <v>0.9639610646199058</v>
+        <v>0.9640124065930639</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034102780231551</v>
+        <v>1.034120976978112</v>
       </c>
       <c r="J23">
-        <v>0.9501605280571328</v>
+        <v>0.9502405228445181</v>
       </c>
       <c r="K23">
-        <v>1.02165050646075</v>
+        <v>1.021671235483275</v>
       </c>
       <c r="L23">
-        <v>0.951744461191669</v>
+        <v>0.9518170841892063</v>
       </c>
       <c r="M23">
-        <v>0.9799516559685676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9800019036050959</v>
+      </c>
+      <c r="N23">
+        <v>0.9671872561750017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9322358993662833</v>
+        <v>0.9323034574967394</v>
       </c>
       <c r="D24">
-        <v>1.013159597974441</v>
+        <v>1.013176507176384</v>
       </c>
       <c r="E24">
-        <v>0.9484875966555089</v>
+        <v>0.9485472416127255</v>
       </c>
       <c r="F24">
-        <v>0.9765570679277316</v>
+        <v>0.9765981004824343</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038028089542024</v>
+        <v>1.038042709877582</v>
       </c>
       <c r="J24">
-        <v>0.9626173747888231</v>
+        <v>0.9626817567852846</v>
       </c>
       <c r="K24">
-        <v>1.026959491348525</v>
+        <v>1.026976113486839</v>
       </c>
       <c r="L24">
-        <v>0.9634840336934744</v>
+        <v>0.9635424761269484</v>
       </c>
       <c r="M24">
-        <v>0.9910087668164831</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9910490329735964</v>
+      </c>
+      <c r="N24">
+        <v>0.9758568345810883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9495581478626797</v>
+        <v>0.9496087946594803</v>
       </c>
       <c r="D25">
-        <v>1.020358190664402</v>
+        <v>1.020370926440794</v>
       </c>
       <c r="E25">
-        <v>0.9628207145158142</v>
+        <v>0.9628657000775538</v>
       </c>
       <c r="F25">
-        <v>0.9901116599203895</v>
+        <v>0.9901425042503297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04218182117339</v>
+        <v>1.042192880506121</v>
       </c>
       <c r="J25">
-        <v>0.9759110692566193</v>
+        <v>0.9759597453256577</v>
       </c>
       <c r="K25">
-        <v>1.032648483272159</v>
+        <v>1.032661031240885</v>
       </c>
       <c r="L25">
-        <v>0.9760249810827728</v>
+        <v>0.976069196935618</v>
       </c>
       <c r="M25">
-        <v>1.002865443980444</v>
+        <v>1.002895797178149</v>
+      </c>
+      <c r="N25">
+        <v>0.9851010551992124</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9624161491992922</v>
+        <v>0.9835551939866771</v>
       </c>
       <c r="D2">
-        <v>1.025759621668067</v>
+        <v>1.033274042301414</v>
       </c>
       <c r="E2">
-        <v>0.9735036981186442</v>
+        <v>0.9997962103428281</v>
       </c>
       <c r="F2">
-        <v>1.000234881822926</v>
+        <v>1.007142472474406</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045225856790971</v>
+        <v>1.046025994072327</v>
       </c>
       <c r="J2">
-        <v>0.9857821932548106</v>
+        <v>1.006239143677796</v>
       </c>
       <c r="K2">
-        <v>1.036871380103077</v>
+        <v>1.04428849179066</v>
       </c>
       <c r="L2">
-        <v>0.9853449412372154</v>
+        <v>1.011258385009174</v>
       </c>
       <c r="M2">
-        <v>1.011690945338229</v>
+        <v>1.01850319013325</v>
       </c>
       <c r="N2">
-        <v>0.9919314625527567</v>
+        <v>1.007668118679062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9712273916067073</v>
+        <v>0.9931176817286952</v>
       </c>
       <c r="D3">
-        <v>1.029493998540851</v>
+        <v>1.036263783261928</v>
       </c>
       <c r="E3">
-        <v>0.9808421123109851</v>
+        <v>1.008014824678236</v>
       </c>
       <c r="F3">
-        <v>1.00720818980187</v>
+        <v>1.015684426920477</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047285592066411</v>
+        <v>1.047592810434837</v>
       </c>
       <c r="J3">
-        <v>0.9925343900298425</v>
+        <v>1.013797740385207</v>
       </c>
       <c r="K3">
-        <v>1.039762909498367</v>
+        <v>1.046452771144149</v>
       </c>
       <c r="L3">
-        <v>0.9917261362130926</v>
+        <v>1.018546171256163</v>
       </c>
       <c r="M3">
-        <v>1.017749663860093</v>
+        <v>1.026120480023904</v>
       </c>
       <c r="N3">
-        <v>0.9966216732961586</v>
+        <v>1.01523744946078</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9767274712361178</v>
+        <v>0.9990779359203504</v>
       </c>
       <c r="D4">
-        <v>1.031834694409231</v>
+        <v>1.038143282063482</v>
       </c>
       <c r="E4">
-        <v>0.9854307897358539</v>
+        <v>1.013144823669233</v>
       </c>
       <c r="F4">
-        <v>1.011572189088497</v>
+        <v>1.021017054538925</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048557513216322</v>
+        <v>1.048559427275665</v>
       </c>
       <c r="J4">
-        <v>0.9967458253268098</v>
+        <v>1.018505257636577</v>
       </c>
       <c r="K4">
-        <v>1.041563504749442</v>
+        <v>1.047802155617164</v>
       </c>
       <c r="L4">
-        <v>0.9957082919927409</v>
+        <v>1.023087149248902</v>
       </c>
       <c r="M4">
-        <v>1.021532925837233</v>
+        <v>1.030868270786039</v>
       </c>
       <c r="N4">
-        <v>0.9995444689807186</v>
+        <v>1.019951651926607</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9789947038165994</v>
+        <v>1.00153306202169</v>
       </c>
       <c r="D5">
-        <v>1.032801503952648</v>
+        <v>1.038920894429976</v>
       </c>
       <c r="E5">
-        <v>0.9873240856873844</v>
+        <v>1.015259559322612</v>
       </c>
       <c r="F5">
-        <v>1.013373438985438</v>
+        <v>1.023215488811243</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049078326191745</v>
+        <v>1.048955039248697</v>
       </c>
       <c r="J5">
-        <v>0.9984809363768724</v>
+        <v>1.020443359927936</v>
       </c>
       <c r="K5">
-        <v>1.042304435944893</v>
+        <v>1.048357810792081</v>
       </c>
       <c r="L5">
-        <v>0.9973494350354372</v>
+        <v>1.024957166406402</v>
       </c>
       <c r="M5">
-        <v>1.023092472446032</v>
+        <v>1.032823785970469</v>
       </c>
       <c r="N5">
-        <v>1.000748026658545</v>
+        <v>1.021892506545522</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.979372830492648</v>
+        <v>1.00194242758932</v>
       </c>
       <c r="D6">
-        <v>1.032962850466412</v>
+        <v>1.039050742046354</v>
       </c>
       <c r="E6">
-        <v>0.9876399470716685</v>
+        <v>1.015612258448385</v>
       </c>
       <c r="F6">
-        <v>1.013673976974327</v>
+        <v>1.023582156646854</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049164975945951</v>
+        <v>1.049020848556165</v>
       </c>
       <c r="J6">
-        <v>0.998770259242011</v>
+        <v>1.020766455545696</v>
       </c>
       <c r="K6">
-        <v>1.042427923363525</v>
+        <v>1.048450442146009</v>
       </c>
       <c r="L6">
-        <v>0.997623117882763</v>
+        <v>1.025268939164735</v>
       </c>
       <c r="M6">
-        <v>1.023352564645691</v>
+        <v>1.033149831761495</v>
       </c>
       <c r="N6">
-        <v>1.000948677208934</v>
+        <v>1.02221606099612</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9767579389333915</v>
+        <v>0.9991109353402604</v>
       </c>
       <c r="D7">
-        <v>1.031847679493426</v>
+        <v>1.038153720972134</v>
       </c>
       <c r="E7">
-        <v>0.9854562255823146</v>
+        <v>1.013173241734476</v>
       </c>
       <c r="F7">
-        <v>1.011596385991476</v>
+        <v>1.021046596714891</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048564526136879</v>
+        <v>1.048564755032281</v>
       </c>
       <c r="J7">
-        <v>0.9967691460105725</v>
+        <v>1.018531311828237</v>
       </c>
       <c r="K7">
-        <v>1.041573467105929</v>
+        <v>1.047809625249489</v>
       </c>
       <c r="L7">
-        <v>0.9957303477576059</v>
+        <v>1.02311228629722</v>
       </c>
       <c r="M7">
-        <v>1.021553883769932</v>
+        <v>1.030894555838128</v>
       </c>
       <c r="N7">
-        <v>0.9995606478851669</v>
+        <v>1.019977743118208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9654376901900993</v>
+        <v>0.9868364102588351</v>
       </c>
       <c r="D8">
-        <v>1.027037916710785</v>
+        <v>1.034296255685552</v>
       </c>
       <c r="E8">
-        <v>0.9760183964478313</v>
+        <v>1.002614626231105</v>
       </c>
       <c r="F8">
-        <v>1.002623563236208</v>
+        <v>1.010071586540934</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045934980746831</v>
+        <v>1.046565634534975</v>
       </c>
       <c r="J8">
-        <v>0.9880982892775348</v>
+        <v>1.008833475362742</v>
       </c>
       <c r="K8">
-        <v>1.037863685699777</v>
+        <v>1.045030868949532</v>
       </c>
       <c r="L8">
-        <v>0.9875333204184008</v>
+        <v>1.013759296842365</v>
       </c>
       <c r="M8">
-        <v>1.013768113583773</v>
+        <v>1.021116838385898</v>
       </c>
       <c r="N8">
-        <v>0.9935407960917619</v>
+        <v>1.010266134612574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9437828577732541</v>
+        <v>0.9632662961402992</v>
       </c>
       <c r="D9">
-        <v>1.017937011524418</v>
+        <v>1.027043753521761</v>
       </c>
       <c r="E9">
-        <v>0.9580380462270756</v>
+        <v>0.9824094223839733</v>
       </c>
       <c r="F9">
-        <v>0.9855702114304858</v>
+        <v>0.9890774306765011</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040801174291039</v>
+        <v>1.042652924329546</v>
       </c>
       <c r="J9">
-        <v>0.9714898719304578</v>
+        <v>0.9901864041346131</v>
       </c>
       <c r="K9">
-        <v>1.030745625322798</v>
+        <v>1.039712789851362</v>
       </c>
       <c r="L9">
-        <v>0.9718507080391532</v>
+        <v>0.9957944908842177</v>
       </c>
       <c r="M9">
-        <v>0.9989018223295318</v>
+        <v>1.002350240117764</v>
       </c>
       <c r="N9">
-        <v>0.9819903114333292</v>
+        <v>0.9915925824044521</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9279285714336126</v>
+        <v>0.9459158416399561</v>
       </c>
       <c r="D10">
-        <v>1.011375377759264</v>
+        <v>1.021848047161699</v>
       </c>
       <c r="E10">
-        <v>0.9449379268323073</v>
+        <v>0.9675992834565281</v>
       </c>
       <c r="F10">
-        <v>0.9731924586861581</v>
+        <v>0.973696520790188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036987059921518</v>
+        <v>1.039735445965569</v>
       </c>
       <c r="J10">
-        <v>0.9593252484588018</v>
+        <v>0.9764526937706671</v>
       </c>
       <c r="K10">
-        <v>1.025542239415098</v>
+        <v>1.035833723572629</v>
       </c>
       <c r="L10">
-        <v>0.960377987711965</v>
+        <v>0.98257926751126</v>
       </c>
       <c r="M10">
-        <v>0.9880632089492221</v>
+        <v>0.9885575075840323</v>
       </c>
       <c r="N10">
-        <v>0.973518494298406</v>
+        <v>0.977839368596511</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9206521721108132</v>
+        <v>0.9379203655323252</v>
       </c>
       <c r="D11">
-        <v>1.008396766279865</v>
+        <v>1.0194974980588</v>
       </c>
       <c r="E11">
-        <v>0.9389444890476272</v>
+        <v>0.9607937905061062</v>
       </c>
       <c r="F11">
-        <v>0.9675458154941573</v>
+        <v>0.9666311254690096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035227478293108</v>
+        <v>1.03838571562254</v>
       </c>
       <c r="J11">
-        <v>0.9537437423569147</v>
+        <v>0.9701249262035562</v>
       </c>
       <c r="K11">
-        <v>1.023162050334258</v>
+        <v>1.034060854754845</v>
       </c>
       <c r="L11">
-        <v>0.9551176078549241</v>
+        <v>0.9764949920945702</v>
       </c>
       <c r="M11">
-        <v>0.983106868898375</v>
+        <v>0.9822110132797714</v>
       </c>
       <c r="N11">
-        <v>0.9696290376773075</v>
+        <v>0.9715026148736494</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9178797694273921</v>
+        <v>0.9348679735967839</v>
       </c>
       <c r="D12">
-        <v>1.007267680965245</v>
+        <v>1.018607672704517</v>
       </c>
       <c r="E12">
-        <v>0.936664132359971</v>
+        <v>0.9581990418728769</v>
       </c>
       <c r="F12">
-        <v>0.9654003759407711</v>
+        <v>0.9639377003948115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034556099476209</v>
+        <v>1.037869995797108</v>
       </c>
       <c r="J12">
-        <v>0.9516176163373349</v>
+        <v>0.9677096470073708</v>
       </c>
       <c r="K12">
-        <v>1.022256955778924</v>
+        <v>1.03338685586903</v>
       </c>
       <c r="L12">
-        <v>0.9531143951068795</v>
+        <v>0.9741734267534966</v>
       </c>
       <c r="M12">
-        <v>0.9812218898969258</v>
+        <v>0.9797900196038745</v>
       </c>
       <c r="N12">
-        <v>0.9681471523876559</v>
+        <v>0.9690839057039693</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9184777510922291</v>
+        <v>0.9355266389768178</v>
       </c>
       <c r="D13">
-        <v>1.007510937453472</v>
+        <v>1.018799328917541</v>
       </c>
       <c r="E13">
-        <v>0.9371558323210232</v>
+        <v>0.9587587950526725</v>
       </c>
       <c r="F13">
-        <v>0.9658628413374085</v>
+        <v>0.9645187207035812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034700945612156</v>
+        <v>1.037981294863435</v>
       </c>
       <c r="J13">
-        <v>0.9520761746662426</v>
+        <v>0.9682308070180348</v>
       </c>
       <c r="K13">
-        <v>1.022452085236889</v>
+        <v>1.03353215799964</v>
       </c>
       <c r="L13">
-        <v>0.9535464165188072</v>
+        <v>0.9746743291583698</v>
       </c>
       <c r="M13">
-        <v>0.9816282939302546</v>
+        <v>0.9803123451727239</v>
       </c>
       <c r="N13">
-        <v>0.9684667749320465</v>
+        <v>0.969605805821626</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9204244750774029</v>
+        <v>0.9376698022825896</v>
       </c>
       <c r="D14">
-        <v>1.008303911856114</v>
+        <v>1.01942429627377</v>
       </c>
       <c r="E14">
-        <v>0.938757136129108</v>
+        <v>0.960580723517667</v>
       </c>
       <c r="F14">
-        <v>0.9673694838927491</v>
+        <v>0.9664099468729314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035172354834906</v>
+        <v>1.038343388156973</v>
       </c>
       <c r="J14">
-        <v>0.9535691120805644</v>
+        <v>0.9699266512359337</v>
       </c>
       <c r="K14">
-        <v>1.0230876751475</v>
+        <v>1.034005467035491</v>
       </c>
       <c r="L14">
-        <v>0.9549530609514325</v>
+        <v>0.9763043940998126</v>
       </c>
       <c r="M14">
-        <v>0.9829519814203428</v>
+        <v>0.9820122391913684</v>
       </c>
       <c r="N14">
-        <v>0.9695073281634825</v>
+        <v>0.9713040583328305</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9216144319971418</v>
+        <v>0.9389790080872846</v>
       </c>
       <c r="D15">
-        <v>1.0087894147205</v>
+        <v>1.019807090347006</v>
       </c>
       <c r="E15">
-        <v>0.9397363854745789</v>
+        <v>0.9616941478948901</v>
       </c>
       <c r="F15">
-        <v>0.9682912511717219</v>
+        <v>0.9675657773746588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035460396832007</v>
+        <v>1.038564535734452</v>
       </c>
       <c r="J15">
-        <v>0.9544817612949773</v>
+        <v>0.9709626677350898</v>
       </c>
       <c r="K15">
-        <v>1.02347644009669</v>
+        <v>1.034294988747015</v>
       </c>
       <c r="L15">
-        <v>0.9558130367604364</v>
+        <v>0.977300329138434</v>
       </c>
       <c r="M15">
-        <v>0.983761576187325</v>
+        <v>0.9830509227488643</v>
       </c>
       <c r="N15">
-        <v>0.9701433920913636</v>
+        <v>0.9723415460942484</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9284021787938286</v>
+        <v>0.9464354968582305</v>
       </c>
       <c r="D16">
-        <v>1.011569995974531</v>
+        <v>1.022001793242262</v>
       </c>
       <c r="E16">
-        <v>0.9453284480602679</v>
+        <v>0.9680420297713994</v>
       </c>
       <c r="F16">
-        <v>0.9735607609524344</v>
+        <v>0.9741562292706626</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037101433978761</v>
+        <v>1.039823089705677</v>
       </c>
       <c r="J16">
-        <v>0.9596885912381542</v>
+        <v>0.976864002359683</v>
       </c>
       <c r="K16">
-        <v>1.025697372645458</v>
+        <v>1.035949299677802</v>
       </c>
       <c r="L16">
-        <v>0.9607205043301331</v>
+        <v>0.9829748500199338</v>
       </c>
       <c r="M16">
-        <v>0.9883862387928626</v>
+        <v>0.9889702201352752</v>
       </c>
       <c r="N16">
-        <v>0.9737716447672331</v>
+        <v>0.9782512612909006</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9325447169944528</v>
+        <v>0.950977073550294</v>
       </c>
       <c r="D17">
-        <v>1.01327605057989</v>
+        <v>1.023350459514506</v>
       </c>
       <c r="E17">
-        <v>0.9487464076834415</v>
+        <v>0.9719136594625564</v>
       </c>
       <c r="F17">
-        <v>0.976786135599515</v>
+        <v>0.9781764578465825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038100865168893</v>
+        <v>1.040588506704844</v>
       </c>
       <c r="J17">
-        <v>0.9628668662574956</v>
+        <v>0.9804588171520696</v>
       </c>
       <c r="K17">
-        <v>1.027055238990094</v>
+        <v>1.036961093614674</v>
       </c>
       <c r="L17">
-        <v>0.9637170200189694</v>
+        <v>0.9864327419755867</v>
       </c>
       <c r="M17">
-        <v>0.9912138101966971</v>
+        <v>0.9925782677234979</v>
       </c>
       <c r="N17">
-        <v>0.975985777292712</v>
+        <v>0.9818511811326237</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9349218919400016</v>
+        <v>0.9535803028064387</v>
       </c>
       <c r="D18">
-        <v>1.014258063361338</v>
+        <v>1.024127511496466</v>
       </c>
       <c r="E18">
-        <v>0.9507095223873587</v>
+        <v>0.974134641303419</v>
       </c>
       <c r="F18">
-        <v>0.9786401229110895</v>
+        <v>0.9804829010558288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038673509753188</v>
+        <v>1.041026726867437</v>
       </c>
       <c r="J18">
-        <v>0.96469082419147</v>
+        <v>0.9825194384431584</v>
       </c>
       <c r="K18">
-        <v>1.027835140378339</v>
+        <v>1.037542375309349</v>
       </c>
       <c r="L18">
-        <v>0.9654370074918425</v>
+        <v>0.9884152978231865</v>
       </c>
       <c r="M18">
-        <v>0.9928380310671627</v>
+        <v>0.9946472495538563</v>
       </c>
       <c r="N18">
-        <v>0.9772562102497395</v>
+        <v>0.9839147287423021</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9357260308048176</v>
+        <v>0.9544604418535168</v>
       </c>
       <c r="D19">
-        <v>1.014590739468524</v>
+        <v>1.024390881049452</v>
       </c>
       <c r="E19">
-        <v>0.9513738793076004</v>
+        <v>0.9748858321961203</v>
       </c>
       <c r="F19">
-        <v>0.9792677867448055</v>
+        <v>0.9812630322636918</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038867061754454</v>
+        <v>1.04117478975256</v>
       </c>
       <c r="J19">
-        <v>0.9653078366789755</v>
+        <v>0.9832161296422455</v>
       </c>
       <c r="K19">
-        <v>1.028099063473946</v>
+        <v>1.037739111452284</v>
       </c>
       <c r="L19">
-        <v>0.9660189049458864</v>
+        <v>0.9890856645968847</v>
       </c>
       <c r="M19">
-        <v>0.9933877216969962</v>
+        <v>0.9953468946561188</v>
       </c>
       <c r="N19">
-        <v>0.9776859364584696</v>
+        <v>0.9846124093228037</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9321043579486487</v>
+        <v>0.9504946083007756</v>
       </c>
       <c r="D20">
-        <v>1.013094375856963</v>
+        <v>1.023206764142691</v>
       </c>
       <c r="E20">
-        <v>0.9483828894990253</v>
+        <v>0.9715021779537715</v>
       </c>
       <c r="F20">
-        <v>0.9764429420057847</v>
+        <v>0.9777491601095367</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037994712170657</v>
+        <v>1.04050724561712</v>
       </c>
       <c r="J20">
-        <v>0.962528995729622</v>
+        <v>0.9800769195504446</v>
       </c>
       <c r="K20">
-        <v>1.026910818994725</v>
+        <v>1.03685346604089</v>
       </c>
       <c r="L20">
-        <v>0.9633984362010151</v>
+        <v>0.9860653460396559</v>
       </c>
       <c r="M20">
-        <v>0.9909130596491023</v>
+        <v>0.9921948825619187</v>
       </c>
       <c r="N20">
-        <v>0.9757504237260919</v>
+        <v>0.9814687411925999</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>0.9198532053242614</v>
+        <v>0.9370410624927398</v>
       </c>
       <c r="D21">
-        <v>1.008071045433704</v>
+        <v>1.019240734936246</v>
       </c>
       <c r="E21">
-        <v>0.9382871389378686</v>
+        <v>0.9600461286888319</v>
       </c>
       <c r="F21">
-        <v>0.9669271846035944</v>
+        <v>0.96585500656829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035034041580863</v>
+        <v>1.03823716983696</v>
       </c>
       <c r="J21">
-        <v>0.9531309907103989</v>
+        <v>0.9694291268511819</v>
       </c>
       <c r="K21">
-        <v>1.022901105905046</v>
+        <v>1.033866529789255</v>
       </c>
       <c r="L21">
-        <v>0.9545402468592213</v>
+        <v>0.9758261459994266</v>
       </c>
       <c r="M21">
-        <v>0.9825634418563115</v>
+        <v>0.981513485975991</v>
       </c>
       <c r="N21">
-        <v>0.9692019724655674</v>
+        <v>0.9708058274063858</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9117425998573803</v>
+        <v>0.9280983135448141</v>
       </c>
       <c r="D22">
-        <v>1.004780076411627</v>
+        <v>1.016649339306606</v>
       </c>
       <c r="E22">
-        <v>0.9316226257665856</v>
+        <v>0.9524511241910844</v>
       </c>
       <c r="F22">
-        <v>0.9606632986691199</v>
+        <v>0.9579720427354393</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03306863004448</v>
+        <v>1.036725846910349</v>
       </c>
       <c r="J22">
-        <v>0.9469123586003615</v>
+        <v>0.9623541700099278</v>
       </c>
       <c r="K22">
-        <v>1.020257430107004</v>
+        <v>1.031898030937218</v>
       </c>
       <c r="L22">
-        <v>0.9486822918776922</v>
+        <v>0.9690272847333421</v>
       </c>
       <c r="M22">
-        <v>0.9770564851092816</v>
+        <v>0.9744247326622223</v>
       </c>
       <c r="N22">
-        <v>0.9648671473189411</v>
+        <v>0.9637208233149083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9160838480632236</v>
+        <v>0.932888812913907</v>
       </c>
       <c r="D23">
-        <v>1.006538031940415</v>
+        <v>1.0180329690739</v>
       </c>
       <c r="E23">
-        <v>0.9351879123157806</v>
+        <v>0.9565176228611867</v>
       </c>
       <c r="F23">
-        <v>0.9640124065930639</v>
+        <v>0.9621924643781087</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034120976978112</v>
+        <v>1.037535529532086</v>
       </c>
       <c r="J23">
-        <v>0.9502405228445181</v>
+        <v>0.966143752582411</v>
       </c>
       <c r="K23">
-        <v>1.021671235483275</v>
+        <v>1.032950716981833</v>
       </c>
       <c r="L23">
-        <v>0.9518170841892063</v>
+        <v>0.9726685197665078</v>
       </c>
       <c r="M23">
-        <v>0.9800019036050959</v>
+        <v>0.978220847362994</v>
       </c>
       <c r="N23">
-        <v>0.9671872561750017</v>
+        <v>0.9675157875293152</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9323034574967394</v>
+        <v>0.9507127543641252</v>
       </c>
       <c r="D24">
-        <v>1.013176507176384</v>
+        <v>1.023271723453269</v>
       </c>
       <c r="E24">
-        <v>0.9485472416127255</v>
+        <v>0.9716882233418824</v>
       </c>
       <c r="F24">
-        <v>0.9765981004824343</v>
+        <v>0.9779423559052659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038042709877582</v>
+        <v>1.040543989350346</v>
       </c>
       <c r="J24">
-        <v>0.9626817567852846</v>
+        <v>0.9802495938623859</v>
       </c>
       <c r="K24">
-        <v>1.026976113486839</v>
+        <v>1.036902125644025</v>
       </c>
       <c r="L24">
-        <v>0.9635424761269484</v>
+        <v>0.9862314621434088</v>
       </c>
       <c r="M24">
-        <v>0.9910490329735964</v>
+        <v>0.9923682270698378</v>
       </c>
       <c r="N24">
-        <v>0.9758568345810883</v>
+        <v>0.9816416607218702</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9496087946594803</v>
+        <v>0.9696206662995895</v>
       </c>
       <c r="D25">
-        <v>1.020370926440794</v>
+        <v>1.028977774978001</v>
       </c>
       <c r="E25">
-        <v>0.9628657000775538</v>
+        <v>0.9878471949526584</v>
       </c>
       <c r="F25">
-        <v>0.9901425042503297</v>
+        <v>0.9947264318525295</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042192880506121</v>
+        <v>1.043715047440749</v>
       </c>
       <c r="J25">
-        <v>0.9759597453256577</v>
+        <v>0.995215527065492</v>
       </c>
       <c r="K25">
-        <v>1.032661031240885</v>
+        <v>1.04114230653186</v>
       </c>
       <c r="L25">
-        <v>0.976069196935618</v>
+        <v>1.000637143369381</v>
       </c>
       <c r="M25">
-        <v>1.002895797178149</v>
+        <v>1.007407168547036</v>
       </c>
       <c r="N25">
-        <v>0.9851010551992124</v>
+        <v>0.9966288472667415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9835551939866771</v>
+        <v>0.9756726573706421</v>
       </c>
       <c r="D2">
-        <v>1.033274042301414</v>
+        <v>1.038484534970051</v>
       </c>
       <c r="E2">
-        <v>0.9997962103428281</v>
+        <v>0.9854465222920497</v>
       </c>
       <c r="F2">
-        <v>1.007142472474406</v>
+        <v>1.028605054285996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046025994072327</v>
+        <v>1.050647254965983</v>
       </c>
       <c r="J2">
-        <v>1.006239143677796</v>
+        <v>0.9986061665096285</v>
       </c>
       <c r="K2">
-        <v>1.04428849179066</v>
+        <v>1.049432542862386</v>
       </c>
       <c r="L2">
-        <v>1.011258385009174</v>
+        <v>0.9971124040360734</v>
       </c>
       <c r="M2">
-        <v>1.01850319013325</v>
+        <v>1.039679756067771</v>
       </c>
       <c r="N2">
-        <v>1.007668118679062</v>
+        <v>1.003473944167965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9931176817286952</v>
+        <v>0.9799469334576487</v>
       </c>
       <c r="D3">
-        <v>1.036263783261928</v>
+        <v>1.041360547175086</v>
       </c>
       <c r="E3">
-        <v>1.008014824678236</v>
+        <v>0.9888188924905493</v>
       </c>
       <c r="F3">
-        <v>1.015684426920477</v>
+        <v>1.032296451370753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047592810434837</v>
+        <v>1.051399672982369</v>
       </c>
       <c r="J3">
-        <v>1.013797740385207</v>
+        <v>1.000999604962431</v>
       </c>
       <c r="K3">
-        <v>1.046452771144149</v>
+        <v>1.05149021081965</v>
       </c>
       <c r="L3">
-        <v>1.018546171256163</v>
+        <v>0.9995968653946915</v>
       </c>
       <c r="M3">
-        <v>1.026120480023904</v>
+        <v>1.042532119494102</v>
       </c>
       <c r="N3">
-        <v>1.01523744946078</v>
+        <v>1.004295476022807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9990779359203504</v>
+        <v>0.9826604062343225</v>
       </c>
       <c r="D4">
-        <v>1.038143282063482</v>
+        <v>1.043184904394125</v>
       </c>
       <c r="E4">
-        <v>1.013144823669233</v>
+        <v>0.9909664571429599</v>
       </c>
       <c r="F4">
-        <v>1.021017054538925</v>
+        <v>1.03464165376844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048559427275665</v>
+        <v>1.051865303668572</v>
       </c>
       <c r="J4">
-        <v>1.018505257636577</v>
+        <v>1.00251830689062</v>
       </c>
       <c r="K4">
-        <v>1.047802155617164</v>
+        <v>1.052788633055367</v>
       </c>
       <c r="L4">
-        <v>1.023087149248902</v>
+        <v>1.001175145836111</v>
       </c>
       <c r="M4">
-        <v>1.030868270786039</v>
+        <v>1.044339216737836</v>
       </c>
       <c r="N4">
-        <v>1.019951651926607</v>
+        <v>1.004816249825413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00153306202169</v>
+        <v>0.9837890776101359</v>
       </c>
       <c r="D5">
-        <v>1.038920894429976</v>
+        <v>1.043943288551383</v>
       </c>
       <c r="E5">
-        <v>1.015259559322612</v>
+        <v>0.9918612884650428</v>
       </c>
       <c r="F5">
-        <v>1.023215488811243</v>
+        <v>1.035617464860203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048955039248697</v>
+        <v>1.052056035610614</v>
       </c>
       <c r="J5">
-        <v>1.020443359927936</v>
+        <v>1.003149802783508</v>
       </c>
       <c r="K5">
-        <v>1.048357810792081</v>
+        <v>1.05332673122184</v>
       </c>
       <c r="L5">
-        <v>1.024957166406402</v>
+        <v>1.00183184912552</v>
       </c>
       <c r="M5">
-        <v>1.032823785970469</v>
+        <v>1.045089899625152</v>
       </c>
       <c r="N5">
-        <v>1.021892506545522</v>
+        <v>1.005032666808256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00194242758932</v>
+        <v>0.9839778909912665</v>
       </c>
       <c r="D6">
-        <v>1.039050742046354</v>
+        <v>1.044070127086781</v>
       </c>
       <c r="E6">
-        <v>1.015612258448385</v>
+        <v>0.9920110729349586</v>
       </c>
       <c r="F6">
-        <v>1.023582156646854</v>
+        <v>1.035780722581245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049020848556165</v>
+        <v>1.052087767824656</v>
       </c>
       <c r="J6">
-        <v>1.020766455545696</v>
+        <v>1.003255431381532</v>
       </c>
       <c r="K6">
-        <v>1.048450442146009</v>
+        <v>1.053416629488818</v>
       </c>
       <c r="L6">
-        <v>1.025268939164735</v>
+        <v>1.001941719510025</v>
       </c>
       <c r="M6">
-        <v>1.033149831761495</v>
+        <v>1.04521541963643</v>
       </c>
       <c r="N6">
-        <v>1.02221606099612</v>
+        <v>1.005068858648724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9991109353402604</v>
+        <v>0.9826755344644084</v>
       </c>
       <c r="D7">
-        <v>1.038153720972134</v>
+        <v>1.043195071409588</v>
       </c>
       <c r="E7">
-        <v>1.013173241734476</v>
+        <v>0.9909784450209377</v>
       </c>
       <c r="F7">
-        <v>1.021046596714891</v>
+        <v>1.034654731983214</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048564755032281</v>
+        <v>1.051867871876566</v>
       </c>
       <c r="J7">
-        <v>1.018531311828237</v>
+        <v>1.002526772060056</v>
       </c>
       <c r="K7">
-        <v>1.047809625249489</v>
+        <v>1.052795853442813</v>
       </c>
       <c r="L7">
-        <v>1.02311228629722</v>
+        <v>1.001183947199899</v>
       </c>
       <c r="M7">
-        <v>1.030894555838128</v>
+        <v>1.044349282567772</v>
       </c>
       <c r="N7">
-        <v>1.019977743118208</v>
+        <v>1.004819151393853</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9868364102588351</v>
+        <v>0.977128263959855</v>
       </c>
       <c r="D8">
-        <v>1.034296255685552</v>
+        <v>1.039464195204564</v>
       </c>
       <c r="E8">
-        <v>1.002614626231105</v>
+        <v>0.9865935608468166</v>
       </c>
       <c r="F8">
-        <v>1.010071586540934</v>
+        <v>1.029861729059833</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046565634534975</v>
+        <v>1.050905974548782</v>
       </c>
       <c r="J8">
-        <v>1.008833475362742</v>
+        <v>0.9994213895589793</v>
       </c>
       <c r="K8">
-        <v>1.045030868949532</v>
+        <v>1.050134871053743</v>
       </c>
       <c r="L8">
-        <v>1.013759296842365</v>
+        <v>0.9979582462791136</v>
       </c>
       <c r="M8">
-        <v>1.021116838385898</v>
+        <v>1.040651843995196</v>
       </c>
       <c r="N8">
-        <v>1.010266134612574</v>
+        <v>1.003753867982854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9632662961402992</v>
+        <v>0.966932029732657</v>
       </c>
       <c r="D9">
-        <v>1.027043753521761</v>
+        <v>1.032600529386609</v>
       </c>
       <c r="E9">
-        <v>0.9824094223839733</v>
+        <v>0.978588980909857</v>
       </c>
       <c r="F9">
-        <v>0.9890774306765011</v>
+        <v>1.021070754387954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042652924329546</v>
+        <v>1.049045305382292</v>
       </c>
       <c r="J9">
-        <v>0.9901864041346131</v>
+        <v>0.9937090857270877</v>
       </c>
       <c r="K9">
-        <v>1.039712789851362</v>
+        <v>1.045185936752786</v>
       </c>
       <c r="L9">
-        <v>0.9957944908842177</v>
+        <v>0.9920392592979506</v>
       </c>
       <c r="M9">
-        <v>1.002350240117764</v>
+        <v>1.033830979243786</v>
       </c>
       <c r="N9">
-        <v>0.9915925824044521</v>
+        <v>1.001790474065452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9459158416399561</v>
+        <v>0.9598202941804647</v>
       </c>
       <c r="D10">
-        <v>1.021848047161699</v>
+        <v>1.027817001310229</v>
       </c>
       <c r="E10">
-        <v>0.9675992834565281</v>
+        <v>0.9730466079294583</v>
       </c>
       <c r="F10">
-        <v>0.973696520790188</v>
+        <v>1.014959135654985</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039735445965569</v>
+        <v>1.047688927117483</v>
       </c>
       <c r="J10">
-        <v>0.9764526937706671</v>
+        <v>0.9897240210411047</v>
       </c>
       <c r="K10">
-        <v>1.035833723572629</v>
+        <v>1.041701540493803</v>
       </c>
       <c r="L10">
-        <v>0.98257926751126</v>
+        <v>0.9879201857331072</v>
       </c>
       <c r="M10">
-        <v>0.9885575075840323</v>
+        <v>1.02906345084511</v>
       </c>
       <c r="N10">
-        <v>0.977839368596511</v>
+        <v>1.000418500726401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9379203655323252</v>
+        <v>0.956658812166532</v>
       </c>
       <c r="D11">
-        <v>1.0194974980588</v>
+        <v>1.025693263478503</v>
       </c>
       <c r="E11">
-        <v>0.9607937905061062</v>
+        <v>0.9705932445528545</v>
       </c>
       <c r="F11">
-        <v>0.9666311254690096</v>
+        <v>1.01224868832896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03838571562254</v>
+        <v>1.04707301099236</v>
       </c>
       <c r="J11">
-        <v>0.9701249262035562</v>
+        <v>0.9879528004640256</v>
       </c>
       <c r="K11">
-        <v>1.034060854754845</v>
+        <v>1.040146380856582</v>
       </c>
       <c r="L11">
-        <v>0.9764949920945702</v>
+        <v>0.9860918859397143</v>
       </c>
       <c r="M11">
-        <v>0.9822110132797714</v>
+        <v>1.026943250954704</v>
       </c>
       <c r="N11">
-        <v>0.9715026148736494</v>
+        <v>0.9998082472554303</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9348679735967839</v>
+        <v>0.9554714821767627</v>
       </c>
       <c r="D12">
-        <v>1.018607672704517</v>
+        <v>1.024896249060808</v>
       </c>
       <c r="E12">
-        <v>0.9581990418728769</v>
+        <v>0.9696735016405601</v>
       </c>
       <c r="F12">
-        <v>0.9639377003948115</v>
+        <v>1.011231869509704</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037869995797108</v>
+        <v>1.046839836217845</v>
       </c>
       <c r="J12">
-        <v>0.9677096470073708</v>
+        <v>0.9872876918181428</v>
       </c>
       <c r="K12">
-        <v>1.03338685586903</v>
+        <v>1.039561529973199</v>
       </c>
       <c r="L12">
-        <v>0.9741734267534966</v>
+        <v>0.9854057229641557</v>
       </c>
       <c r="M12">
-        <v>0.9797900196038745</v>
+        <v>1.026147002491592</v>
       </c>
       <c r="N12">
-        <v>0.9690839057039693</v>
+        <v>0.9995790292306156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9355266389768178</v>
+        <v>0.9557267689870158</v>
       </c>
       <c r="D13">
-        <v>1.018799328917541</v>
+        <v>1.0250675855427</v>
       </c>
       <c r="E13">
-        <v>0.9587587950526725</v>
+        <v>0.969871179238835</v>
       </c>
       <c r="F13">
-        <v>0.9645187207035812</v>
+        <v>1.01145044171262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037981294863435</v>
+        <v>1.046890053604491</v>
       </c>
       <c r="J13">
-        <v>0.9682308070180348</v>
+        <v>0.9874306913051338</v>
       </c>
       <c r="K13">
-        <v>1.03353215799964</v>
+        <v>1.039687311843991</v>
       </c>
       <c r="L13">
-        <v>0.9746743291583698</v>
+        <v>0.9855532319163176</v>
       </c>
       <c r="M13">
-        <v>0.9803123451727239</v>
+        <v>1.026318200139909</v>
       </c>
       <c r="N13">
-        <v>0.969605805821626</v>
+        <v>0.9996283142157462</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9376698022825896</v>
+        <v>0.956560936736051</v>
       </c>
       <c r="D14">
-        <v>1.01942429627377</v>
+        <v>1.025627550260978</v>
       </c>
       <c r="E14">
-        <v>0.960580723517667</v>
+        <v>0.9705173933084773</v>
       </c>
       <c r="F14">
-        <v>0.9664099468729314</v>
+        <v>1.012164845004467</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038343388156973</v>
+        <v>1.047053826971566</v>
       </c>
       <c r="J14">
-        <v>0.9699266512359337</v>
+        <v>0.9878979712575801</v>
       </c>
       <c r="K14">
-        <v>1.034005467035491</v>
+        <v>1.040098185033131</v>
       </c>
       <c r="L14">
-        <v>0.9763043940998126</v>
+        <v>0.9860353133366329</v>
       </c>
       <c r="M14">
-        <v>0.9820122391913684</v>
+        <v>1.026877612470358</v>
       </c>
       <c r="N14">
-        <v>0.9713040583328305</v>
+        <v>0.9997893525654502</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9389790080872846</v>
+        <v>0.9570731490858807</v>
       </c>
       <c r="D15">
-        <v>1.019807090347006</v>
+        <v>1.025971472435798</v>
       </c>
       <c r="E15">
-        <v>0.9616941478948901</v>
+        <v>0.9709144138099548</v>
       </c>
       <c r="F15">
-        <v>0.9675657773746588</v>
+        <v>1.012603669605523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038564535734452</v>
+        <v>1.047154147528504</v>
       </c>
       <c r="J15">
-        <v>0.9709626677350898</v>
+        <v>0.9881849134956184</v>
       </c>
       <c r="K15">
-        <v>1.034294988747015</v>
+        <v>1.040350377146561</v>
       </c>
       <c r="L15">
-        <v>0.977300329138434</v>
+        <v>0.9863313949463152</v>
       </c>
       <c r="M15">
-        <v>0.9830509227488643</v>
+        <v>1.027221120442837</v>
       </c>
       <c r="N15">
-        <v>0.9723415460942484</v>
+        <v>0.9998882332030831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9464354968582305</v>
+        <v>0.9600283249513105</v>
       </c>
       <c r="D16">
-        <v>1.022001793242262</v>
+        <v>1.027956817989544</v>
       </c>
       <c r="E16">
-        <v>0.9680420297713994</v>
+        <v>0.9732082675931863</v>
       </c>
       <c r="F16">
-        <v>0.9741562292706626</v>
+        <v>1.01513763455119</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039823089705677</v>
+        <v>1.047729192575978</v>
       </c>
       <c r="J16">
-        <v>0.976864002359683</v>
+        <v>0.9898405807065673</v>
       </c>
       <c r="K16">
-        <v>1.035949299677802</v>
+        <v>1.041803754938645</v>
       </c>
       <c r="L16">
-        <v>0.9829748500199338</v>
+        <v>0.9880405539407635</v>
       </c>
       <c r="M16">
-        <v>0.9889702201352752</v>
+        <v>1.029202958051779</v>
       </c>
       <c r="N16">
-        <v>0.9782512612909006</v>
+        <v>1.000458650964562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.950977073550294</v>
+        <v>0.9618595898849021</v>
       </c>
       <c r="D17">
-        <v>1.023350459514506</v>
+        <v>1.029187937129226</v>
       </c>
       <c r="E17">
-        <v>0.9719136594625564</v>
+        <v>0.974632535366989</v>
       </c>
       <c r="F17">
-        <v>0.9781764578465825</v>
+        <v>1.016709686001383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040588506704844</v>
+        <v>1.048082178671414</v>
       </c>
       <c r="J17">
-        <v>0.9804588171520696</v>
+        <v>0.9908666801756399</v>
       </c>
       <c r="K17">
-        <v>1.036961093614674</v>
+        <v>1.042702844767067</v>
       </c>
       <c r="L17">
-        <v>0.9864327419755867</v>
+        <v>0.9891004644634374</v>
       </c>
       <c r="M17">
-        <v>0.9925782677234979</v>
+        <v>1.030430942673504</v>
       </c>
       <c r="N17">
-        <v>0.9818511811326237</v>
+        <v>1.000812050426455</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9535803028064387</v>
+        <v>0.9629198675586038</v>
       </c>
       <c r="D18">
-        <v>1.024127511496466</v>
+        <v>1.029900988641296</v>
       </c>
       <c r="E18">
-        <v>0.974134641303419</v>
+        <v>0.9754581564078663</v>
       </c>
       <c r="F18">
-        <v>0.9804829010558288</v>
+        <v>1.017620483631915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041026726867437</v>
+        <v>1.048285317520708</v>
       </c>
       <c r="J18">
-        <v>0.9825194384431584</v>
+        <v>0.9914608049797291</v>
       </c>
       <c r="K18">
-        <v>1.037542375309349</v>
+        <v>1.043222808304688</v>
       </c>
       <c r="L18">
-        <v>0.9884152978231865</v>
+        <v>0.9897144017288547</v>
       </c>
       <c r="M18">
-        <v>0.9946472495538563</v>
+        <v>1.031141841574857</v>
       </c>
       <c r="N18">
-        <v>0.9839147287423021</v>
+        <v>1.001016629154921</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9544604418535168</v>
+        <v>0.9632800803791082</v>
       </c>
       <c r="D19">
-        <v>1.024390881049452</v>
+        <v>1.030143274399326</v>
       </c>
       <c r="E19">
-        <v>0.9748858321961203</v>
+        <v>0.9757388139844853</v>
       </c>
       <c r="F19">
-        <v>0.9812630322636918</v>
+        <v>1.017930010459998</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04117478975256</v>
+        <v>1.048354118772683</v>
       </c>
       <c r="J19">
-        <v>0.9832161296422455</v>
+        <v>0.9916626528946056</v>
       </c>
       <c r="K19">
-        <v>1.037739111452284</v>
+        <v>1.043399352505549</v>
       </c>
       <c r="L19">
-        <v>0.9890856645968847</v>
+        <v>0.9899230204796799</v>
       </c>
       <c r="M19">
-        <v>0.9953468946561188</v>
+        <v>1.031383339471121</v>
       </c>
       <c r="N19">
-        <v>0.9846124093228037</v>
+        <v>1.001086125042601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9504946083007756</v>
+        <v>0.9616639311496846</v>
       </c>
       <c r="D20">
-        <v>1.023206764142691</v>
+        <v>1.029056372961844</v>
       </c>
       <c r="E20">
-        <v>0.9715021779537715</v>
+        <v>0.9744802585104112</v>
       </c>
       <c r="F20">
-        <v>0.9777491601095367</v>
+        <v>1.016541659127591</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04050724561712</v>
+        <v>1.048044591956343</v>
       </c>
       <c r="J20">
-        <v>0.9800769195504446</v>
+        <v>0.9907570450038563</v>
       </c>
       <c r="K20">
-        <v>1.03685346604089</v>
+        <v>1.042606843878536</v>
       </c>
       <c r="L20">
-        <v>0.9860653460396559</v>
+        <v>0.9889871922335679</v>
       </c>
       <c r="M20">
-        <v>0.9921948825619187</v>
+        <v>1.030299748624899</v>
       </c>
       <c r="N20">
-        <v>0.9814687411925999</v>
+        <v>1.000774295448506</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9370410624927398</v>
+        <v>0.9563156601516041</v>
       </c>
       <c r="D21">
-        <v>1.019240734936246</v>
+        <v>1.025462882338164</v>
       </c>
       <c r="E21">
-        <v>0.9600461286888319</v>
+        <v>0.9703273362640297</v>
       </c>
       <c r="F21">
-        <v>0.96585500656829</v>
+        <v>1.011954751565049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03823716983696</v>
+        <v>1.047005721984647</v>
       </c>
       <c r="J21">
-        <v>0.9694291268511819</v>
+        <v>0.9877605705007219</v>
       </c>
       <c r="K21">
-        <v>1.033866529789255</v>
+        <v>1.039977393623686</v>
       </c>
       <c r="L21">
-        <v>0.9758261459994266</v>
+        <v>0.9858935498026162</v>
       </c>
       <c r="M21">
-        <v>0.981513485975991</v>
+        <v>1.026713122673127</v>
       </c>
       <c r="N21">
-        <v>0.9708058274063858</v>
+        <v>0.9997420019121026</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9280983135448141</v>
+        <v>0.9528773151016052</v>
       </c>
       <c r="D22">
-        <v>1.016649339306606</v>
+        <v>1.023156126535977</v>
       </c>
       <c r="E22">
-        <v>0.9524511241910844</v>
+        <v>0.9676670861878791</v>
       </c>
       <c r="F22">
-        <v>0.9579720427354393</v>
+        <v>1.009012482198071</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036725846910349</v>
+        <v>1.046327054667967</v>
       </c>
       <c r="J22">
-        <v>0.9623541700099278</v>
+        <v>0.9858347358213138</v>
       </c>
       <c r="K22">
-        <v>1.031898030937218</v>
+        <v>1.038282402306935</v>
       </c>
       <c r="L22">
-        <v>0.9690272847333421</v>
+        <v>0.983907477774837</v>
       </c>
       <c r="M22">
-        <v>0.9744247326622223</v>
+        <v>1.024407489636328</v>
       </c>
       <c r="N22">
-        <v>0.9637208233149083</v>
+        <v>0.9990781857490985</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.932888812913907</v>
+        <v>0.9547074618734016</v>
       </c>
       <c r="D23">
-        <v>1.0180329690739</v>
+        <v>1.024383572641979</v>
       </c>
       <c r="E23">
-        <v>0.9565176228611867</v>
+        <v>0.9690821405773391</v>
       </c>
       <c r="F23">
-        <v>0.9621924643781087</v>
+        <v>1.010577904688905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037535529532086</v>
+        <v>1.046689280076564</v>
       </c>
       <c r="J23">
-        <v>0.966143752582411</v>
+        <v>0.986859741350678</v>
       </c>
       <c r="K23">
-        <v>1.032950716981833</v>
+        <v>1.039184985627135</v>
       </c>
       <c r="L23">
-        <v>0.9726685197665078</v>
+        <v>0.9849643332615634</v>
       </c>
       <c r="M23">
-        <v>0.978220847362994</v>
+        <v>1.025634657068744</v>
       </c>
       <c r="N23">
-        <v>0.9675157875293152</v>
+        <v>0.9994315268082066</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9507127543641252</v>
+        <v>0.9617523651751357</v>
       </c>
       <c r="D24">
-        <v>1.023271723453269</v>
+        <v>1.029115836699235</v>
       </c>
       <c r="E24">
-        <v>0.9716882233418824</v>
+        <v>0.9745490816911088</v>
       </c>
       <c r="F24">
-        <v>0.9779423559052659</v>
+        <v>1.01661760222571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040543989350346</v>
+        <v>1.048061584272195</v>
       </c>
       <c r="J24">
-        <v>0.9802495938623859</v>
+        <v>0.9908065979349668</v>
       </c>
       <c r="K24">
-        <v>1.036902125644025</v>
+        <v>1.042650236315537</v>
       </c>
       <c r="L24">
-        <v>0.9862314621434088</v>
+        <v>0.9890383883137487</v>
       </c>
       <c r="M24">
-        <v>0.9923682270698378</v>
+        <v>1.030359046120755</v>
       </c>
       <c r="N24">
-        <v>0.9816416607218702</v>
+        <v>1.00079136008968</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9696206662995895</v>
+        <v>0.9696209952578914</v>
       </c>
       <c r="D25">
-        <v>1.028977774978001</v>
+        <v>1.034410558519842</v>
       </c>
       <c r="E25">
-        <v>0.9878471949526584</v>
+        <v>0.9806931890396893</v>
       </c>
       <c r="F25">
-        <v>0.9947264318525295</v>
+        <v>1.023386213489642</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043715047440749</v>
+        <v>1.049546417392917</v>
       </c>
       <c r="J25">
-        <v>0.995215527065492</v>
+        <v>0.9952158439551321</v>
       </c>
       <c r="K25">
-        <v>1.04114230653186</v>
+        <v>1.046497187467487</v>
       </c>
       <c r="L25">
-        <v>1.000637143369381</v>
+        <v>0.9935987995896957</v>
       </c>
       <c r="M25">
-        <v>1.007407168547036</v>
+        <v>1.03563202044322</v>
       </c>
       <c r="N25">
-        <v>0.9966288472667415</v>
+        <v>1.002308779834486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9756726573706421</v>
+        <v>1.011815278060212</v>
       </c>
       <c r="D2">
-        <v>1.038484534970051</v>
+        <v>1.04523878805012</v>
       </c>
       <c r="E2">
-        <v>0.9854465222920497</v>
+        <v>1.013940126994007</v>
       </c>
       <c r="F2">
-        <v>1.028605054285996</v>
+        <v>1.046357259005482</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050647254965983</v>
+        <v>1.035314664144424</v>
       </c>
       <c r="J2">
-        <v>0.9986061665096285</v>
+        <v>1.017061578419777</v>
       </c>
       <c r="K2">
-        <v>1.049432542862386</v>
+        <v>1.048007587784406</v>
       </c>
       <c r="L2">
-        <v>0.9971124040360734</v>
+        <v>1.016799772201894</v>
       </c>
       <c r="M2">
-        <v>1.039679756067771</v>
+        <v>1.049122921490067</v>
       </c>
       <c r="N2">
-        <v>1.003473944167965</v>
+        <v>1.009802614112428</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9799469334576487</v>
+        <v>1.012733166602526</v>
       </c>
       <c r="D3">
-        <v>1.041360547175086</v>
+        <v>1.045849588508455</v>
       </c>
       <c r="E3">
-        <v>0.9888188924905493</v>
+        <v>1.0147176133934</v>
       </c>
       <c r="F3">
-        <v>1.032296451370753</v>
+        <v>1.047181870607714</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051399672982369</v>
+        <v>1.035405190088722</v>
       </c>
       <c r="J3">
-        <v>1.000999604962431</v>
+        <v>1.017613058064312</v>
       </c>
       <c r="K3">
-        <v>1.05149021081965</v>
+        <v>1.048430311104754</v>
       </c>
       <c r="L3">
-        <v>0.9995968653946915</v>
+        <v>1.017382173085179</v>
       </c>
       <c r="M3">
-        <v>1.042532119494102</v>
+        <v>1.049759125557389</v>
       </c>
       <c r="N3">
-        <v>1.004295476022807</v>
+        <v>1.009988578144779</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9826604062343225</v>
+        <v>1.013327919343449</v>
       </c>
       <c r="D4">
-        <v>1.043184904394125</v>
+        <v>1.04624451286278</v>
       </c>
       <c r="E4">
-        <v>0.9909664571429599</v>
+        <v>1.015221789810603</v>
       </c>
       <c r="F4">
-        <v>1.03464165376844</v>
+        <v>1.047715732527017</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051865303668572</v>
+        <v>1.035462276868634</v>
       </c>
       <c r="J4">
-        <v>1.00251830689062</v>
+        <v>1.017970137795792</v>
       </c>
       <c r="K4">
-        <v>1.052788633055367</v>
+        <v>1.048702843343768</v>
       </c>
       <c r="L4">
-        <v>1.001175145836111</v>
+        <v>1.01775946164397</v>
       </c>
       <c r="M4">
-        <v>1.044339216737836</v>
+        <v>1.050170425969821</v>
       </c>
       <c r="N4">
-        <v>1.004816249825413</v>
+        <v>1.010108887449848</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9837890776101359</v>
+        <v>1.013578147984596</v>
       </c>
       <c r="D5">
-        <v>1.043943288551383</v>
+        <v>1.046410464012493</v>
       </c>
       <c r="E5">
-        <v>0.9918612884650428</v>
+        <v>1.015434005204212</v>
       </c>
       <c r="F5">
-        <v>1.035617464860203</v>
+        <v>1.047940233618147</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052056035610614</v>
+        <v>1.035485918733868</v>
       </c>
       <c r="J5">
-        <v>1.003149802783508</v>
+        <v>1.018120309473828</v>
       </c>
       <c r="K5">
-        <v>1.05332673122184</v>
+        <v>1.048817175231137</v>
       </c>
       <c r="L5">
-        <v>1.00183184912552</v>
+        <v>1.017918177062038</v>
       </c>
       <c r="M5">
-        <v>1.045089899625152</v>
+        <v>1.050343247033754</v>
       </c>
       <c r="N5">
-        <v>1.005032666808256</v>
+        <v>1.01015945982432</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9839778909912665</v>
+        <v>1.01362017385296</v>
       </c>
       <c r="D6">
-        <v>1.044070127086781</v>
+        <v>1.046438323476359</v>
       </c>
       <c r="E6">
-        <v>0.9920110729349586</v>
+        <v>1.015469652283856</v>
       </c>
       <c r="F6">
-        <v>1.035780722581245</v>
+        <v>1.047977932117646</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052087767824656</v>
+        <v>1.035489867324269</v>
       </c>
       <c r="J6">
-        <v>1.003255431381532</v>
+        <v>1.018145527175832</v>
       </c>
       <c r="K6">
-        <v>1.053416629488818</v>
+        <v>1.048836357894672</v>
       </c>
       <c r="L6">
-        <v>1.001941719510025</v>
+        <v>1.017944832104327</v>
       </c>
       <c r="M6">
-        <v>1.04521541963643</v>
+        <v>1.050372259137558</v>
       </c>
       <c r="N6">
-        <v>1.005068858648724</v>
+        <v>1.010167950804441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9826755344644084</v>
+        <v>1.013331262147585</v>
       </c>
       <c r="D7">
-        <v>1.043195071409588</v>
+        <v>1.046246730607819</v>
       </c>
       <c r="E7">
-        <v>0.9909784450209377</v>
+        <v>1.015224624424795</v>
       </c>
       <c r="F7">
-        <v>1.034654731983214</v>
+        <v>1.047718732066877</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051867871876566</v>
+        <v>1.035462594177825</v>
       </c>
       <c r="J7">
-        <v>1.002526772060056</v>
+        <v>1.017972144180867</v>
       </c>
       <c r="K7">
-        <v>1.052795853442813</v>
+        <v>1.048704371999901</v>
       </c>
       <c r="L7">
-        <v>1.001183947199899</v>
+        <v>1.017761582002641</v>
       </c>
       <c r="M7">
-        <v>1.044349282567772</v>
+        <v>1.050172735568015</v>
       </c>
       <c r="N7">
-        <v>1.004819151393853</v>
+        <v>1.010109563223152</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.977128263959855</v>
+        <v>1.012125312853472</v>
       </c>
       <c r="D8">
-        <v>1.039464195204564</v>
+        <v>1.045445272642182</v>
       </c>
       <c r="E8">
-        <v>0.9865935608468166</v>
+        <v>1.014202655421618</v>
       </c>
       <c r="F8">
-        <v>1.029861729059833</v>
+        <v>1.046635880407035</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050905974548782</v>
+        <v>1.035345565745736</v>
       </c>
       <c r="J8">
-        <v>0.9994213895589793</v>
+        <v>1.017247904163128</v>
       </c>
       <c r="K8">
-        <v>1.050134871053743</v>
+        <v>1.04815065471166</v>
       </c>
       <c r="L8">
-        <v>0.9979582462791136</v>
+        <v>1.016996506300653</v>
       </c>
       <c r="M8">
-        <v>1.040651843995196</v>
+        <v>1.049338004266309</v>
       </c>
       <c r="N8">
-        <v>1.003753867982854</v>
+        <v>1.00986546579872</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.966932029732657</v>
+        <v>1.010006586513363</v>
       </c>
       <c r="D9">
-        <v>1.032600529386609</v>
+        <v>1.044030766115486</v>
       </c>
       <c r="E9">
-        <v>0.978588980909857</v>
+        <v>1.01241023523751</v>
       </c>
       <c r="F9">
-        <v>1.021070754387954</v>
+        <v>1.044730023750525</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049045305382292</v>
+        <v>1.03512797431812</v>
       </c>
       <c r="J9">
-        <v>0.9937090857270877</v>
+        <v>1.015973549956763</v>
       </c>
       <c r="K9">
-        <v>1.045185936752786</v>
+        <v>1.047167367144599</v>
       </c>
       <c r="L9">
-        <v>0.9920392592979506</v>
+        <v>1.015651736225345</v>
       </c>
       <c r="M9">
-        <v>1.033830979243786</v>
+        <v>1.047864383613401</v>
       </c>
       <c r="N9">
-        <v>1.001790474065452</v>
+        <v>1.009435186291296</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9598202941804647</v>
+        <v>1.00859841104739</v>
       </c>
       <c r="D10">
-        <v>1.027817001310229</v>
+        <v>1.043086388388752</v>
       </c>
       <c r="E10">
-        <v>0.9730466079294583</v>
+        <v>1.011221038377077</v>
       </c>
       <c r="F10">
-        <v>1.014959135654985</v>
+        <v>1.04346110878446</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047688927117483</v>
+        <v>1.03497531549122</v>
       </c>
       <c r="J10">
-        <v>0.9897240210411047</v>
+        <v>1.015125284726642</v>
       </c>
       <c r="K10">
-        <v>1.041701540493803</v>
+        <v>1.046506857738616</v>
       </c>
       <c r="L10">
-        <v>0.9879201857331072</v>
+        <v>1.014757569936434</v>
       </c>
       <c r="M10">
-        <v>1.02906345084511</v>
+        <v>1.046880259800232</v>
       </c>
       <c r="N10">
-        <v>1.000418500726401</v>
+        <v>1.009148258544228</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.956658812166532</v>
+        <v>1.00798969117841</v>
       </c>
       <c r="D11">
-        <v>1.025693263478503</v>
+        <v>1.042677163960952</v>
       </c>
       <c r="E11">
-        <v>0.9705932445528545</v>
+        <v>1.010707485525935</v>
       </c>
       <c r="F11">
-        <v>1.01224868832896</v>
+        <v>1.042912075287348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04707301099236</v>
+        <v>1.034907420557811</v>
       </c>
       <c r="J11">
-        <v>0.9879528004640256</v>
+        <v>1.014758298615533</v>
       </c>
       <c r="K11">
-        <v>1.040146380856582</v>
+        <v>1.04621968938736</v>
       </c>
       <c r="L11">
-        <v>0.9860918859397143</v>
+        <v>1.014370956847749</v>
       </c>
       <c r="M11">
-        <v>1.026943250954704</v>
+        <v>1.046453742357206</v>
       </c>
       <c r="N11">
-        <v>0.9998082472554303</v>
+        <v>1.009024003223204</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9554714821767627</v>
+        <v>1.007763741242319</v>
       </c>
       <c r="D12">
-        <v>1.024896249060808</v>
+        <v>1.042525116519933</v>
       </c>
       <c r="E12">
-        <v>0.9696735016405601</v>
+        <v>1.010516937554775</v>
       </c>
       <c r="F12">
-        <v>1.011231869509704</v>
+        <v>1.04270820440258</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046839836217845</v>
+        <v>1.034881932827259</v>
       </c>
       <c r="J12">
-        <v>0.9872876918181428</v>
+        <v>1.014622032473325</v>
       </c>
       <c r="K12">
-        <v>1.039561529973199</v>
+        <v>1.046112849224301</v>
       </c>
       <c r="L12">
-        <v>0.9854057229641557</v>
+        <v>1.014227437817296</v>
       </c>
       <c r="M12">
-        <v>1.026147002491592</v>
+        <v>1.046295258871707</v>
       </c>
       <c r="N12">
-        <v>0.9995790292306156</v>
+        <v>1.008977847625811</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9557267689870158</v>
+        <v>1.007812201206402</v>
       </c>
       <c r="D13">
-        <v>1.0250675855427</v>
+        <v>1.042557733134877</v>
       </c>
       <c r="E13">
-        <v>0.969871179238835</v>
+        <v>1.010557801285568</v>
       </c>
       <c r="F13">
-        <v>1.01145044171262</v>
+        <v>1.042751932440065</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046890053604491</v>
+        <v>1.034887412170724</v>
       </c>
       <c r="J13">
-        <v>0.9874306913051338</v>
+        <v>1.014651259797008</v>
       </c>
       <c r="K13">
-        <v>1.039687311843991</v>
+        <v>1.046135774605017</v>
       </c>
       <c r="L13">
-        <v>0.9855532319163176</v>
+        <v>1.014258219213845</v>
       </c>
       <c r="M13">
-        <v>1.026318200139909</v>
+        <v>1.046329256615985</v>
       </c>
       <c r="N13">
-        <v>0.9996283142157462</v>
+        <v>1.008987748225516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.956560936736051</v>
+        <v>1.007971010903217</v>
       </c>
       <c r="D14">
-        <v>1.025627550260978</v>
+        <v>1.042664596542</v>
       </c>
       <c r="E14">
-        <v>0.9705173933084773</v>
+        <v>1.010691730510686</v>
       </c>
       <c r="F14">
-        <v>1.012164845004467</v>
+        <v>1.042895221925598</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047053826971566</v>
+        <v>1.034905319207367</v>
       </c>
       <c r="J14">
-        <v>0.9878979712575801</v>
+        <v>1.014747033811528</v>
       </c>
       <c r="K14">
-        <v>1.040098185033131</v>
+        <v>1.046210861466308</v>
       </c>
       <c r="L14">
-        <v>0.9860353133366329</v>
+        <v>1.014359091753218</v>
       </c>
       <c r="M14">
-        <v>1.026877612470358</v>
+        <v>1.046440643192124</v>
       </c>
       <c r="N14">
-        <v>0.9997893525654502</v>
+        <v>1.009020188018116</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9570731490858807</v>
+        <v>1.008068879466227</v>
       </c>
       <c r="D15">
-        <v>1.025971472435798</v>
+        <v>1.042730432946341</v>
       </c>
       <c r="E15">
-        <v>0.9709144138099548</v>
+        <v>1.010774276389823</v>
       </c>
       <c r="F15">
-        <v>1.012603669605523</v>
+        <v>1.042983515934193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047154147528504</v>
+        <v>1.034916316764717</v>
       </c>
       <c r="J15">
-        <v>0.9881849134956184</v>
+        <v>1.014806049844883</v>
       </c>
       <c r="K15">
-        <v>1.040350377146561</v>
+        <v>1.046257102080689</v>
       </c>
       <c r="L15">
-        <v>0.9863313949463152</v>
+        <v>1.014421254121224</v>
       </c>
       <c r="M15">
-        <v>1.027221120442837</v>
+        <v>1.046509264787458</v>
       </c>
       <c r="N15">
-        <v>0.9998882332030831</v>
+        <v>1.009040175040454</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9600283249513105</v>
+        <v>1.008638831559846</v>
       </c>
       <c r="D16">
-        <v>1.027956817989544</v>
+        <v>1.043113541078001</v>
       </c>
       <c r="E16">
-        <v>0.9732082675931863</v>
+        <v>1.011255150334092</v>
       </c>
       <c r="F16">
-        <v>1.01513763455119</v>
+        <v>1.0434975552659</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047729192575978</v>
+        <v>1.034979783753235</v>
       </c>
       <c r="J16">
-        <v>0.9898405807065673</v>
+        <v>1.01514964717957</v>
       </c>
       <c r="K16">
-        <v>1.041803754938645</v>
+        <v>1.046525891793011</v>
       </c>
       <c r="L16">
-        <v>0.9880405539407635</v>
+        <v>1.014783240212172</v>
       </c>
       <c r="M16">
-        <v>1.029202958051779</v>
+        <v>1.046908558408389</v>
       </c>
       <c r="N16">
-        <v>1.000458650964562</v>
+        <v>1.009156504707719</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9618595898849021</v>
+        <v>1.008996623803698</v>
       </c>
       <c r="D17">
-        <v>1.029187937129226</v>
+        <v>1.043353775217882</v>
       </c>
       <c r="E17">
-        <v>0.974632535366989</v>
+        <v>1.011557159645651</v>
       </c>
       <c r="F17">
-        <v>1.016709686001383</v>
+        <v>1.043820111266133</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048082178671414</v>
+        <v>1.035019115537021</v>
       </c>
       <c r="J17">
-        <v>0.9908666801756399</v>
+        <v>1.015365262651369</v>
       </c>
       <c r="K17">
-        <v>1.042702844767067</v>
+        <v>1.046694186227457</v>
       </c>
       <c r="L17">
-        <v>0.9891004644634374</v>
+        <v>1.015010457071249</v>
       </c>
       <c r="M17">
-        <v>1.030430942673504</v>
+        <v>1.047158922978259</v>
       </c>
       <c r="N17">
-        <v>1.000812050426455</v>
+        <v>1.009229471860757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9629198675586038</v>
+        <v>1.009205417216198</v>
       </c>
       <c r="D18">
-        <v>1.029900988641296</v>
+        <v>1.043493870379669</v>
       </c>
       <c r="E18">
-        <v>0.9754581564078663</v>
+        <v>1.011733449349629</v>
       </c>
       <c r="F18">
-        <v>1.017620483631915</v>
+        <v>1.044008292620518</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048285317520708</v>
+        <v>1.035041884082608</v>
       </c>
       <c r="J18">
-        <v>0.9914608049797291</v>
+        <v>1.015491058154398</v>
       </c>
       <c r="K18">
-        <v>1.043222808304688</v>
+        <v>1.046792237154242</v>
       </c>
       <c r="L18">
-        <v>0.9897144017288547</v>
+        <v>1.015143043434719</v>
       </c>
       <c r="M18">
-        <v>1.031141841574857</v>
+        <v>1.047304919084211</v>
       </c>
       <c r="N18">
-        <v>1.001016629154921</v>
+        <v>1.009272031015224</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9632800803791082</v>
+        <v>1.009276627176207</v>
       </c>
       <c r="D19">
-        <v>1.030143274399326</v>
+        <v>1.04354163416455</v>
       </c>
       <c r="E19">
-        <v>0.9757388139844853</v>
+        <v>1.011793582059192</v>
       </c>
       <c r="F19">
-        <v>1.017930010459998</v>
+        <v>1.044072464298159</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048354118772683</v>
+        <v>1.035049618197067</v>
       </c>
       <c r="J19">
-        <v>0.9916626528946056</v>
+        <v>1.015533956337404</v>
       </c>
       <c r="K19">
-        <v>1.043399352505549</v>
+        <v>1.046825650873602</v>
       </c>
       <c r="L19">
-        <v>0.9899230204796799</v>
+        <v>1.015188261187497</v>
       </c>
       <c r="M19">
-        <v>1.031383339471121</v>
+        <v>1.047354693594556</v>
       </c>
       <c r="N19">
-        <v>1.001086125042601</v>
+        <v>1.009286542345028</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9616639311496846</v>
+        <v>1.008958225808403</v>
       </c>
       <c r="D20">
-        <v>1.029056372961844</v>
+        <v>1.043328003387879</v>
       </c>
       <c r="E20">
-        <v>0.9744802585104112</v>
+        <v>1.01152474315953</v>
       </c>
       <c r="F20">
-        <v>1.016541659127591</v>
+        <v>1.043785499917028</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048044591956343</v>
+        <v>1.035014913499204</v>
       </c>
       <c r="J20">
-        <v>0.9907570450038563</v>
+        <v>1.015342125974597</v>
       </c>
       <c r="K20">
-        <v>1.042606843878536</v>
+        <v>1.046676141437694</v>
       </c>
       <c r="L20">
-        <v>0.9889871922335679</v>
+        <v>1.014986073195528</v>
       </c>
       <c r="M20">
-        <v>1.030299748624899</v>
+        <v>1.04713206507439</v>
       </c>
       <c r="N20">
-        <v>1.000774295448506</v>
+        <v>1.009221643312527</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9563156601516041</v>
+        <v>1.007924241098285</v>
       </c>
       <c r="D21">
-        <v>1.025462882338164</v>
+        <v>1.042633129108873</v>
       </c>
       <c r="E21">
-        <v>0.9703273362640297</v>
+        <v>1.010652285926348</v>
       </c>
       <c r="F21">
-        <v>1.011954751565049</v>
+        <v>1.042853024942179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047005721984647</v>
+        <v>1.03490005343773</v>
       </c>
       <c r="J21">
-        <v>0.9877605705007219</v>
+        <v>1.014718829394995</v>
       </c>
       <c r="K21">
-        <v>1.039977393623686</v>
+        <v>1.046188755020268</v>
       </c>
       <c r="L21">
-        <v>0.9858935498026162</v>
+        <v>1.014329384913619</v>
       </c>
       <c r="M21">
-        <v>1.026713122673127</v>
+        <v>1.046407844149408</v>
       </c>
       <c r="N21">
-        <v>0.9997420019121026</v>
+        <v>1.009010635349586</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9528773151016052</v>
+        <v>1.007275035392883</v>
       </c>
       <c r="D22">
-        <v>1.023156126535977</v>
+        <v>1.042195984819542</v>
       </c>
       <c r="E22">
-        <v>0.9676670861878791</v>
+        <v>1.010104944058872</v>
       </c>
       <c r="F22">
-        <v>1.009012482198071</v>
+        <v>1.042267115789236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046327054667967</v>
+        <v>1.034826283123856</v>
       </c>
       <c r="J22">
-        <v>0.9858347358213138</v>
+        <v>1.014327221170403</v>
       </c>
       <c r="K22">
-        <v>1.038282402306935</v>
+        <v>1.045881315471179</v>
       </c>
       <c r="L22">
-        <v>0.983907477774837</v>
+        <v>1.013916998701952</v>
       </c>
       <c r="M22">
-        <v>1.024407489636328</v>
+        <v>1.045952175169117</v>
       </c>
       <c r="N22">
-        <v>0.9990781857490985</v>
+        <v>1.008877956996187</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9547074618734016</v>
+        <v>1.007619105807618</v>
       </c>
       <c r="D23">
-        <v>1.024383572641979</v>
+        <v>1.042427746171739</v>
       </c>
       <c r="E23">
-        <v>0.9690821405773391</v>
+        <v>1.010394985460836</v>
       </c>
       <c r="F23">
-        <v>1.010577904688905</v>
+        <v>1.04257768103514</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046689280076564</v>
+        <v>1.034865537126152</v>
       </c>
       <c r="J23">
-        <v>0.986859741350678</v>
+        <v>1.014534792928617</v>
       </c>
       <c r="K23">
-        <v>1.039184985627135</v>
+        <v>1.046044389236752</v>
       </c>
       <c r="L23">
-        <v>0.9849643332615634</v>
+        <v>1.014135564685808</v>
       </c>
       <c r="M23">
-        <v>1.025634657068744</v>
+        <v>1.046193763831568</v>
       </c>
       <c r="N23">
-        <v>0.9994315268082066</v>
+        <v>1.008948293039783</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9617523651751357</v>
+        <v>1.008975575903081</v>
       </c>
       <c r="D24">
-        <v>1.029115836699235</v>
+        <v>1.043339648659459</v>
       </c>
       <c r="E24">
-        <v>0.9745490816911088</v>
+        <v>1.011539390364161</v>
       </c>
       <c r="F24">
-        <v>1.01661760222571</v>
+        <v>1.043801139172838</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048061584272195</v>
+        <v>1.035016812753904</v>
       </c>
       <c r="J24">
-        <v>0.9908065979349668</v>
+        <v>1.015352580348339</v>
       </c>
       <c r="K24">
-        <v>1.042650236315537</v>
+        <v>1.046684295448856</v>
       </c>
       <c r="L24">
-        <v>0.9890383883137487</v>
+        <v>1.014997091050753</v>
       </c>
       <c r="M24">
-        <v>1.030359046120755</v>
+        <v>1.047144201120568</v>
       </c>
       <c r="N24">
-        <v>1.00079136008968</v>
+        <v>1.00922518070072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9696209952578914</v>
+        <v>1.010553573466338</v>
       </c>
       <c r="D25">
-        <v>1.034410558519842</v>
+        <v>1.044396701474052</v>
       </c>
       <c r="E25">
-        <v>0.9806931890396893</v>
+        <v>1.012872611869741</v>
       </c>
       <c r="F25">
-        <v>1.023386213489642</v>
+        <v>1.045222451150467</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049546417392917</v>
+        <v>1.035185569622356</v>
       </c>
       <c r="J25">
-        <v>0.9952158439551321</v>
+        <v>1.016302775650487</v>
       </c>
       <c r="K25">
-        <v>1.046497187467487</v>
+        <v>1.047422456615328</v>
       </c>
       <c r="L25">
-        <v>0.9935987995896957</v>
+        <v>1.015998982752112</v>
       </c>
       <c r="M25">
-        <v>1.03563202044322</v>
+        <v>1.048245659832574</v>
       </c>
       <c r="N25">
-        <v>1.002308779834486</v>
+        <v>1.009546438877705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011815278060212</v>
+        <v>0.975672657370642</v>
       </c>
       <c r="D2">
-        <v>1.04523878805012</v>
+        <v>1.038484534970051</v>
       </c>
       <c r="E2">
-        <v>1.013940126994007</v>
+        <v>0.9854465222920495</v>
       </c>
       <c r="F2">
-        <v>1.046357259005482</v>
+        <v>1.028605054285996</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035314664144424</v>
+        <v>1.050647254965983</v>
       </c>
       <c r="J2">
-        <v>1.017061578419777</v>
+        <v>0.9986061665096283</v>
       </c>
       <c r="K2">
-        <v>1.048007587784406</v>
+        <v>1.049432542862386</v>
       </c>
       <c r="L2">
-        <v>1.016799772201894</v>
+        <v>0.9971124040360734</v>
       </c>
       <c r="M2">
-        <v>1.049122921490067</v>
+        <v>1.039679756067771</v>
       </c>
       <c r="N2">
-        <v>1.009802614112428</v>
+        <v>1.003473944167965</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.012733166602526</v>
+        <v>0.9799469334576489</v>
       </c>
       <c r="D3">
-        <v>1.045849588508455</v>
+        <v>1.041360547175087</v>
       </c>
       <c r="E3">
-        <v>1.0147176133934</v>
+        <v>0.9888188924905492</v>
       </c>
       <c r="F3">
-        <v>1.047181870607714</v>
+        <v>1.032296451370753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035405190088722</v>
+        <v>1.051399672982369</v>
       </c>
       <c r="J3">
-        <v>1.017613058064312</v>
+        <v>1.000999604962431</v>
       </c>
       <c r="K3">
-        <v>1.048430311104754</v>
+        <v>1.051490210819651</v>
       </c>
       <c r="L3">
-        <v>1.017382173085179</v>
+        <v>0.9995968653946915</v>
       </c>
       <c r="M3">
-        <v>1.049759125557389</v>
+        <v>1.042532119494103</v>
       </c>
       <c r="N3">
-        <v>1.009988578144779</v>
+        <v>1.004295476022807</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013327919343449</v>
+        <v>0.9826604062343223</v>
       </c>
       <c r="D4">
-        <v>1.04624451286278</v>
+        <v>1.043184904394125</v>
       </c>
       <c r="E4">
-        <v>1.015221789810603</v>
+        <v>0.9909664571429594</v>
       </c>
       <c r="F4">
-        <v>1.047715732527017</v>
+        <v>1.03464165376844</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035462276868634</v>
+        <v>1.051865303668572</v>
       </c>
       <c r="J4">
-        <v>1.017970137795792</v>
+        <v>1.00251830689062</v>
       </c>
       <c r="K4">
-        <v>1.048702843343768</v>
+        <v>1.052788633055368</v>
       </c>
       <c r="L4">
-        <v>1.01775946164397</v>
+        <v>1.00117514583611</v>
       </c>
       <c r="M4">
-        <v>1.050170425969821</v>
+        <v>1.044339216737837</v>
       </c>
       <c r="N4">
-        <v>1.010108887449848</v>
+        <v>1.004816249825413</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013578147984596</v>
+        <v>0.9837890776101363</v>
       </c>
       <c r="D5">
-        <v>1.046410464012493</v>
+        <v>1.043943288551383</v>
       </c>
       <c r="E5">
-        <v>1.015434005204212</v>
+        <v>0.9918612884650435</v>
       </c>
       <c r="F5">
-        <v>1.047940233618147</v>
+        <v>1.035617464860203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035485918733868</v>
+        <v>1.052056035610614</v>
       </c>
       <c r="J5">
-        <v>1.018120309473828</v>
+        <v>1.003149802783508</v>
       </c>
       <c r="K5">
-        <v>1.048817175231137</v>
+        <v>1.05332673122184</v>
       </c>
       <c r="L5">
-        <v>1.017918177062038</v>
+        <v>1.001831849125521</v>
       </c>
       <c r="M5">
-        <v>1.050343247033754</v>
+        <v>1.045089899625152</v>
       </c>
       <c r="N5">
-        <v>1.01015945982432</v>
+        <v>1.005032666808256</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01362017385296</v>
+        <v>0.9839778909912662</v>
       </c>
       <c r="D6">
-        <v>1.046438323476359</v>
+        <v>1.044070127086781</v>
       </c>
       <c r="E6">
-        <v>1.015469652283856</v>
+        <v>0.992011072934958</v>
       </c>
       <c r="F6">
-        <v>1.047977932117646</v>
+        <v>1.035780722581245</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035489867324269</v>
+        <v>1.052087767824656</v>
       </c>
       <c r="J6">
-        <v>1.018145527175832</v>
+        <v>1.003255431381532</v>
       </c>
       <c r="K6">
-        <v>1.048836357894672</v>
+        <v>1.053416629488819</v>
       </c>
       <c r="L6">
-        <v>1.017944832104327</v>
+        <v>1.001941719510025</v>
       </c>
       <c r="M6">
-        <v>1.050372259137558</v>
+        <v>1.04521541963643</v>
       </c>
       <c r="N6">
-        <v>1.010167950804441</v>
+        <v>1.005068858648724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013331262147585</v>
+        <v>0.9826755344644083</v>
       </c>
       <c r="D7">
-        <v>1.046246730607819</v>
+        <v>1.043195071409588</v>
       </c>
       <c r="E7">
-        <v>1.015224624424795</v>
+        <v>0.9909784450209373</v>
       </c>
       <c r="F7">
-        <v>1.047718732066877</v>
+        <v>1.034654731983214</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035462594177825</v>
+        <v>1.051867871876567</v>
       </c>
       <c r="J7">
-        <v>1.017972144180867</v>
+        <v>1.002526772060056</v>
       </c>
       <c r="K7">
-        <v>1.048704371999901</v>
+        <v>1.052795853442813</v>
       </c>
       <c r="L7">
-        <v>1.017761582002641</v>
+        <v>1.001183947199898</v>
       </c>
       <c r="M7">
-        <v>1.050172735568015</v>
+        <v>1.044349282567772</v>
       </c>
       <c r="N7">
-        <v>1.010109563223152</v>
+        <v>1.004819151393853</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012125312853472</v>
+        <v>0.9771282639598552</v>
       </c>
       <c r="D8">
-        <v>1.045445272642182</v>
+        <v>1.039464195204565</v>
       </c>
       <c r="E8">
-        <v>1.014202655421618</v>
+        <v>0.9865935608468168</v>
       </c>
       <c r="F8">
-        <v>1.046635880407035</v>
+        <v>1.029861729059834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035345565745736</v>
+        <v>1.050905974548783</v>
       </c>
       <c r="J8">
-        <v>1.017247904163128</v>
+        <v>0.9994213895589795</v>
       </c>
       <c r="K8">
-        <v>1.04815065471166</v>
+        <v>1.050134871053744</v>
       </c>
       <c r="L8">
-        <v>1.016996506300653</v>
+        <v>0.9979582462791138</v>
       </c>
       <c r="M8">
-        <v>1.049338004266309</v>
+        <v>1.040651843995196</v>
       </c>
       <c r="N8">
-        <v>1.00986546579872</v>
+        <v>1.003753867982854</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.010006586513363</v>
+        <v>0.9669320297326569</v>
       </c>
       <c r="D9">
-        <v>1.044030766115486</v>
+        <v>1.032600529386609</v>
       </c>
       <c r="E9">
-        <v>1.01241023523751</v>
+        <v>0.9785889809098569</v>
       </c>
       <c r="F9">
-        <v>1.044730023750525</v>
+        <v>1.021070754387954</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03512797431812</v>
+        <v>1.049045305382292</v>
       </c>
       <c r="J9">
-        <v>1.015973549956763</v>
+        <v>0.9937090857270877</v>
       </c>
       <c r="K9">
-        <v>1.047167367144599</v>
+        <v>1.045185936752786</v>
       </c>
       <c r="L9">
-        <v>1.015651736225345</v>
+        <v>0.9920392592979504</v>
       </c>
       <c r="M9">
-        <v>1.047864383613401</v>
+        <v>1.033830979243786</v>
       </c>
       <c r="N9">
-        <v>1.009435186291296</v>
+        <v>1.001790474065452</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00859841104739</v>
+        <v>0.9598202941804648</v>
       </c>
       <c r="D10">
-        <v>1.043086388388752</v>
+        <v>1.027817001310229</v>
       </c>
       <c r="E10">
-        <v>1.011221038377077</v>
+        <v>0.9730466079294579</v>
       </c>
       <c r="F10">
-        <v>1.04346110878446</v>
+        <v>1.014959135654986</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03497531549122</v>
+        <v>1.047688927117483</v>
       </c>
       <c r="J10">
-        <v>1.015125284726642</v>
+        <v>0.9897240210411045</v>
       </c>
       <c r="K10">
-        <v>1.046506857738616</v>
+        <v>1.041701540493803</v>
       </c>
       <c r="L10">
-        <v>1.014757569936434</v>
+        <v>0.987920185733107</v>
       </c>
       <c r="M10">
-        <v>1.046880259800232</v>
+        <v>1.029063450845111</v>
       </c>
       <c r="N10">
-        <v>1.009148258544228</v>
+        <v>1.000418500726401</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00798969117841</v>
+        <v>0.9566588121665325</v>
       </c>
       <c r="D11">
-        <v>1.042677163960952</v>
+        <v>1.025693263478503</v>
       </c>
       <c r="E11">
-        <v>1.010707485525935</v>
+        <v>0.9705932445528548</v>
       </c>
       <c r="F11">
-        <v>1.042912075287348</v>
+        <v>1.01224868832896</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034907420557811</v>
+        <v>1.04707301099236</v>
       </c>
       <c r="J11">
-        <v>1.014758298615533</v>
+        <v>0.987952800464026</v>
       </c>
       <c r="K11">
-        <v>1.04621968938736</v>
+        <v>1.040146380856582</v>
       </c>
       <c r="L11">
-        <v>1.014370956847749</v>
+        <v>0.9860918859397146</v>
       </c>
       <c r="M11">
-        <v>1.046453742357206</v>
+        <v>1.026943250954704</v>
       </c>
       <c r="N11">
-        <v>1.009024003223204</v>
+        <v>0.9998082472554304</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007763741242319</v>
+        <v>0.9554714821767631</v>
       </c>
       <c r="D12">
-        <v>1.042525116519933</v>
+        <v>1.024896249060808</v>
       </c>
       <c r="E12">
-        <v>1.010516937554775</v>
+        <v>0.9696735016405602</v>
       </c>
       <c r="F12">
-        <v>1.04270820440258</v>
+        <v>1.011231869509704</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034881932827259</v>
+        <v>1.046839836217845</v>
       </c>
       <c r="J12">
-        <v>1.014622032473325</v>
+        <v>0.9872876918181431</v>
       </c>
       <c r="K12">
-        <v>1.046112849224301</v>
+        <v>1.039561529973198</v>
       </c>
       <c r="L12">
-        <v>1.014227437817296</v>
+        <v>0.9854057229641559</v>
       </c>
       <c r="M12">
-        <v>1.046295258871707</v>
+        <v>1.026147002491592</v>
       </c>
       <c r="N12">
-        <v>1.008977847625811</v>
+        <v>0.9995790292306158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007812201206402</v>
+        <v>0.9557267689870154</v>
       </c>
       <c r="D13">
-        <v>1.042557733134877</v>
+        <v>1.0250675855427</v>
       </c>
       <c r="E13">
-        <v>1.010557801285568</v>
+        <v>0.9698711792388346</v>
       </c>
       <c r="F13">
-        <v>1.042751932440065</v>
+        <v>1.01145044171262</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034887412170724</v>
+        <v>1.046890053604491</v>
       </c>
       <c r="J13">
-        <v>1.014651259797008</v>
+        <v>0.9874306913051334</v>
       </c>
       <c r="K13">
-        <v>1.046135774605017</v>
+        <v>1.03968731184399</v>
       </c>
       <c r="L13">
-        <v>1.014258219213845</v>
+        <v>0.9855532319163171</v>
       </c>
       <c r="M13">
-        <v>1.046329256615985</v>
+        <v>1.026318200139909</v>
       </c>
       <c r="N13">
-        <v>1.008987748225516</v>
+        <v>0.999628314215746</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007971010903217</v>
+        <v>0.9565609367360516</v>
       </c>
       <c r="D14">
-        <v>1.042664596542</v>
+        <v>1.025627550260978</v>
       </c>
       <c r="E14">
-        <v>1.010691730510686</v>
+        <v>0.9705173933084779</v>
       </c>
       <c r="F14">
-        <v>1.042895221925598</v>
+        <v>1.012164845004466</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034905319207367</v>
+        <v>1.047053826971566</v>
       </c>
       <c r="J14">
-        <v>1.014747033811528</v>
+        <v>0.9878979712575804</v>
       </c>
       <c r="K14">
-        <v>1.046210861466308</v>
+        <v>1.040098185033131</v>
       </c>
       <c r="L14">
-        <v>1.014359091753218</v>
+        <v>0.9860353133366331</v>
       </c>
       <c r="M14">
-        <v>1.046440643192124</v>
+        <v>1.026877612470358</v>
       </c>
       <c r="N14">
-        <v>1.009020188018116</v>
+        <v>0.9997893525654503</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008068879466227</v>
+        <v>0.9570731490858808</v>
       </c>
       <c r="D15">
-        <v>1.042730432946341</v>
+        <v>1.025971472435799</v>
       </c>
       <c r="E15">
-        <v>1.010774276389823</v>
+        <v>0.9709144138099549</v>
       </c>
       <c r="F15">
-        <v>1.042983515934193</v>
+        <v>1.012603669605523</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034916316764717</v>
+        <v>1.047154147528504</v>
       </c>
       <c r="J15">
-        <v>1.014806049844883</v>
+        <v>0.9881849134956184</v>
       </c>
       <c r="K15">
-        <v>1.046257102080689</v>
+        <v>1.040350377146561</v>
       </c>
       <c r="L15">
-        <v>1.014421254121224</v>
+        <v>0.9863313949463152</v>
       </c>
       <c r="M15">
-        <v>1.046509264787458</v>
+        <v>1.027221120442837</v>
       </c>
       <c r="N15">
-        <v>1.009040175040454</v>
+        <v>0.9998882332030831</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.008638831559846</v>
+        <v>0.9600283249513099</v>
       </c>
       <c r="D16">
-        <v>1.043113541078001</v>
+        <v>1.027956817989544</v>
       </c>
       <c r="E16">
-        <v>1.011255150334092</v>
+        <v>0.973208267593186</v>
       </c>
       <c r="F16">
-        <v>1.0434975552659</v>
+        <v>1.01513763455119</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034979783753235</v>
+        <v>1.047729192575979</v>
       </c>
       <c r="J16">
-        <v>1.01514964717957</v>
+        <v>0.989840580706567</v>
       </c>
       <c r="K16">
-        <v>1.046525891793011</v>
+        <v>1.041803754938646</v>
       </c>
       <c r="L16">
-        <v>1.014783240212172</v>
+        <v>0.9880405539407632</v>
       </c>
       <c r="M16">
-        <v>1.046908558408389</v>
+        <v>1.029202958051779</v>
       </c>
       <c r="N16">
-        <v>1.009156504707719</v>
+        <v>1.000458650964562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008996623803698</v>
+        <v>0.9618595898849017</v>
       </c>
       <c r="D17">
-        <v>1.043353775217882</v>
+        <v>1.029187937129226</v>
       </c>
       <c r="E17">
-        <v>1.011557159645651</v>
+        <v>0.9746325353669882</v>
       </c>
       <c r="F17">
-        <v>1.043820111266133</v>
+        <v>1.016709686001383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035019115537021</v>
+        <v>1.048082178671414</v>
       </c>
       <c r="J17">
-        <v>1.015365262651369</v>
+        <v>0.9908666801756395</v>
       </c>
       <c r="K17">
-        <v>1.046694186227457</v>
+        <v>1.042702844767067</v>
       </c>
       <c r="L17">
-        <v>1.015010457071249</v>
+        <v>0.9891004644634366</v>
       </c>
       <c r="M17">
-        <v>1.047158922978259</v>
+        <v>1.030430942673504</v>
       </c>
       <c r="N17">
-        <v>1.009229471860757</v>
+        <v>1.000812050426455</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.009205417216198</v>
+        <v>0.9629198675586043</v>
       </c>
       <c r="D18">
-        <v>1.043493870379669</v>
+        <v>1.029900988641296</v>
       </c>
       <c r="E18">
-        <v>1.011733449349629</v>
+        <v>0.9754581564078665</v>
       </c>
       <c r="F18">
-        <v>1.044008292620518</v>
+        <v>1.017620483631915</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035041884082608</v>
+        <v>1.048285317520708</v>
       </c>
       <c r="J18">
-        <v>1.015491058154398</v>
+        <v>0.9914608049797293</v>
       </c>
       <c r="K18">
-        <v>1.046792237154242</v>
+        <v>1.043222808304688</v>
       </c>
       <c r="L18">
-        <v>1.015143043434719</v>
+        <v>0.9897144017288549</v>
       </c>
       <c r="M18">
-        <v>1.047304919084211</v>
+        <v>1.031141841574857</v>
       </c>
       <c r="N18">
-        <v>1.009272031015224</v>
+        <v>1.001016629154921</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.009276627176207</v>
+        <v>0.9632800803791084</v>
       </c>
       <c r="D19">
-        <v>1.04354163416455</v>
+        <v>1.030143274399326</v>
       </c>
       <c r="E19">
-        <v>1.011793582059192</v>
+        <v>0.9757388139844853</v>
       </c>
       <c r="F19">
-        <v>1.044072464298159</v>
+        <v>1.017930010459998</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035049618197067</v>
+        <v>1.048354118772683</v>
       </c>
       <c r="J19">
-        <v>1.015533956337404</v>
+        <v>0.9916626528946056</v>
       </c>
       <c r="K19">
-        <v>1.046825650873602</v>
+        <v>1.043399352505549</v>
       </c>
       <c r="L19">
-        <v>1.015188261187497</v>
+        <v>0.9899230204796799</v>
       </c>
       <c r="M19">
-        <v>1.047354693594556</v>
+        <v>1.031383339471121</v>
       </c>
       <c r="N19">
-        <v>1.009286542345028</v>
+        <v>1.001086125042601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008958225808403</v>
+        <v>0.961663931149685</v>
       </c>
       <c r="D20">
-        <v>1.043328003387879</v>
+        <v>1.029056372961844</v>
       </c>
       <c r="E20">
-        <v>1.01152474315953</v>
+        <v>0.9744802585104116</v>
       </c>
       <c r="F20">
-        <v>1.043785499917028</v>
+        <v>1.01654165912759</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035014913499204</v>
+        <v>1.048044591956343</v>
       </c>
       <c r="J20">
-        <v>1.015342125974597</v>
+        <v>0.9907570450038564</v>
       </c>
       <c r="K20">
-        <v>1.046676141437694</v>
+        <v>1.042606843878536</v>
       </c>
       <c r="L20">
-        <v>1.014986073195528</v>
+        <v>0.9889871922335683</v>
       </c>
       <c r="M20">
-        <v>1.04713206507439</v>
+        <v>1.030299748624899</v>
       </c>
       <c r="N20">
-        <v>1.009221643312527</v>
+        <v>1.000774295448506</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.007924241098285</v>
+        <v>0.9563156601516037</v>
       </c>
       <c r="D21">
-        <v>1.042633129108873</v>
+        <v>1.025462882338164</v>
       </c>
       <c r="E21">
-        <v>1.010652285926348</v>
+        <v>0.9703273362640292</v>
       </c>
       <c r="F21">
-        <v>1.042853024942179</v>
+        <v>1.011954751565049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03490005343773</v>
+        <v>1.047005721984647</v>
       </c>
       <c r="J21">
-        <v>1.014718829394995</v>
+        <v>0.9877605705007216</v>
       </c>
       <c r="K21">
-        <v>1.046188755020268</v>
+        <v>1.039977393623686</v>
       </c>
       <c r="L21">
-        <v>1.014329384913619</v>
+        <v>0.9858935498026158</v>
       </c>
       <c r="M21">
-        <v>1.046407844149408</v>
+        <v>1.026713122673127</v>
       </c>
       <c r="N21">
-        <v>1.009010635349586</v>
+        <v>0.9997420019121025</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007275035392883</v>
+        <v>0.9528773151016051</v>
       </c>
       <c r="D22">
-        <v>1.042195984819542</v>
+        <v>1.023156126535978</v>
       </c>
       <c r="E22">
-        <v>1.010104944058872</v>
+        <v>0.9676670861878792</v>
       </c>
       <c r="F22">
-        <v>1.042267115789236</v>
+        <v>1.00901248219807</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034826283123856</v>
+        <v>1.046327054667967</v>
       </c>
       <c r="J22">
-        <v>1.014327221170403</v>
+        <v>0.9858347358213138</v>
       </c>
       <c r="K22">
-        <v>1.045881315471179</v>
+        <v>1.038282402306935</v>
       </c>
       <c r="L22">
-        <v>1.013916998701952</v>
+        <v>0.9839074777748371</v>
       </c>
       <c r="M22">
-        <v>1.045952175169117</v>
+        <v>1.024407489636328</v>
       </c>
       <c r="N22">
-        <v>1.008877956996187</v>
+        <v>0.9990781857490985</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007619105807618</v>
+        <v>0.9547074618734016</v>
       </c>
       <c r="D23">
-        <v>1.042427746171739</v>
+        <v>1.024383572641979</v>
       </c>
       <c r="E23">
-        <v>1.010394985460836</v>
+        <v>0.9690821405773389</v>
       </c>
       <c r="F23">
-        <v>1.04257768103514</v>
+        <v>1.010577904688905</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034865537126152</v>
+        <v>1.046689280076564</v>
       </c>
       <c r="J23">
-        <v>1.014534792928617</v>
+        <v>0.9868597413506778</v>
       </c>
       <c r="K23">
-        <v>1.046044389236752</v>
+        <v>1.039184985627134</v>
       </c>
       <c r="L23">
-        <v>1.014135564685808</v>
+        <v>0.9849643332615632</v>
       </c>
       <c r="M23">
-        <v>1.046193763831568</v>
+        <v>1.025634657068744</v>
       </c>
       <c r="N23">
-        <v>1.008948293039783</v>
+        <v>0.9994315268082065</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008975575903081</v>
+        <v>0.9617523651751354</v>
       </c>
       <c r="D24">
-        <v>1.043339648659459</v>
+        <v>1.029115836699235</v>
       </c>
       <c r="E24">
-        <v>1.011539390364161</v>
+        <v>0.9745490816911085</v>
       </c>
       <c r="F24">
-        <v>1.043801139172838</v>
+        <v>1.01661760222571</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035016812753904</v>
+        <v>1.048061584272195</v>
       </c>
       <c r="J24">
-        <v>1.015352580348339</v>
+        <v>0.9908065979349662</v>
       </c>
       <c r="K24">
-        <v>1.046684295448856</v>
+        <v>1.042650236315537</v>
       </c>
       <c r="L24">
-        <v>1.014997091050753</v>
+        <v>0.9890383883137484</v>
       </c>
       <c r="M24">
-        <v>1.047144201120568</v>
+        <v>1.030359046120755</v>
       </c>
       <c r="N24">
-        <v>1.00922518070072</v>
+        <v>1.00079136008968</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010553573466338</v>
+        <v>0.9696209952578916</v>
       </c>
       <c r="D25">
-        <v>1.044396701474052</v>
+        <v>1.034410558519841</v>
       </c>
       <c r="E25">
-        <v>1.012872611869741</v>
+        <v>0.9806931890396895</v>
       </c>
       <c r="F25">
-        <v>1.045222451150467</v>
+        <v>1.023386213489641</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035185569622356</v>
+        <v>1.049546417392917</v>
       </c>
       <c r="J25">
-        <v>1.016302775650487</v>
+        <v>0.9952158439551322</v>
       </c>
       <c r="K25">
-        <v>1.047422456615328</v>
+        <v>1.046497187467486</v>
       </c>
       <c r="L25">
-        <v>1.015998982752112</v>
+        <v>0.9935987995896958</v>
       </c>
       <c r="M25">
-        <v>1.048245659832574</v>
+        <v>1.03563202044322</v>
       </c>
       <c r="N25">
-        <v>1.009546438877705</v>
+        <v>1.002308779834486</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,81 +433,105 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.975672657370642</v>
+        <v>1.004429907441527</v>
       </c>
       <c r="D2">
-        <v>1.038484534970051</v>
+        <v>1.035095036937246</v>
       </c>
       <c r="E2">
-        <v>0.9854465222920495</v>
+        <v>1.020147763527919</v>
       </c>
       <c r="F2">
-        <v>1.028605054285996</v>
+        <v>1.030914808999529</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050647254965983</v>
+        <v>1.048059218696657</v>
       </c>
       <c r="J2">
-        <v>0.9986061665096283</v>
+        <v>1.026478923257705</v>
       </c>
       <c r="K2">
-        <v>1.049432542862386</v>
+        <v>1.046086171004227</v>
       </c>
       <c r="L2">
-        <v>0.9971124040360734</v>
+        <v>1.031333366458247</v>
       </c>
       <c r="M2">
-        <v>1.039679756067771</v>
+        <v>1.04195961855812</v>
       </c>
       <c r="N2">
-        <v>1.003473944167965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012705534733788</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041780612964257</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043657188573859</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9799469334576489</v>
+        <v>1.007827323250778</v>
       </c>
       <c r="D3">
-        <v>1.041360547175087</v>
+        <v>1.03672159524474</v>
       </c>
       <c r="E3">
-        <v>0.9888188924905492</v>
+        <v>1.022771710236891</v>
       </c>
       <c r="F3">
-        <v>1.032296451370753</v>
+        <v>1.033480502281709</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051399672982369</v>
+        <v>1.048637258480254</v>
       </c>
       <c r="J3">
-        <v>1.000999604962431</v>
+        <v>1.028106858288112</v>
       </c>
       <c r="K3">
-        <v>1.051490210819651</v>
+        <v>1.046905224886905</v>
       </c>
       <c r="L3">
-        <v>0.9995968653946915</v>
+        <v>1.033121283291297</v>
       </c>
       <c r="M3">
-        <v>1.042532119494103</v>
+        <v>1.043702192222425</v>
       </c>
       <c r="N3">
-        <v>1.004295476022807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013258417128355</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043159739427806</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044233672015515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9826604062343223</v>
+        <v>1.009989726062974</v>
       </c>
       <c r="D4">
-        <v>1.043184904394125</v>
+        <v>1.037763293662938</v>
       </c>
       <c r="E4">
-        <v>0.9909664571429594</v>
+        <v>1.024447780856052</v>
       </c>
       <c r="F4">
-        <v>1.03464165376844</v>
+        <v>1.035120514480469</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051865303668572</v>
+        <v>1.048998372050882</v>
       </c>
       <c r="J4">
-        <v>1.00251830689062</v>
+        <v>1.02914130018598</v>
       </c>
       <c r="K4">
-        <v>1.052788633055368</v>
+        <v>1.047426350181009</v>
       </c>
       <c r="L4">
-        <v>1.00117514583611</v>
+        <v>1.034259831901498</v>
       </c>
       <c r="M4">
-        <v>1.044339216737837</v>
+        <v>1.044812767530052</v>
       </c>
       <c r="N4">
-        <v>1.004816249825413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01360962448222</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044038681564079</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044603035192723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9837890776101363</v>
+        <v>1.010891061775792</v>
       </c>
       <c r="D5">
-        <v>1.043943288551383</v>
+        <v>1.038204337074266</v>
       </c>
       <c r="E5">
-        <v>0.9918612884650435</v>
+        <v>1.02514790741645</v>
       </c>
       <c r="F5">
-        <v>1.035617464860203</v>
+        <v>1.03580575939559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052056035610614</v>
+        <v>1.049148924150273</v>
       </c>
       <c r="J5">
-        <v>1.003149802783508</v>
+        <v>1.029572361952122</v>
       </c>
       <c r="K5">
-        <v>1.05332673122184</v>
+        <v>1.047648934324683</v>
       </c>
       <c r="L5">
-        <v>1.001831849125521</v>
+        <v>1.034734769353077</v>
       </c>
       <c r="M5">
-        <v>1.045089899625152</v>
+        <v>1.045276162157521</v>
       </c>
       <c r="N5">
-        <v>1.005032666808256</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013756091778707</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044405425461001</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044767542556294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9839778909912662</v>
+        <v>1.011042690100639</v>
       </c>
       <c r="D6">
-        <v>1.044070127086781</v>
+        <v>1.038285117198668</v>
       </c>
       <c r="E6">
-        <v>0.992011072934958</v>
+        <v>1.02526589310818</v>
       </c>
       <c r="F6">
-        <v>1.035780722581245</v>
+        <v>1.035921141260403</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052087767824656</v>
+        <v>1.049176208519854</v>
       </c>
       <c r="J6">
-        <v>1.003255431381532</v>
+        <v>1.029645237627666</v>
       </c>
       <c r="K6">
-        <v>1.053416629488819</v>
+        <v>1.047692987094175</v>
       </c>
       <c r="L6">
-        <v>1.001941719510025</v>
+        <v>1.034814982322204</v>
       </c>
       <c r="M6">
-        <v>1.04521541963643</v>
+        <v>1.045354329940045</v>
       </c>
       <c r="N6">
-        <v>1.005068858648724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013781028742174</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044467289684433</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044807379919529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9826755344644083</v>
+        <v>1.01000386358307</v>
       </c>
       <c r="D7">
-        <v>1.043195071409588</v>
+        <v>1.037787589375737</v>
       </c>
       <c r="E7">
-        <v>0.9909784450209373</v>
+        <v>1.024459091879857</v>
       </c>
       <c r="F7">
-        <v>1.034654731983214</v>
+        <v>1.035131277014163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051867871876567</v>
+        <v>1.049006221831909</v>
       </c>
       <c r="J7">
-        <v>1.002526772060056</v>
+        <v>1.02914908727785</v>
       </c>
       <c r="K7">
-        <v>1.052795853442813</v>
+        <v>1.047447522573171</v>
       </c>
       <c r="L7">
-        <v>1.001183947199898</v>
+        <v>1.034268108864355</v>
       </c>
       <c r="M7">
-        <v>1.044349282567772</v>
+        <v>1.044820545265984</v>
       </c>
       <c r="N7">
-        <v>1.004819151393853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013612751511062</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044044837090535</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044637986727987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9771282639598552</v>
+        <v>1.005588136182729</v>
       </c>
       <c r="D8">
-        <v>1.039464195204565</v>
+        <v>1.035669556187818</v>
       </c>
       <c r="E8">
-        <v>0.9865935608468168</v>
+        <v>1.021041467325071</v>
       </c>
       <c r="F8">
-        <v>1.029861729059834</v>
+        <v>1.031788019950332</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050905974548783</v>
+        <v>1.048264323138375</v>
       </c>
       <c r="J8">
-        <v>0.9994213895589795</v>
+        <v>1.027035471059292</v>
       </c>
       <c r="K8">
-        <v>1.050134871053744</v>
+        <v>1.046387101540267</v>
       </c>
       <c r="L8">
-        <v>0.9979582462791138</v>
+        <v>1.031943766452909</v>
       </c>
       <c r="M8">
-        <v>1.040651843995196</v>
+        <v>1.042553952736518</v>
       </c>
       <c r="N8">
-        <v>1.003753867982854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012895198853351</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042250987631069</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043892716399349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9669320297326569</v>
+        <v>0.9975178102787612</v>
       </c>
       <c r="D9">
-        <v>1.032600529386609</v>
+        <v>1.031823685150295</v>
       </c>
       <c r="E9">
-        <v>0.9785889809098569</v>
+        <v>1.014843353235418</v>
       </c>
       <c r="F9">
-        <v>1.021070754387954</v>
+        <v>1.025734552568892</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049045305382292</v>
+        <v>1.04684747466368</v>
       </c>
       <c r="J9">
-        <v>0.9937090857270877</v>
+        <v>1.023158526582077</v>
       </c>
       <c r="K9">
-        <v>1.045185936752786</v>
+        <v>1.044420715032316</v>
       </c>
       <c r="L9">
-        <v>0.9920392592979504</v>
+        <v>1.027700111813777</v>
       </c>
       <c r="M9">
-        <v>1.033830979243786</v>
+        <v>1.038423460355324</v>
       </c>
       <c r="N9">
-        <v>1.001790474065452</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011577405393975</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038981980373658</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042499230020124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9598202941804648</v>
+        <v>0.9919875202668822</v>
       </c>
       <c r="D10">
-        <v>1.027817001310229</v>
+        <v>1.029222526301169</v>
       </c>
       <c r="E10">
-        <v>0.9730466079294579</v>
+        <v>1.010664582635489</v>
       </c>
       <c r="F10">
-        <v>1.014959135654986</v>
+        <v>1.021707579968355</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047688927117483</v>
+        <v>1.045858736743466</v>
       </c>
       <c r="J10">
-        <v>0.9897240210411045</v>
+        <v>1.020522684009937</v>
       </c>
       <c r="K10">
-        <v>1.041701540493803</v>
+        <v>1.043083470395548</v>
       </c>
       <c r="L10">
-        <v>0.987920185733107</v>
+        <v>1.024843917942621</v>
       </c>
       <c r="M10">
-        <v>1.029063450845111</v>
+        <v>1.03569565482262</v>
       </c>
       <c r="N10">
-        <v>1.000418500726401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010684577618954</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036874636042667</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041570415175117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9566588121665325</v>
+        <v>0.9900086074244246</v>
       </c>
       <c r="D11">
-        <v>1.025693263478503</v>
+        <v>1.028242628389515</v>
       </c>
       <c r="E11">
-        <v>0.9705932445528548</v>
+        <v>1.009449239209088</v>
       </c>
       <c r="F11">
-        <v>1.01224868832896</v>
+        <v>1.020922035450333</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04707301099236</v>
+        <v>1.0456155268093</v>
       </c>
       <c r="J11">
-        <v>0.987952800464026</v>
+        <v>1.019803029247863</v>
       </c>
       <c r="K11">
-        <v>1.040146380856582</v>
+        <v>1.04265088560121</v>
       </c>
       <c r="L11">
-        <v>0.9860918859397146</v>
+        <v>1.024195130001117</v>
       </c>
       <c r="M11">
-        <v>1.026943250954704</v>
+        <v>1.035459891981289</v>
       </c>
       <c r="N11">
-        <v>0.9998082472554304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010470425647061</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037124946471907</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041297135602142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9554714821767631</v>
+        <v>0.9894453749810052</v>
       </c>
       <c r="D12">
-        <v>1.024896249060808</v>
+        <v>1.027918105195902</v>
       </c>
       <c r="E12">
-        <v>0.9696735016405602</v>
+        <v>1.009227221246502</v>
       </c>
       <c r="F12">
-        <v>1.011231869509704</v>
+        <v>1.020990548531121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046839836217845</v>
+        <v>1.045595043495251</v>
       </c>
       <c r="J12">
-        <v>0.9872876918181431</v>
+        <v>1.019703241380189</v>
       </c>
       <c r="K12">
-        <v>1.039561529973198</v>
+        <v>1.042529296131215</v>
       </c>
       <c r="L12">
-        <v>0.9854057229641559</v>
+        <v>1.024179751944549</v>
       </c>
       <c r="M12">
-        <v>1.026147002491592</v>
+        <v>1.035726356927138</v>
       </c>
       <c r="N12">
-        <v>0.9995790292306158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010460856955103</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037662484754282</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.041211169266335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9557267689870154</v>
+        <v>0.9899361800780382</v>
       </c>
       <c r="D13">
-        <v>1.0250675855427</v>
+        <v>1.028095359478527</v>
       </c>
       <c r="E13">
-        <v>0.9698711792388346</v>
+        <v>1.009758378165937</v>
       </c>
       <c r="F13">
-        <v>1.01145044171262</v>
+        <v>1.021734130413091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046890053604491</v>
+        <v>1.045754588233762</v>
       </c>
       <c r="J13">
-        <v>0.9874306913051334</v>
+        <v>1.020078447418362</v>
       </c>
       <c r="K13">
-        <v>1.03968731184399</v>
+        <v>1.0426610944388</v>
       </c>
       <c r="L13">
-        <v>0.9855532319163171</v>
+        <v>1.02465756665641</v>
       </c>
       <c r="M13">
-        <v>1.026318200139909</v>
+        <v>1.036413780098817</v>
       </c>
       <c r="N13">
-        <v>0.999628314215746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010610229598756</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038482914489844</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.041301881648554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565609367360516</v>
+        <v>0.9907556944450127</v>
       </c>
       <c r="D14">
-        <v>1.025627550260978</v>
+        <v>1.028450623984624</v>
       </c>
       <c r="E14">
-        <v>0.9705173933084779</v>
+        <v>1.010468822841547</v>
       </c>
       <c r="F14">
-        <v>1.012164845004466</v>
+        <v>1.022557735014354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047053826971566</v>
+        <v>1.045947942713524</v>
       </c>
       <c r="J14">
-        <v>0.9878979712575804</v>
+        <v>1.020554380813259</v>
       </c>
       <c r="K14">
-        <v>1.040098185033131</v>
+        <v>1.042871526449018</v>
       </c>
       <c r="L14">
-        <v>0.9860353133366331</v>
+        <v>1.025212690152874</v>
       </c>
       <c r="M14">
-        <v>1.026877612470358</v>
+        <v>1.037082853337602</v>
       </c>
       <c r="N14">
-        <v>0.9997893525654503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010786204055804</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03918521623295</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041452074332161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9570731490858808</v>
+        <v>0.9911875814245219</v>
       </c>
       <c r="D15">
-        <v>1.025971472435799</v>
+        <v>1.028652457154168</v>
       </c>
       <c r="E15">
-        <v>0.9709144138099549</v>
+        <v>1.010812980881648</v>
       </c>
       <c r="F15">
-        <v>1.012603669605523</v>
+        <v>1.022919603466496</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047154147528504</v>
+        <v>1.046037577922696</v>
       </c>
       <c r="J15">
-        <v>0.9881849134956184</v>
+        <v>1.020778280021556</v>
       </c>
       <c r="K15">
-        <v>1.040350377146561</v>
+        <v>1.042984486613147</v>
       </c>
       <c r="L15">
-        <v>0.9863313949463152</v>
+        <v>1.025463009961057</v>
       </c>
       <c r="M15">
-        <v>1.027221120442837</v>
+        <v>1.037352255945569</v>
       </c>
       <c r="N15">
-        <v>0.9998882332030831</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010865368519622</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039435702337083</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04153776254278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9600283249513099</v>
+        <v>0.9934277726065133</v>
       </c>
       <c r="D16">
-        <v>1.027956817989544</v>
+        <v>1.02971787093024</v>
       </c>
       <c r="E16">
-        <v>0.973208267593186</v>
+        <v>1.012479256201435</v>
       </c>
       <c r="F16">
-        <v>1.01513763455119</v>
+        <v>1.024508793566405</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047729192575979</v>
+        <v>1.046437414084772</v>
       </c>
       <c r="J16">
-        <v>0.989840580706567</v>
+        <v>1.021826966784243</v>
       </c>
       <c r="K16">
-        <v>1.041803754938646</v>
+        <v>1.043535354047646</v>
       </c>
       <c r="L16">
-        <v>0.9880405539407632</v>
+        <v>1.02659076402764</v>
       </c>
       <c r="M16">
-        <v>1.029202958051779</v>
+        <v>1.038413777488065</v>
       </c>
       <c r="N16">
-        <v>1.000458650964562</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011216356839448</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040235995200192</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041930385765794</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9618595898849017</v>
+        <v>0.9947191483780667</v>
       </c>
       <c r="D17">
-        <v>1.029187937129226</v>
+        <v>1.030352499660255</v>
       </c>
       <c r="E17">
-        <v>0.9746325353669882</v>
+        <v>1.013386892291953</v>
       </c>
       <c r="F17">
-        <v>1.016709686001383</v>
+        <v>1.025292541953553</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048082178671414</v>
+        <v>1.046641263603328</v>
       </c>
       <c r="J17">
-        <v>0.9908666801756395</v>
+        <v>1.022381785511758</v>
       </c>
       <c r="K17">
-        <v>1.042702844767067</v>
+        <v>1.043848476780781</v>
       </c>
       <c r="L17">
-        <v>0.9891004644634366</v>
+        <v>1.027164202685067</v>
       </c>
       <c r="M17">
-        <v>1.030430942673504</v>
+        <v>1.038871172999967</v>
       </c>
       <c r="N17">
-        <v>1.000812050426455</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011393195821516</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040468445167277</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042154343496189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9629198675586043</v>
+        <v>0.995306404805244</v>
       </c>
       <c r="D18">
-        <v>1.029900988641296</v>
+        <v>1.030661093654986</v>
       </c>
       <c r="E18">
-        <v>0.9754581564078665</v>
+        <v>1.013701200004688</v>
       </c>
       <c r="F18">
-        <v>1.017620483631915</v>
+        <v>1.02540816741529</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048285317520708</v>
+        <v>1.046687052272532</v>
       </c>
       <c r="J18">
-        <v>0.9914608049797293</v>
+        <v>1.02254791076913</v>
       </c>
       <c r="K18">
-        <v>1.043222808304688</v>
+        <v>1.043970763169933</v>
       </c>
       <c r="L18">
-        <v>0.9897144017288549</v>
+        <v>1.027287550830436</v>
       </c>
       <c r="M18">
-        <v>1.031141841574857</v>
+        <v>1.038802276353669</v>
       </c>
       <c r="N18">
-        <v>1.001016629154921</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011430713058491</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040176168203299</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042229257999723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9632800803791084</v>
+        <v>0.9952551951434343</v>
       </c>
       <c r="D19">
-        <v>1.030143274399326</v>
+        <v>1.030700306983461</v>
       </c>
       <c r="E19">
-        <v>0.9757388139844853</v>
+        <v>1.013472761952342</v>
       </c>
       <c r="F19">
-        <v>1.017930010459998</v>
+        <v>1.024909592353515</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048354118772683</v>
+        <v>1.046598961011224</v>
       </c>
       <c r="J19">
-        <v>0.9916626528946056</v>
+        <v>1.022362978418711</v>
       </c>
       <c r="K19">
-        <v>1.043399352505549</v>
+        <v>1.043947531510287</v>
       </c>
       <c r="L19">
-        <v>0.9899230204796799</v>
+        <v>1.026999602363182</v>
       </c>
       <c r="M19">
-        <v>1.031383339471121</v>
+        <v>1.038249458646139</v>
       </c>
       <c r="N19">
-        <v>1.001086125042601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011345021861996</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039413303410917</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04221917708663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.961663931149685</v>
+        <v>0.9934248484618262</v>
       </c>
       <c r="D20">
-        <v>1.029056372961844</v>
+        <v>1.029937568487765</v>
       </c>
       <c r="E20">
-        <v>0.9744802585104116</v>
+        <v>1.011750537733283</v>
       </c>
       <c r="F20">
-        <v>1.01654165912759</v>
+        <v>1.022755153984546</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048044591956343</v>
+        <v>1.046131293727725</v>
       </c>
       <c r="J20">
-        <v>0.9907570450038564</v>
+        <v>1.021211605448667</v>
       </c>
       <c r="K20">
-        <v>1.042606843878536</v>
+        <v>1.043473664722111</v>
       </c>
       <c r="L20">
-        <v>0.9889871922335683</v>
+        <v>1.025589867730434</v>
       </c>
       <c r="M20">
-        <v>1.030299748624899</v>
+        <v>1.036409344180735</v>
       </c>
       <c r="N20">
-        <v>1.000774295448506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010919512915602</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037428877500787</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.041888021245935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9563156601516037</v>
+        <v>0.9891926972462658</v>
       </c>
       <c r="D21">
-        <v>1.025462882338164</v>
+        <v>1.027964352827382</v>
       </c>
       <c r="E21">
-        <v>0.9703273362640292</v>
+        <v>1.008512673475396</v>
       </c>
       <c r="F21">
-        <v>1.011954751565049</v>
+        <v>1.019562213393179</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047005721984647</v>
+        <v>1.045338734675547</v>
       </c>
       <c r="J21">
-        <v>0.9877605705007216</v>
+        <v>1.019149321203856</v>
       </c>
       <c r="K21">
-        <v>1.039977393623686</v>
+        <v>1.042434617386089</v>
       </c>
       <c r="L21">
-        <v>0.9858935498026158</v>
+        <v>1.023334545651021</v>
       </c>
       <c r="M21">
-        <v>1.026713122673127</v>
+        <v>1.034182215330711</v>
       </c>
       <c r="N21">
-        <v>0.9997420019121025</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010215403165145</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035625304323656</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041156573579714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9528773151016051</v>
+        <v>0.9865101476107696</v>
       </c>
       <c r="D22">
-        <v>1.023156126535978</v>
+        <v>1.026701558914547</v>
       </c>
       <c r="E22">
-        <v>0.9676670861878792</v>
+        <v>1.006484929341149</v>
       </c>
       <c r="F22">
-        <v>1.00901248219807</v>
+        <v>1.017588344641017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046327054667967</v>
+        <v>1.044831988923189</v>
       </c>
       <c r="J22">
-        <v>0.9858347358213138</v>
+        <v>1.017854058399032</v>
       </c>
       <c r="K22">
-        <v>1.038282402306935</v>
+        <v>1.041761983797712</v>
       </c>
       <c r="L22">
-        <v>0.9839074777748371</v>
+        <v>1.021929003950361</v>
       </c>
       <c r="M22">
-        <v>1.024407489636328</v>
+        <v>1.032819243887789</v>
       </c>
       <c r="N22">
-        <v>0.9990781857490985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009774154596057</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034546595627914</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040667602651218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9547074618734016</v>
+        <v>0.9879353484859108</v>
       </c>
       <c r="D23">
-        <v>1.024383572641979</v>
+        <v>1.027356599477821</v>
       </c>
       <c r="E23">
-        <v>0.9690821405773389</v>
+        <v>1.007561130487365</v>
       </c>
       <c r="F23">
-        <v>1.010577904688905</v>
+        <v>1.018636181460383</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046689280076564</v>
+        <v>1.045097419828375</v>
       </c>
       <c r="J23">
-        <v>0.9868597413506778</v>
+        <v>1.018541552806447</v>
       </c>
       <c r="K23">
-        <v>1.039184985627134</v>
+        <v>1.042104192906682</v>
       </c>
       <c r="L23">
-        <v>0.9849643332615632</v>
+        <v>1.02267489696325</v>
       </c>
       <c r="M23">
-        <v>1.025634657068744</v>
+        <v>1.033542798037735</v>
       </c>
       <c r="N23">
-        <v>0.9994315268082065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010007832680732</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035119244773937</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.040900004839783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9617523651751354</v>
+        <v>0.9934466103256854</v>
       </c>
       <c r="D24">
-        <v>1.029115836699235</v>
+        <v>1.02993086251065</v>
       </c>
       <c r="E24">
-        <v>0.9745490816911085</v>
+        <v>1.011739865766624</v>
       </c>
       <c r="F24">
-        <v>1.01661760222571</v>
+        <v>1.022707234612955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048061584272195</v>
+        <v>1.046117309868856</v>
       </c>
       <c r="J24">
-        <v>0.9908065979349662</v>
+        <v>1.021199282487151</v>
       </c>
       <c r="K24">
-        <v>1.042650236315537</v>
+        <v>1.043451984723239</v>
       </c>
       <c r="L24">
-        <v>0.9890383883137484</v>
+        <v>1.02556390580716</v>
       </c>
       <c r="M24">
-        <v>1.030359046120755</v>
+        <v>1.036346984592247</v>
       </c>
       <c r="N24">
-        <v>1.00079136008968</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010911935832704</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037338583672609</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.041845506976538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9696209952578916</v>
+        <v>0.9996426289973277</v>
       </c>
       <c r="D25">
-        <v>1.034410558519841</v>
+        <v>1.032856408630015</v>
       </c>
       <c r="E25">
-        <v>0.9806931890396895</v>
+        <v>1.016469897714611</v>
       </c>
       <c r="F25">
-        <v>1.023386213489641</v>
+        <v>1.027321457143187</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049546417392917</v>
+        <v>1.04723454568982</v>
       </c>
       <c r="J25">
-        <v>0.9952158439551322</v>
+        <v>1.024182026090509</v>
       </c>
       <c r="K25">
-        <v>1.046497187467486</v>
+        <v>1.044965217156978</v>
       </c>
       <c r="L25">
-        <v>0.9935987995896958</v>
+        <v>1.028817808703777</v>
       </c>
       <c r="M25">
-        <v>1.03563202044322</v>
+        <v>1.039509946974524</v>
       </c>
       <c r="N25">
-        <v>1.002308779834486</v>
+        <v>1.01192621724772</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03984186298668</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.042912588476387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_53/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004429907441527</v>
+        <v>1.004505669417302</v>
       </c>
       <c r="D2">
-        <v>1.035095036937246</v>
+        <v>1.032580240865512</v>
       </c>
       <c r="E2">
-        <v>1.020147763527919</v>
+        <v>1.020183723624605</v>
       </c>
       <c r="F2">
-        <v>1.030914808999529</v>
+        <v>1.030879340860281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048059218696657</v>
+        <v>1.047288196734564</v>
       </c>
       <c r="J2">
-        <v>1.026478923257705</v>
+        <v>1.026552446806259</v>
       </c>
       <c r="K2">
-        <v>1.046086171004227</v>
+        <v>1.043603600613314</v>
       </c>
       <c r="L2">
-        <v>1.031333366458247</v>
+        <v>1.031368850123682</v>
       </c>
       <c r="M2">
-        <v>1.04195961855812</v>
+        <v>1.041924608171106</v>
       </c>
       <c r="N2">
-        <v>1.012705534733788</v>
+        <v>1.01420941494864</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041780612964257</v>
+        <v>1.041752904638903</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043657188573859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041910537128431</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023677369608927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007827323250778</v>
+        <v>1.007856288906811</v>
       </c>
       <c r="D3">
-        <v>1.03672159524474</v>
+        <v>1.034077304516258</v>
       </c>
       <c r="E3">
-        <v>1.022771710236891</v>
+        <v>1.022769356535535</v>
       </c>
       <c r="F3">
-        <v>1.033480502281709</v>
+        <v>1.033412968315452</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048637258480254</v>
+        <v>1.047814928158025</v>
       </c>
       <c r="J3">
-        <v>1.028106858288112</v>
+        <v>1.028135050912974</v>
       </c>
       <c r="K3">
-        <v>1.046905224886905</v>
+        <v>1.044291963995789</v>
       </c>
       <c r="L3">
-        <v>1.033121283291297</v>
+        <v>1.033118958063058</v>
       </c>
       <c r="M3">
-        <v>1.043702192222425</v>
+        <v>1.043635454454368</v>
       </c>
       <c r="N3">
-        <v>1.013258417128355</v>
+        <v>1.014637453738621</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043159739427806</v>
+        <v>1.043106921151069</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044233672015515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042394339706296</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023762722741492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009989726062974</v>
+        <v>1.009989124347963</v>
       </c>
       <c r="D4">
-        <v>1.037763293662938</v>
+        <v>1.03503657577934</v>
       </c>
       <c r="E4">
-        <v>1.024447780856052</v>
+        <v>1.024421179329594</v>
       </c>
       <c r="F4">
-        <v>1.035120514480469</v>
+        <v>1.035032662086777</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.048998372050882</v>
+        <v>1.048143295475883</v>
       </c>
       <c r="J4">
-        <v>1.02914130018598</v>
+        <v>1.029140713455236</v>
       </c>
       <c r="K4">
-        <v>1.047426350181009</v>
+        <v>1.044729759159267</v>
       </c>
       <c r="L4">
-        <v>1.034259831901498</v>
+        <v>1.034233532813799</v>
       </c>
       <c r="M4">
-        <v>1.044812767530052</v>
+        <v>1.044725888848444</v>
       </c>
       <c r="N4">
-        <v>1.01360962448222</v>
+        <v>1.014909375966059</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044038681564079</v>
+        <v>1.043969923244792</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044603035192723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042704869259337</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023814729183537</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010891061775792</v>
+        <v>1.010878143264842</v>
       </c>
       <c r="D5">
-        <v>1.038204337074266</v>
+        <v>1.035442973638422</v>
       </c>
       <c r="E5">
-        <v>1.02514790741645</v>
+        <v>1.025111192829292</v>
       </c>
       <c r="F5">
-        <v>1.03580575939559</v>
+        <v>1.035709429009267</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049148924150273</v>
+        <v>1.048280088309823</v>
       </c>
       <c r="J5">
-        <v>1.029572361952122</v>
+        <v>1.029559755640949</v>
       </c>
       <c r="K5">
-        <v>1.047648934324683</v>
+        <v>1.044917292255194</v>
       </c>
       <c r="L5">
-        <v>1.034734769353077</v>
+        <v>1.034698461094029</v>
       </c>
       <c r="M5">
-        <v>1.045276162157521</v>
+        <v>1.045180871218924</v>
       </c>
       <c r="N5">
-        <v>1.013756091778707</v>
+        <v>1.01502277040387</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044405425461001</v>
+        <v>1.044330009474013</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044767542556294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042845313307847</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023837300603658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011042690100639</v>
+        <v>1.01102765244807</v>
       </c>
       <c r="D6">
-        <v>1.038285117198668</v>
+        <v>1.035517573997711</v>
       </c>
       <c r="E6">
-        <v>1.02526589310818</v>
+        <v>1.025227433682114</v>
       </c>
       <c r="F6">
-        <v>1.035921141260403</v>
+        <v>1.035823350777146</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049176208519854</v>
+        <v>1.048304948533248</v>
       </c>
       <c r="J6">
-        <v>1.029645237627666</v>
+        <v>1.029630561542343</v>
       </c>
       <c r="K6">
-        <v>1.047692987094175</v>
+        <v>1.044955099141452</v>
       </c>
       <c r="L6">
-        <v>1.034814982322204</v>
+        <v>1.034776946592744</v>
       </c>
       <c r="M6">
-        <v>1.045354329940045</v>
+        <v>1.045257589867857</v>
       </c>
       <c r="N6">
-        <v>1.013781028742174</v>
+        <v>1.015042062069321</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044467289684433</v>
+        <v>1.044390726817898</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044807379919529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042881612911693</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023842835837133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01000386358307</v>
+        <v>1.010010850114516</v>
       </c>
       <c r="D7">
-        <v>1.037787589375737</v>
+        <v>1.035060987567476</v>
       </c>
       <c r="E7">
-        <v>1.024459091879857</v>
+        <v>1.024438714818333</v>
       </c>
       <c r="F7">
-        <v>1.035131277014163</v>
+        <v>1.035048277660584</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049006221831909</v>
+        <v>1.048153194892915</v>
       </c>
       <c r="J7">
-        <v>1.02914908727785</v>
+        <v>1.029155899898351</v>
       </c>
       <c r="K7">
-        <v>1.047447522573171</v>
+        <v>1.04475103457687</v>
       </c>
       <c r="L7">
-        <v>1.034268108864355</v>
+        <v>1.034247963388839</v>
       </c>
       <c r="M7">
-        <v>1.044820545265984</v>
+        <v>1.044738465500681</v>
       </c>
       <c r="N7">
-        <v>1.013612751511062</v>
+        <v>1.014939677490139</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044044837090535</v>
+        <v>1.043979876774115</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044637986727987</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042741914097121</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023820266355328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005588136182729</v>
+        <v>1.005672116773986</v>
       </c>
       <c r="D8">
-        <v>1.035669556187818</v>
+        <v>1.033114388543713</v>
       </c>
       <c r="E8">
-        <v>1.021041467325071</v>
+        <v>1.021084255730914</v>
       </c>
       <c r="F8">
-        <v>1.031788019950332</v>
+        <v>1.03175718446355</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048264323138375</v>
+        <v>1.04748337600071</v>
       </c>
       <c r="J8">
-        <v>1.027035471059292</v>
+        <v>1.027117052734946</v>
       </c>
       <c r="K8">
-        <v>1.046387101540267</v>
+        <v>1.043863735784937</v>
       </c>
       <c r="L8">
-        <v>1.031943766452909</v>
+        <v>1.031986004787297</v>
       </c>
       <c r="M8">
-        <v>1.042553952736518</v>
+        <v>1.042523503463695</v>
       </c>
       <c r="N8">
-        <v>1.012895198853351</v>
+        <v>1.014441141895726</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042250987631069</v>
+        <v>1.04222688913115</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043892716399349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042119512518337</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023714103742141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9975178102787612</v>
+        <v>0.9977182012085613</v>
       </c>
       <c r="D9">
-        <v>1.031823685150295</v>
+        <v>1.029577965504804</v>
       </c>
       <c r="E9">
-        <v>1.014843353235418</v>
+        <v>1.014981249046401</v>
       </c>
       <c r="F9">
-        <v>1.025734552568892</v>
+        <v>1.025783059752536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04684747466368</v>
+        <v>1.046189512186141</v>
       </c>
       <c r="J9">
-        <v>1.023158526582077</v>
+        <v>1.023351793782203</v>
       </c>
       <c r="K9">
-        <v>1.044420715032316</v>
+        <v>1.042208719615139</v>
       </c>
       <c r="L9">
-        <v>1.027700111813777</v>
+        <v>1.027835853643197</v>
       </c>
       <c r="M9">
-        <v>1.038423460355324</v>
+        <v>1.038471230128577</v>
       </c>
       <c r="N9">
-        <v>1.011577405393975</v>
+        <v>1.01343152404723</v>
       </c>
       <c r="O9">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P9">
-        <v>1.038981980373658</v>
+        <v>1.039019787025163</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042499230020124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040945881926487</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02349315278229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9919875202668822</v>
+        <v>0.9923043294681285</v>
       </c>
       <c r="D10">
-        <v>1.029222526301169</v>
+        <v>1.027195298382514</v>
       </c>
       <c r="E10">
-        <v>1.010664582635489</v>
+        <v>1.010897542115326</v>
       </c>
       <c r="F10">
-        <v>1.021707579968355</v>
+        <v>1.02183395909136</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045858736743466</v>
+        <v>1.045296043445293</v>
       </c>
       <c r="J10">
-        <v>1.020522684009937</v>
+        <v>1.020826639508188</v>
       </c>
       <c r="K10">
-        <v>1.043083470395548</v>
+        <v>1.041090300897936</v>
       </c>
       <c r="L10">
-        <v>1.024843917942621</v>
+        <v>1.025072786742619</v>
       </c>
       <c r="M10">
-        <v>1.03569565482262</v>
+        <v>1.035819876014255</v>
       </c>
       <c r="N10">
-        <v>1.010684577618954</v>
+        <v>1.01286756397691</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036874636042667</v>
+        <v>1.036972943126005</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041570415175117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040173469820008</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023335961851221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9900086074244246</v>
+        <v>0.9904219522039952</v>
       </c>
       <c r="D11">
-        <v>1.028242628389515</v>
+        <v>1.026300163611391</v>
       </c>
       <c r="E11">
-        <v>1.009449239209088</v>
+        <v>1.009760995306417</v>
       </c>
       <c r="F11">
-        <v>1.020922035450333</v>
+        <v>1.021111990604841</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0456155268093</v>
+        <v>1.045104192498272</v>
       </c>
       <c r="J11">
-        <v>1.019803029247863</v>
+        <v>1.020198689940618</v>
       </c>
       <c r="K11">
-        <v>1.04265088560121</v>
+        <v>1.040742575402141</v>
       </c>
       <c r="L11">
-        <v>1.024195130001117</v>
+        <v>1.024501151674293</v>
       </c>
       <c r="M11">
-        <v>1.035459891981289</v>
+        <v>1.035646453793267</v>
       </c>
       <c r="N11">
-        <v>1.010470425647061</v>
+        <v>1.012949608250214</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037124946471907</v>
+        <v>1.037272514640617</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041297135602142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039963430087166</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023303730633129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9894453749810052</v>
+        <v>0.989895337557931</v>
       </c>
       <c r="D12">
-        <v>1.027918105195902</v>
+        <v>1.026000194087173</v>
       </c>
       <c r="E12">
-        <v>1.009227221246502</v>
+        <v>1.009568578596342</v>
       </c>
       <c r="F12">
-        <v>1.020990548531121</v>
+        <v>1.021204505466945</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045595043495251</v>
+        <v>1.045101161315716</v>
       </c>
       <c r="J12">
-        <v>1.019703241380189</v>
+        <v>1.020133588062437</v>
       </c>
       <c r="K12">
-        <v>1.042529296131215</v>
+        <v>1.04064566685947</v>
       </c>
       <c r="L12">
-        <v>1.024179751944549</v>
+        <v>1.024514727408261</v>
       </c>
       <c r="M12">
-        <v>1.035726356927138</v>
+        <v>1.035936432151636</v>
       </c>
       <c r="N12">
-        <v>1.010460856955103</v>
+        <v>1.01305232445993</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037662484754282</v>
+        <v>1.037828595379318</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.041211169266335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039894914880665</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023300103609119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9899361800780382</v>
+        <v>0.990367529632968</v>
       </c>
       <c r="D13">
-        <v>1.028095359478527</v>
+        <v>1.026153750438419</v>
       </c>
       <c r="E13">
-        <v>1.009758378165937</v>
+        <v>1.010084083433397</v>
       </c>
       <c r="F13">
-        <v>1.021734130413091</v>
+        <v>1.021935832509935</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045754588233762</v>
+        <v>1.045249186624879</v>
       </c>
       <c r="J13">
-        <v>1.020078447418362</v>
+        <v>1.020491087497653</v>
       </c>
       <c r="K13">
-        <v>1.0426610944388</v>
+        <v>1.04075406063736</v>
       </c>
       <c r="L13">
-        <v>1.02465756665641</v>
+        <v>1.024977211275832</v>
       </c>
       <c r="M13">
-        <v>1.036413780098817</v>
+        <v>1.036611841881638</v>
       </c>
       <c r="N13">
-        <v>1.010610229598756</v>
+        <v>1.013142979097345</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038482914489844</v>
+        <v>1.038639486436192</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.041301881648554</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039968833682669</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023324499310392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9907556944450127</v>
+        <v>0.9911495156580487</v>
       </c>
       <c r="D14">
-        <v>1.028450623984624</v>
+        <v>1.026470600371274</v>
       </c>
       <c r="E14">
-        <v>1.010468822841547</v>
+        <v>1.010763620973818</v>
       </c>
       <c r="F14">
-        <v>1.022557735014354</v>
+        <v>1.022734881152824</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045947942713524</v>
+        <v>1.045421608433873</v>
       </c>
       <c r="J14">
-        <v>1.020554380813259</v>
+        <v>1.02093136485557</v>
       </c>
       <c r="K14">
-        <v>1.042871526449018</v>
+        <v>1.040926346516225</v>
       </c>
       <c r="L14">
-        <v>1.025212690152874</v>
+        <v>1.025502072829851</v>
       </c>
       <c r="M14">
-        <v>1.037082853337602</v>
+        <v>1.037256843916626</v>
       </c>
       <c r="N14">
-        <v>1.010786204055804</v>
+        <v>1.013201718725569</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03918521623295</v>
+        <v>1.039322740813804</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041452074332161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04009219400952</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023355148544107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911875814245219</v>
+        <v>0.9915610591125775</v>
       </c>
       <c r="D15">
-        <v>1.028652457154168</v>
+        <v>1.026652355084699</v>
       </c>
       <c r="E15">
-        <v>1.010812980881648</v>
+        <v>1.011091129041505</v>
       </c>
       <c r="F15">
-        <v>1.022919603466496</v>
+        <v>1.023083457353225</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046037577922696</v>
+        <v>1.045500056518105</v>
       </c>
       <c r="J15">
-        <v>1.020778280021556</v>
+        <v>1.021135929095425</v>
       </c>
       <c r="K15">
-        <v>1.042984486613147</v>
+        <v>1.041019324963986</v>
       </c>
       <c r="L15">
-        <v>1.025463009961057</v>
+        <v>1.025736087881761</v>
       </c>
       <c r="M15">
-        <v>1.037352255945569</v>
+        <v>1.037513213567222</v>
       </c>
       <c r="N15">
-        <v>1.010865368519622</v>
+        <v>1.013217687545737</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039435702337083</v>
+        <v>1.039562922136861</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04153776254278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040164330102646</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023370460432558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9934277726065133</v>
+        <v>0.993702750873421</v>
       </c>
       <c r="D16">
-        <v>1.02971787093024</v>
+        <v>1.027619051029209</v>
       </c>
       <c r="E16">
-        <v>1.012479256201435</v>
+        <v>1.012677161490678</v>
       </c>
       <c r="F16">
-        <v>1.024508793566405</v>
+        <v>1.024608225874392</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046437414084772</v>
+        <v>1.04584493262311</v>
       </c>
       <c r="J16">
-        <v>1.021826966784243</v>
+        <v>1.022090869331637</v>
       </c>
       <c r="K16">
-        <v>1.043535354047646</v>
+        <v>1.041471652047305</v>
       </c>
       <c r="L16">
-        <v>1.02659076402764</v>
+        <v>1.026785220268374</v>
       </c>
       <c r="M16">
-        <v>1.038413777488065</v>
+        <v>1.038511528809466</v>
       </c>
       <c r="N16">
-        <v>1.011216356839448</v>
+        <v>1.013265312534766</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040235995200192</v>
+        <v>1.040313259375569</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041930385765794</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.040487590046246</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023435504748863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9947191483780667</v>
+        <v>0.9949471017834782</v>
       </c>
       <c r="D17">
-        <v>1.030352499660255</v>
+        <v>1.028199612383251</v>
       </c>
       <c r="E17">
-        <v>1.013386892291953</v>
+        <v>1.013546561513938</v>
       </c>
       <c r="F17">
-        <v>1.025292541953553</v>
+        <v>1.025361028930468</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046641263603328</v>
+        <v>1.04602023261179</v>
       </c>
       <c r="J17">
-        <v>1.022381785511758</v>
+        <v>1.022600849870954</v>
       </c>
       <c r="K17">
-        <v>1.043848476780781</v>
+        <v>1.041730628937474</v>
       </c>
       <c r="L17">
-        <v>1.027164202685067</v>
+        <v>1.027321167525843</v>
       </c>
       <c r="M17">
-        <v>1.038871172999967</v>
+        <v>1.038938534244576</v>
       </c>
       <c r="N17">
-        <v>1.011393195821516</v>
+        <v>1.013300152130004</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040468445167277</v>
+        <v>1.0405216938547</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042154343496189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.040673517727858</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023469222519795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995306404805244</v>
+        <v>0.9955159813777068</v>
       </c>
       <c r="D18">
-        <v>1.030661093654986</v>
+        <v>1.028486360498093</v>
       </c>
       <c r="E18">
-        <v>1.013701200004688</v>
+        <v>1.013845982367863</v>
       </c>
       <c r="F18">
-        <v>1.02540816741529</v>
+        <v>1.025464333436772</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046687052272532</v>
+        <v>1.046054203824774</v>
       </c>
       <c r="J18">
-        <v>1.02254791076913</v>
+        <v>1.02274946643345</v>
       </c>
       <c r="K18">
-        <v>1.043970763169933</v>
+        <v>1.041830854079272</v>
       </c>
       <c r="L18">
-        <v>1.027287550830436</v>
+        <v>1.027429920776085</v>
       </c>
       <c r="M18">
-        <v>1.038802276353669</v>
+        <v>1.038857533647227</v>
       </c>
       <c r="N18">
-        <v>1.011430713058491</v>
+        <v>1.013284731154472</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040176168203299</v>
+        <v>1.040219857897434</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042229257999723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.040731689191895</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02347496168504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9952551951434343</v>
+        <v>0.9954659700474572</v>
       </c>
       <c r="D19">
-        <v>1.030700306983461</v>
+        <v>1.028529792389218</v>
       </c>
       <c r="E19">
-        <v>1.013472761952342</v>
+        <v>1.013618619265429</v>
       </c>
       <c r="F19">
-        <v>1.024909592353515</v>
+        <v>1.024966253937283</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046598961011224</v>
+        <v>1.045966969184871</v>
       </c>
       <c r="J19">
-        <v>1.022362978418711</v>
+        <v>1.022565732639196</v>
       </c>
       <c r="K19">
-        <v>1.043947531510287</v>
+        <v>1.041811584850618</v>
       </c>
       <c r="L19">
-        <v>1.026999602363182</v>
+        <v>1.027143040944477</v>
       </c>
       <c r="M19">
-        <v>1.038249458646139</v>
+        <v>1.038305207231969</v>
       </c>
       <c r="N19">
-        <v>1.011345021861996</v>
+        <v>1.013205713652399</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039413303410917</v>
+        <v>1.039457395975479</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04221917708663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040725039254883</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02346225042513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934248484618262</v>
+        <v>0.9936887465773373</v>
       </c>
       <c r="D20">
-        <v>1.029937568487765</v>
+        <v>1.027846242396286</v>
       </c>
       <c r="E20">
-        <v>1.011750537733283</v>
+        <v>1.011940064281526</v>
       </c>
       <c r="F20">
-        <v>1.022755153984546</v>
+        <v>1.022846578636213</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046131293727725</v>
+        <v>1.04553562697103</v>
       </c>
       <c r="J20">
-        <v>1.021211605448667</v>
+        <v>1.021465143176934</v>
       </c>
       <c r="K20">
-        <v>1.043473664722111</v>
+        <v>1.041416505452277</v>
       </c>
       <c r="L20">
-        <v>1.025589867730434</v>
+        <v>1.025776161703274</v>
       </c>
       <c r="M20">
-        <v>1.036409344180735</v>
+        <v>1.03649925220261</v>
       </c>
       <c r="N20">
-        <v>1.010919512915602</v>
+        <v>1.012942590011373</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037428877500787</v>
+        <v>1.037500030435147</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.041888021245935</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040449975780656</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023387629992961</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9891926972462658</v>
+        <v>0.9896547974317834</v>
       </c>
       <c r="D21">
-        <v>1.027964352827382</v>
+        <v>1.026064074660629</v>
       </c>
       <c r="E21">
-        <v>1.008512673475396</v>
+        <v>1.008865237116502</v>
       </c>
       <c r="F21">
-        <v>1.019562213393179</v>
+        <v>1.01978428175144</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045338734675547</v>
+        <v>1.044852239268158</v>
       </c>
       <c r="J21">
-        <v>1.019149321203856</v>
+        <v>1.019591506692459</v>
       </c>
       <c r="K21">
-        <v>1.042434617386089</v>
+        <v>1.04056792633538</v>
       </c>
       <c r="L21">
-        <v>1.023334545651021</v>
+        <v>1.023680579062993</v>
       </c>
       <c r="M21">
-        <v>1.034182215330711</v>
+        <v>1.034400284876339</v>
       </c>
       <c r="N21">
-        <v>1.010215403165145</v>
+        <v>1.012850532522223</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035625304323656</v>
+        <v>1.035797892904499</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041156573579714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039853515577538</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023262893084246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9865101476107696</v>
+        <v>0.9870974012181919</v>
       </c>
       <c r="D22">
-        <v>1.026701558914547</v>
+        <v>1.024923296969209</v>
       </c>
       <c r="E22">
-        <v>1.006484929341149</v>
+        <v>1.00694070046598</v>
       </c>
       <c r="F22">
-        <v>1.017588344641017</v>
+        <v>1.017893352794714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044831988923189</v>
+        <v>1.044415169847512</v>
       </c>
       <c r="J22">
-        <v>1.017854058399032</v>
+        <v>1.018414537182948</v>
       </c>
       <c r="K22">
-        <v>1.041761983797712</v>
+        <v>1.040016676023399</v>
       </c>
       <c r="L22">
-        <v>1.021929003950361</v>
+        <v>1.022375903358437</v>
       </c>
       <c r="M22">
-        <v>1.032819243887789</v>
+        <v>1.033118481942446</v>
       </c>
       <c r="N22">
-        <v>1.009774154596057</v>
+        <v>1.012789311973965</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034546595627914</v>
+        <v>1.034783424422588</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040667602651218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039449047593727</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023178426469581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9879353484859108</v>
+        <v>0.9884433097781877</v>
       </c>
       <c r="D23">
-        <v>1.027356599477821</v>
+        <v>1.02551177703033</v>
       </c>
       <c r="E23">
-        <v>1.007561130487365</v>
+        <v>1.007951421975932</v>
       </c>
       <c r="F23">
-        <v>1.018636181460383</v>
+        <v>1.01888869600637</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045097419828375</v>
+        <v>1.044639522898232</v>
       </c>
       <c r="J23">
-        <v>1.018541552806447</v>
+        <v>1.019027030749743</v>
       </c>
       <c r="K23">
-        <v>1.042104192906682</v>
+        <v>1.040292718782776</v>
       </c>
       <c r="L23">
-        <v>1.02267489696325</v>
+        <v>1.023057787195005</v>
       </c>
       <c r="M23">
-        <v>1.033542798037735</v>
+        <v>1.033790657926956</v>
       </c>
       <c r="N23">
-        <v>1.010007832680732</v>
+        <v>1.012778708327146</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035119244773937</v>
+        <v>1.03531541070937</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.040900004839783</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039633719864932</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02321887736576</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9934466103256854</v>
+        <v>0.9937097654044439</v>
       </c>
       <c r="D24">
-        <v>1.02993086251065</v>
+        <v>1.027840424140148</v>
       </c>
       <c r="E24">
-        <v>1.011739865766624</v>
+        <v>1.011928831198981</v>
       </c>
       <c r="F24">
-        <v>1.022707234612955</v>
+        <v>1.022798161858559</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046117309868856</v>
+        <v>1.045521647677845</v>
       </c>
       <c r="J24">
-        <v>1.021199282487151</v>
+        <v>1.021452121514407</v>
       </c>
       <c r="K24">
-        <v>1.043451984723239</v>
+        <v>1.041395655536566</v>
       </c>
       <c r="L24">
-        <v>1.02556390580716</v>
+        <v>1.025749652286004</v>
       </c>
       <c r="M24">
-        <v>1.036346984592247</v>
+        <v>1.036436405208829</v>
       </c>
       <c r="N24">
-        <v>1.010911935832704</v>
+        <v>1.012932490691589</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037338583672609</v>
+        <v>1.037409354403837</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041845506976538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.04040535067095</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023380061396104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9996426289973277</v>
+        <v>0.9998022134912485</v>
       </c>
       <c r="D25">
-        <v>1.032856408630015</v>
+        <v>1.030525622286961</v>
       </c>
       <c r="E25">
-        <v>1.016469897714611</v>
+        <v>1.016574406311249</v>
       </c>
       <c r="F25">
-        <v>1.027321457143187</v>
+        <v>1.0273425430752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04723454568982</v>
+        <v>1.046540573931639</v>
       </c>
       <c r="J25">
-        <v>1.024182026090509</v>
+        <v>1.024336235775146</v>
       </c>
       <c r="K25">
-        <v>1.044965217156978</v>
+        <v>1.042667852737839</v>
       </c>
       <c r="L25">
-        <v>1.028817808703777</v>
+        <v>1.02892076131804</v>
       </c>
       <c r="M25">
-        <v>1.039509946974524</v>
+        <v>1.039530727287693</v>
       </c>
       <c r="N25">
-        <v>1.01192621724772</v>
+        <v>1.013665758955215</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03984186298668</v>
+        <v>1.03985830922612</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.042912588476387</v>
+        <v>1.041301716183659</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023559922208982</v>
       </c>
     </row>
   </sheetData>
